--- a/instance/zyjk/CHC/rule/规则db.xlsx
+++ b/instance/zyjk/CHC/rule/规则db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/CHC/rule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C69540-26C0-7344-83FC-EE267C95A5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4562BF7F-1505-774F-AA38-CA081C392677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="730" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="730" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="疾病身份证" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="1189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="1188">
   <si>
     <t>YH_JB001</t>
   </si>
@@ -3104,255 +3104,9 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>r1,DRINKING_FREQUENCY_CODE=3 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,DRINKING_FREQUENCY_CODE=4 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,HALOPHILIA_CODE=2 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,HALOPHILIA_CODE=3 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,EATING_HABITS_CODE=4 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,BMI='24' .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,SBP=130 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,DBP=85 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,SPORT_FREQUENCE=2 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,EXERCISE_FREQUENCY_CODE=3 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,EXERCISE_FREQUENCY_CODE=4 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,TRIGLYCERIDE='2.22' .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,SERUM_HIGH_DENSITY='0.91' .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,FASTING_BLOOD_SUGAR='7.1' .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,RANDOM_BLOOD_SUGAR='11.10' .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r4,'01','JB002'</t>
-  </si>
-  <si>
-    <t>r1,AGE=40 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
     <t>PG_AGE002</t>
   </si>
   <si>
-    <t>r1,AGE=41 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,FASTING_BLOOD_SUGAR='6.1' .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,RANDOM_BLOOD_SUGAR='7.8' .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r3,'E13.903',1</t>
-  </si>
-  <si>
-    <t>r3,'E28.201',1</t>
-  </si>
-  <si>
-    <t>r4,'01','JB001'</t>
-  </si>
-  <si>
-    <t>r6,'糖尿病'</t>
-  </si>
-  <si>
-    <t>r1,SERUM_HIGH_DENSITY=0.91 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,TRIGLYCERIDE=2.22 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,SEX_CODE=1 .and. WAISTLINE='90' .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,SEX_CODE=2 .and. WAISTLINE='85' .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r3,'I48',1</t>
-  </si>
-  <si>
-    <t>r6,'脑卒中'</t>
-  </si>
-  <si>
-    <t>r1,SMOKING_STATUS_CODE=1 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,SMOKING_STATUS_CODE=2 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,BMI='26' .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r3,'I60',1</t>
-  </si>
-  <si>
-    <t>r3,'I61',1</t>
-  </si>
-  <si>
-    <t>r3,'I62',1</t>
-  </si>
-  <si>
-    <t>r3,'I63',1</t>
-  </si>
-  <si>
-    <t>r3,'I64',1</t>
-  </si>
-  <si>
-    <t>r3,'G45.9',1</t>
-  </si>
-  <si>
-    <t>r3,'I67.202',1</t>
-  </si>
-  <si>
-    <t>r1,AGE=66 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r3,'E79.001',1</t>
-  </si>
-  <si>
-    <t>r6,'肾'</t>
-  </si>
-  <si>
-    <t>r1,URINE_PROTEIN='阳性' .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,URINARY_ERYTHROCYTE=4 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,SCR=100.and.AGE=50 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,ACR=31 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,AGE=35 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,AGE=36 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r3,'J45.9',1</t>
-  </si>
-  <si>
-    <t>r6,'慢性阻塞性肺疾病'</t>
-  </si>
-  <si>
-    <t>r1,IS_EXPOSURE_RISK=1 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r3,'J30.4',1</t>
-  </si>
-  <si>
-    <t>r3,'J42',1</t>
-  </si>
-  <si>
-    <t>r3,'J43.9',1</t>
-  </si>
-  <si>
-    <t>r3,'E50',1</t>
-  </si>
-  <si>
-    <t>r1,BMI='18' .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r3,'C',1</t>
-  </si>
-  <si>
-    <t>r3,'J84.108',1</t>
-  </si>
-  <si>
-    <t>r1,IS_EXPOSURE=1 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,AGE=45 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,AGE=46 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r3,'K51',1</t>
-  </si>
-  <si>
-    <t>r1,SEX_CODE=1.and.AGE=35 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,SEX_CODE=1.and.AGE=36 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,SEX_CODE=2.and.AGE=45 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,SEX_CODE=2.and.AGE=46 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r3,'B16',1</t>
-  </si>
-  <si>
-    <t>r3,'B17.1',1</t>
-  </si>
-  <si>
-    <t>r3,'K70.3',1</t>
-  </si>
-  <si>
-    <t>r3,'K75.4',1</t>
-  </si>
-  <si>
-    <t>r3,'K76.0',1</t>
-  </si>
-  <si>
-    <t>r1,AGE=60 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r1,AGE=61 .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r3,'K29.4',1</t>
-  </si>
-  <si>
-    <t>r3,'K25',1</t>
-  </si>
-  <si>
-    <t>r3,'K31.703',1</t>
-  </si>
-  <si>
-    <t>r1,HELICOBACTER_PYLORI='阳性' .and. CATEGORY_CODE='2'</t>
-  </si>
-  <si>
-    <t>r3,'D51.001',1</t>
-  </si>
-  <si>
-    <t>r3,'B34.40',1</t>
-  </si>
-  <si>
-    <t>r3,'N72',1</t>
-  </si>
-  <si>
-    <t>r3,'N88',1</t>
-  </si>
-  <si>
     <t>2023/10/20 14:35:43</t>
   </si>
   <si>
@@ -3615,14 +3369,6 @@
   </si>
   <si>
     <t>2023/10/18 09:01:27</t>
-  </si>
-  <si>
-    <t>高血压'</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>O24',1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ruleParam</t>
@@ -3633,10 +3379,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>,AGE=56 .and. CATEGORY_CODE='2'</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>r3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3645,10 +3387,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>var</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>r2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3694,6 +3432,264 @@
   </si>
   <si>
     <t>'I10','1','N03','1'</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>'高血压'</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE=56 .and. CATEGORY_CODE='2'</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRINKING_FREQUENCY_CODE=3 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>DRINKING_FREQUENCY_CODE=4 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>HALOPHILIA_CODE=2 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>HALOPHILIA_CODE=3 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>EATING_HABITS_CODE=4 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>BMI='24' .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>SBP=130 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>DBP=85 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>SPORT_FREQUENCE=2 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>EXERCISE_FREQUENCY_CODE=3 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>EXERCISE_FREQUENCY_CODE=4 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>TRIGLYCERIDE='2.22' .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>SERUM_HIGH_DENSITY='0.91' .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>FASTING_BLOOD_SUGAR='7.1' .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>RANDOM_BLOOD_SUGAR='11.10' .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>AGE=40 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>AGE=41 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>FASTING_BLOOD_SUGAR='6.1' .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>RANDOM_BLOOD_SUGAR='7.8' .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>SERUM_HIGH_DENSITY=0.91 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>TRIGLYCERIDE=2.22 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>SEX_CODE=1 .and. WAISTLINE='90' .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>SEX_CODE=2 .and. WAISTLINE='85' .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>SMOKING_STATUS_CODE=1 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>SMOKING_STATUS_CODE=2 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>BMI='26' .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>AGE=66 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>URINE_PROTEIN='阳性' .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>URINARY_ERYTHROCYTE=4 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>SCR=100.and.AGE=50 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>ACR=31 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>AGE=35 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>AGE=36 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>IS_EXPOSURE_RISK=1 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>BMI='18' .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>IS_EXPOSURE=1 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>AGE=45 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>AGE=46 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>SEX_CODE=1.and.AGE=35 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>SEX_CODE=1.and.AGE=36 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>SEX_CODE=2.and.AGE=45 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>SEX_CODE=2.and.AGE=46 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>AGE=60 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>AGE=61 .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>HELICOBACTER_PYLORI='阳性' .and. CATEGORY_CODE='2'</t>
+  </si>
+  <si>
+    <t>'E13.903',1</t>
+  </si>
+  <si>
+    <t>'E28.201',1</t>
+  </si>
+  <si>
+    <t>'I48',1</t>
+  </si>
+  <si>
+    <t>'I60',1</t>
+  </si>
+  <si>
+    <t>'I61',1</t>
+  </si>
+  <si>
+    <t>'I62',1</t>
+  </si>
+  <si>
+    <t>'I63',1</t>
+  </si>
+  <si>
+    <t>'I64',1</t>
+  </si>
+  <si>
+    <t>'G45.9',1</t>
+  </si>
+  <si>
+    <t>'I67.202',1</t>
+  </si>
+  <si>
+    <t>'E79.001',1</t>
+  </si>
+  <si>
+    <t>'J45.9',1</t>
+  </si>
+  <si>
+    <t>'J30.4',1</t>
+  </si>
+  <si>
+    <t>'J42',1</t>
+  </si>
+  <si>
+    <t>'J43.9',1</t>
+  </si>
+  <si>
+    <t>'E50',1</t>
+  </si>
+  <si>
+    <t>'C',1</t>
+  </si>
+  <si>
+    <t>'J84.108',1</t>
+  </si>
+  <si>
+    <t>'K51',1</t>
+  </si>
+  <si>
+    <t>'B16',1</t>
+  </si>
+  <si>
+    <t>'B17.1',1</t>
+  </si>
+  <si>
+    <t>'K70.3',1</t>
+  </si>
+  <si>
+    <t>'K75.4',1</t>
+  </si>
+  <si>
+    <t>'K76.0',1</t>
+  </si>
+  <si>
+    <t>'K29.4',1</t>
+  </si>
+  <si>
+    <t>'K25',1</t>
+  </si>
+  <si>
+    <t>'K31.703',1</t>
+  </si>
+  <si>
+    <t>'D51.001',1</t>
+  </si>
+  <si>
+    <t>'B34.40',1</t>
+  </si>
+  <si>
+    <t>'N72',1</t>
+  </si>
+  <si>
+    <t>'N88',1</t>
+  </si>
+  <si>
+    <t>'01','JB002'</t>
+  </si>
+  <si>
+    <t>'01','JB001'</t>
+  </si>
+  <si>
+    <t>'糖尿病'</t>
+  </si>
+  <si>
+    <t>'脑卒中'</t>
+  </si>
+  <si>
+    <t>'肾'</t>
+  </si>
+  <si>
+    <t>'慢性阻塞性肺疾病'</t>
+  </si>
+  <si>
+    <t>'O24',1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4424,7 +4420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4916,128 +4912,6 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="55" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="49" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5055,6 +4929,119 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="55" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="49" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11857,1703 +11844,1570 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9" style="24" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="15" style="165" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="171" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="24" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" style="165" customWidth="1"/>
-    <col min="8" max="42" width="9" style="165" customWidth="1"/>
-    <col min="43" max="16384" width="9" style="165"/>
+    <col min="1" max="1" width="9" style="198" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="198" customWidth="1"/>
+    <col min="3" max="3" width="15" style="198" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="200" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="198" customWidth="1"/>
+    <col min="6" max="27" width="9" style="198" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="198"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5" ht="30" customHeight="1">
+      <c r="A1" s="201" t="s">
         <v>980</v>
       </c>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="201" t="s">
         <v>981</v>
       </c>
-      <c r="C1" s="166" t="s">
+      <c r="C1" s="201" t="s">
         <v>987</v>
       </c>
-      <c r="D1" s="178" t="s">
+      <c r="D1" s="202" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E1" s="201" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1">
+      <c r="A2" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="204" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="204" t="s">
+        <v>991</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>997</v>
+      </c>
+      <c r="E2" s="206" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1">
+      <c r="A3" s="207" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="204" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="204" t="s">
+        <v>991</v>
+      </c>
+      <c r="D3" s="205" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E3" s="206" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17">
+      <c r="A4" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="204" t="s">
+        <v>999</v>
+      </c>
+      <c r="C4" s="197" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D4" s="199" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E4" s="206" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="204" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="204" t="s">
+        <v>991</v>
+      </c>
+      <c r="D5" s="205" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E5" s="208" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="209" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="204" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="205" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E6" s="208" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="204" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C7" s="204" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="205" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E7" s="208" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="204" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C8" s="204" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="205" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E8" s="208" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="210" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C9" s="204" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="205" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E9" s="208" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17">
+      <c r="A10" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="204" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C10" s="204" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="205" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E10" s="208" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17">
+      <c r="A11" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="210" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C11" s="204" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="205" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E11" s="208" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17">
+      <c r="A12" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="210" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C12" s="204" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="205" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E12" s="208" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="210" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C13" s="204" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="205" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E13" s="208" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="204" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C14" s="204" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="205" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E14" s="208" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="204" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C15" s="204" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="205" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E15" s="208" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="210" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C16" s="204" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="205" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E16" s="208" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30">
+      <c r="A17" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="210" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C17" s="204" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="205" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E17" s="208" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30">
+      <c r="A18" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="210" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C18" s="204" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="205" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E18" s="208" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30">
+      <c r="A19" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="210" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C19" s="204" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="205" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E19" s="208" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17">
+      <c r="A20" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="204" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C20" s="204" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D20" s="211" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E20" s="208" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17">
+      <c r="A21" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="210" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C21" s="204" t="s">
+        <v>991</v>
+      </c>
+      <c r="D21" s="205" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E21" s="208" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17">
+      <c r="A22" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="210" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C22" s="204" t="s">
+        <v>991</v>
+      </c>
+      <c r="D22" s="205" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E22" s="208" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30">
+      <c r="A23" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="210" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C23" s="204" t="s">
+        <v>991</v>
+      </c>
+      <c r="D23" s="205" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E23" s="208" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30">
+      <c r="A24" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="210" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C24" s="204" t="s">
+        <v>991</v>
+      </c>
+      <c r="D24" s="205" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E24" s="208" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17">
+      <c r="A25" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="204" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C25" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D25" s="211" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E25" s="208" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17">
+      <c r="A26" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="204" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C26" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D26" s="211" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E26" s="208" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16">
+      <c r="A27" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="210" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C27" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D27" s="211" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E27" s="208" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16">
+      <c r="A28" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="210" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C28" s="197" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D28" s="211" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E28" s="208" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17">
+      <c r="A29" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="204" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C29" s="197" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D29" s="211" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E29" s="208" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30">
+      <c r="A30" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="210" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C30" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D30" s="205" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E30" s="208" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30">
+      <c r="A31" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="210" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C31" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D31" s="205" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E31" s="208" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30">
+      <c r="A32" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="210" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C32" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D32" s="205" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E32" s="208" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30">
+      <c r="A33" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="210" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C33" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D33" s="205" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E33" s="208" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16">
+      <c r="A34" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="210" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C34" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D34" s="211" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E34" s="208" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17">
+      <c r="A35" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="204" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C35" s="197" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D35" s="211" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E35" s="208" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30">
+      <c r="A36" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="210" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C36" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D36" s="205" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E36" s="208" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30">
+      <c r="A37" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="210" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C37" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D37" s="205" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E37" s="208" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16">
+      <c r="A38" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="210" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C38" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D38" s="205" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E38" s="208" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16">
+      <c r="A39" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="210" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C39" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D39" s="211" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E39" s="208" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16">
+      <c r="A40" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="210" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C40" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D40" s="211" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E40" s="208" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16">
+      <c r="A41" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" s="210" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C41" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D41" s="211" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E41" s="208" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16">
+      <c r="A42" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="210" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C42" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D42" s="211" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E42" s="208" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16">
+      <c r="A43" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="210" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C43" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D43" s="211" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E43" s="208" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16">
+      <c r="A44" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="210" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C44" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D44" s="211" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E44" s="208" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16">
+      <c r="A45" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="210" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C45" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D45" s="211" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E45" s="208" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16">
+      <c r="A46" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="210" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C46" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D46" s="205" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E46" s="208" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16">
+      <c r="A47" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="210" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C47" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D47" s="211" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E47" s="208" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17">
+      <c r="A48" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" s="204" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C48" s="197" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D48" s="211" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E48" s="208" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17">
+      <c r="A49" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="204" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C49" s="197" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D49" s="211" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E49" s="208" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30">
+      <c r="A50" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="210" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C50" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D50" s="205" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E50" s="208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30">
+      <c r="A51" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="210" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C51" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D51" s="205" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E51" s="208" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30">
+      <c r="A52" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" s="210" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C52" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D52" s="205" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E52" s="208" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16">
+      <c r="A53" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="210" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C53" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D53" s="205" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E53" s="208" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16">
+      <c r="A54" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="210" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C54" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D54" s="205" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E54" s="208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16">
+      <c r="A55" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="210" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C55" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D55" s="205" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E55" s="208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16">
+      <c r="A56" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" s="210" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C56" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D56" s="211" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E56" s="208" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16">
+      <c r="A57" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" s="210" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C57" s="197" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D57" s="211" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E57" s="208" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30">
+      <c r="A58" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="210" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C58" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D58" s="205" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E58" s="208" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16">
+      <c r="A59" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="210" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C59" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D59" s="211" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E59" s="208" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16">
+      <c r="A60" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" s="210" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C60" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D60" s="211" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E60" s="208" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16">
+      <c r="A61" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B61" s="210" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C61" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D61" s="211" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E61" s="208" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16">
+      <c r="A62" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="210" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C62" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D62" s="211" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E62" s="208" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16">
+      <c r="A63" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63" s="210" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C63" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D63" s="205" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E63" s="208" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16">
+      <c r="A64" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="210" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C64" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D64" s="205" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E64" s="208" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17">
+      <c r="A65" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" s="204" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C65" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D65" s="211" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E65" s="208" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17">
+      <c r="A66" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="204" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C66" s="197" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D66" s="211" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E66" s="208" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16">
+      <c r="A67" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" s="210" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C67" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D67" s="211" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E67" s="208" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16">
+      <c r="A68" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" s="210" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C68" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D68" s="205" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E68" s="208" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16">
+      <c r="A69" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" s="210" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C69" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D69" s="205" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E69" s="208" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16">
+      <c r="A70" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" s="210" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C70" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D70" s="205" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E70" s="208" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16">
+      <c r="A71" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" s="210" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C71" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D71" s="211" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E71" s="208" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30">
+      <c r="A72" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" s="210" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C72" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D72" s="205" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E72" s="208" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30">
+      <c r="A73" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="210" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C73" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D73" s="205" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E73" s="208" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30">
+      <c r="A74" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" s="210" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C74" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D74" s="205" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E74" s="208" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30">
+      <c r="A75" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" s="210" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C75" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D75" s="205" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E75" s="208" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16">
+      <c r="A76" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" s="210" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C76" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D76" s="211" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E76" s="208" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16">
+      <c r="A77" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B77" s="210" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C77" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D77" s="211" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E77" s="208" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16">
+      <c r="A78" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B78" s="210" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C78" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D78" s="211" t="s">
         <v>1171</v>
       </c>
-      <c r="E1" s="168" t="s">
-        <v>983</v>
-      </c>
-      <c r="F1" s="172" t="s">
-        <v>986</v>
-      </c>
-      <c r="G1" s="116" t="s">
+      <c r="E78" s="208" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16">
+      <c r="A79" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" s="210" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C79" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D79" s="211" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E79" s="208" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16">
+      <c r="A80" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" s="210" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C80" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D80" s="211" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E80" s="208" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16">
+      <c r="A81" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" s="210" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C81" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D81" s="205" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E81" s="208" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16">
+      <c r="A82" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" s="210" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C82" s="197" t="s">
+        <v>991</v>
+      </c>
+      <c r="D82" s="205" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E82" s="208" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16">
+      <c r="A83" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" s="210" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C83" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D83" s="211" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E83" s="208" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="16">
+      <c r="A84" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" s="210" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C84" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D84" s="211" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E84" s="208" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16">
+      <c r="A85" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" s="210" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C85" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D85" s="211" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="E85" s="208" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="30">
+      <c r="A86" s="203" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="174" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="167" t="s">
+      <c r="B86" s="210" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C86" s="197" t="s">
         <v>991</v>
       </c>
-      <c r="D2" s="179" t="s">
-        <v>997</v>
-      </c>
-      <c r="E2" s="169" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="181" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="116"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="175" t="s">
+      <c r="D86" s="205" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E86" s="208" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16">
+      <c r="A87" s="203" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="174" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="167" t="s">
-        <v>991</v>
-      </c>
-      <c r="D3" s="179" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E3" s="169" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="181" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="116"/>
-    </row>
-    <row r="4" spans="1:7" ht="17">
-      <c r="A4" s="173" t="s">
+      <c r="B87" s="210" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C87" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D87" s="211" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E87" s="208" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16">
+      <c r="A88" s="203" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="174" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C4" s="165" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D4" s="180" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E4" s="169" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="181" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="116"/>
-    </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="173" t="s">
+      <c r="B88" s="210" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C88" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D88" s="211" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E88" s="208" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16">
+      <c r="A89" s="203" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="174" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="179" t="s">
-        <v>998</v>
-      </c>
-      <c r="E5" s="170" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="116"/>
-    </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="173" t="s">
+      <c r="B89" s="210" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C89" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D89" s="211" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E89" s="208" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16">
+      <c r="A90" s="203" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="176" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C6" s="167"/>
-      <c r="D6" s="179" t="s">
-        <v>999</v>
-      </c>
-      <c r="E6" s="170" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="116"/>
-    </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="173" t="s">
+      <c r="B90" s="210" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C90" s="197" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D90" s="211" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E90" s="208" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16">
+      <c r="A91" s="203" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="174" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C7" s="167"/>
-      <c r="D7" s="179" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="170" t="s">
-        <v>180</v>
-      </c>
-      <c r="F7" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="116"/>
-    </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="174" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C8" s="167"/>
-      <c r="D8" s="179" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E8" s="170" t="s">
-        <v>180</v>
-      </c>
-      <c r="F8" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="116"/>
-    </row>
-    <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="177" t="s">
+      <c r="B91" s="210" t="s">
         <v>1086</v>
       </c>
-      <c r="C9" s="167"/>
-      <c r="D9" s="179" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E9" s="170" t="s">
-        <v>180</v>
-      </c>
-      <c r="F9" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="116"/>
-    </row>
-    <row r="10" spans="1:7" ht="17">
-      <c r="A10" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="174" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C10" s="167"/>
-      <c r="D10" s="179" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E10" s="170" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="116"/>
-    </row>
-    <row r="11" spans="1:7" ht="16">
-      <c r="A11" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="177" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C11" s="167"/>
-      <c r="D11" s="179" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E11" s="170" t="s">
-        <v>182</v>
-      </c>
-      <c r="F11" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="116"/>
-    </row>
-    <row r="12" spans="1:7" ht="16">
-      <c r="A12" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="177" t="s">
+      <c r="C91" s="197" t="s">
         <v>1089</v>
       </c>
-      <c r="C12" s="167"/>
-      <c r="D12" s="179" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E12" s="170" t="s">
-        <v>182</v>
-      </c>
-      <c r="F12" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="116"/>
-    </row>
-    <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="177" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C13" s="167"/>
-      <c r="D13" s="179" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E13" s="170" t="s">
-        <v>183</v>
-      </c>
-      <c r="F13" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="116"/>
-    </row>
-    <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B14" s="174" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C14" s="167"/>
-      <c r="D14" s="179" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E14" s="170" t="s">
-        <v>183</v>
-      </c>
-      <c r="F14" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="116"/>
-    </row>
-    <row r="15" spans="1:7" ht="30">
-      <c r="A15" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" s="174" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C15" s="167"/>
-      <c r="D15" s="179" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E15" s="170" t="s">
-        <v>183</v>
-      </c>
-      <c r="F15" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="116"/>
-    </row>
-    <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="177" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C16" s="167"/>
-      <c r="D16" s="179" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E16" s="170" t="s">
-        <v>184</v>
-      </c>
-      <c r="F16" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="116"/>
-    </row>
-    <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" s="177" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C17" s="167"/>
-      <c r="D17" s="179" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E17" s="170" t="s">
-        <v>184</v>
-      </c>
-      <c r="F17" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="116"/>
-    </row>
-    <row r="18" spans="1:7" ht="30">
-      <c r="A18" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" s="177" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C18" s="167"/>
-      <c r="D18" s="179" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E18" s="170" t="s">
-        <v>185</v>
-      </c>
-      <c r="F18" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="116"/>
-    </row>
-    <row r="19" spans="1:7" ht="30">
-      <c r="A19" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="177" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C19" s="167"/>
-      <c r="D19" s="179" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E19" s="170" t="s">
-        <v>185</v>
-      </c>
-      <c r="F19" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="116"/>
-    </row>
-    <row r="20" spans="1:7" ht="17">
-      <c r="A20" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="174" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C20" s="167"/>
-      <c r="D20" s="179" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E20" s="170" t="s">
-        <v>186</v>
-      </c>
-      <c r="F20" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="116"/>
-    </row>
-    <row r="21" spans="1:7" ht="16">
-      <c r="A21" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B21" s="177" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C21" s="167"/>
-      <c r="D21" s="179" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E21" s="170" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F21" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="116"/>
-    </row>
-    <row r="22" spans="1:7" ht="16">
-      <c r="A22" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="177" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C22" s="167"/>
-      <c r="D22" s="179" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E22" s="170" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F22" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="116"/>
-    </row>
-    <row r="23" spans="1:7" ht="30">
-      <c r="A23" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B23" s="177" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C23" s="167"/>
-      <c r="D23" s="179" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E23" s="170" t="s">
-        <v>187</v>
-      </c>
-      <c r="F23" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="116"/>
-    </row>
-    <row r="24" spans="1:7" ht="30">
-      <c r="A24" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24" s="177" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="179" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E24" s="170" t="s">
-        <v>187</v>
-      </c>
-      <c r="F24" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="116"/>
-    </row>
-    <row r="25" spans="1:7" ht="17">
-      <c r="A25" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" s="174" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C25" s="165" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D25" s="180" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E25" s="170" t="s">
-        <v>188</v>
-      </c>
-      <c r="F25" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="116"/>
-    </row>
-    <row r="26" spans="1:7" ht="17">
-      <c r="A26" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="174" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D26" s="179" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E26" s="170" t="s">
-        <v>189</v>
-      </c>
-      <c r="F26" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="116"/>
-    </row>
-    <row r="27" spans="1:7" ht="16">
-      <c r="A27" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" s="177" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D27" s="179" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E27" s="170" t="s">
-        <v>190</v>
-      </c>
-      <c r="F27" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="116"/>
-    </row>
-    <row r="28" spans="1:7" ht="16">
-      <c r="A28" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" s="177" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C28" s="165" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D28" s="179" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E28" s="170" t="s">
-        <v>191</v>
-      </c>
-      <c r="F28" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="116"/>
-    </row>
-    <row r="29" spans="1:7" ht="17">
-      <c r="A29" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="174" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D29" s="179" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E29" s="170" t="s">
-        <v>192</v>
-      </c>
-      <c r="F29" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="116"/>
-    </row>
-    <row r="30" spans="1:7" ht="30">
-      <c r="A30" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" s="177" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D30" s="179" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E30" s="170" t="s">
-        <v>193</v>
-      </c>
-      <c r="F30" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="116"/>
-    </row>
-    <row r="31" spans="1:7" ht="30">
-      <c r="A31" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" s="177" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D31" s="179" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E31" s="170" t="s">
-        <v>194</v>
-      </c>
-      <c r="F31" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="116"/>
-    </row>
-    <row r="32" spans="1:7" ht="30">
-      <c r="A32" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B32" s="177" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D32" s="179" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E32" s="170" t="s">
-        <v>195</v>
-      </c>
-      <c r="F32" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="116"/>
-    </row>
-    <row r="33" spans="1:7" ht="30">
-      <c r="A33" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" s="177" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D33" s="179" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E33" s="170" t="s">
-        <v>195</v>
-      </c>
-      <c r="F33" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="116"/>
-    </row>
-    <row r="34" spans="1:7" ht="16">
-      <c r="A34" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B34" s="177" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D34" s="179" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E34" s="170" t="s">
-        <v>196</v>
-      </c>
-      <c r="F34" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="116"/>
-    </row>
-    <row r="35" spans="1:7" ht="17">
-      <c r="A35" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B35" s="174" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D35" s="179" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E35" s="170" t="s">
-        <v>197</v>
-      </c>
-      <c r="F35" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="116"/>
-    </row>
-    <row r="36" spans="1:7" ht="30">
-      <c r="A36" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B36" s="177" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D36" s="179" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E36" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="F36" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="116"/>
-    </row>
-    <row r="37" spans="1:7" ht="30">
-      <c r="A37" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B37" s="177" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D37" s="179" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E37" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="F37" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="116"/>
-    </row>
-    <row r="38" spans="1:7" ht="16">
-      <c r="A38" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B38" s="177" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D38" s="179" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E38" s="170" t="s">
-        <v>199</v>
-      </c>
-      <c r="F38" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="116"/>
-    </row>
-    <row r="39" spans="1:7" ht="16">
-      <c r="A39" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B39" s="177" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D39" s="179" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E39" s="170" t="s">
-        <v>200</v>
-      </c>
-      <c r="F39" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="116"/>
-    </row>
-    <row r="40" spans="1:7" ht="16">
-      <c r="A40" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B40" s="177" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D40" s="179" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E40" s="170" t="s">
-        <v>200</v>
-      </c>
-      <c r="F40" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="116"/>
-    </row>
-    <row r="41" spans="1:7" ht="16">
-      <c r="A41" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B41" s="177" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D41" s="179" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E41" s="170" t="s">
-        <v>200</v>
-      </c>
-      <c r="F41" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="116"/>
-    </row>
-    <row r="42" spans="1:7" ht="16">
-      <c r="A42" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" s="177" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D42" s="179" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E42" s="170" t="s">
-        <v>200</v>
-      </c>
-      <c r="F42" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="116"/>
-    </row>
-    <row r="43" spans="1:7" ht="16">
-      <c r="A43" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B43" s="177" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D43" s="179" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E43" s="170" t="s">
-        <v>200</v>
-      </c>
-      <c r="F43" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="116"/>
-    </row>
-    <row r="44" spans="1:7" ht="16">
-      <c r="A44" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B44" s="177" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D44" s="179" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E44" s="170" t="s">
-        <v>201</v>
-      </c>
-      <c r="F44" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="116"/>
-    </row>
-    <row r="45" spans="1:7" ht="16">
-      <c r="A45" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="177" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D45" s="179" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E45" s="170" t="s">
-        <v>202</v>
-      </c>
-      <c r="F45" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="116"/>
-    </row>
-    <row r="46" spans="1:7" ht="16">
-      <c r="A46" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B46" s="177" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D46" s="179" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E46" s="170" t="s">
-        <v>203</v>
-      </c>
-      <c r="F46" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="116"/>
-    </row>
-    <row r="47" spans="1:7" ht="16">
-      <c r="A47" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B47" s="177" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D47" s="179" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E47" s="170" t="s">
-        <v>204</v>
-      </c>
-      <c r="F47" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="116"/>
-    </row>
-    <row r="48" spans="1:7" ht="17">
-      <c r="A48" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B48" s="174" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D48" s="179" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E48" s="170" t="s">
-        <v>205</v>
-      </c>
-      <c r="F48" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G48" s="116"/>
-    </row>
-    <row r="49" spans="1:7" ht="17">
-      <c r="A49" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B49" s="174" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D49" s="179" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E49" s="170" t="s">
-        <v>206</v>
-      </c>
-      <c r="F49" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" s="116"/>
-    </row>
-    <row r="50" spans="1:7" ht="30">
-      <c r="A50" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B50" s="177" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D50" s="179" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E50" s="170" t="s">
-        <v>207</v>
-      </c>
-      <c r="F50" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G50" s="116"/>
-    </row>
-    <row r="51" spans="1:7" ht="30">
-      <c r="A51" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B51" s="177" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D51" s="179" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E51" s="170" t="s">
-        <v>208</v>
-      </c>
-      <c r="F51" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G51" s="116"/>
-    </row>
-    <row r="52" spans="1:7" ht="30">
-      <c r="A52" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B52" s="177" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D52" s="179" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E52" s="170" t="s">
-        <v>209</v>
-      </c>
-      <c r="F52" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G52" s="116"/>
-    </row>
-    <row r="53" spans="1:7" ht="16">
-      <c r="A53" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B53" s="177" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D53" s="179" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E53" s="170" t="s">
-        <v>210</v>
-      </c>
-      <c r="F53" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G53" s="116"/>
-    </row>
-    <row r="54" spans="1:7" ht="16">
-      <c r="A54" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B54" s="177" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D54" s="179" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E54" s="170" t="s">
-        <v>211</v>
-      </c>
-      <c r="F54" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G54" s="116"/>
-    </row>
-    <row r="55" spans="1:7" ht="16">
-      <c r="A55" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B55" s="177" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D55" s="179" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E55" s="170" t="s">
-        <v>211</v>
-      </c>
-      <c r="F55" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G55" s="116"/>
-    </row>
-    <row r="56" spans="1:7" ht="16">
-      <c r="A56" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B56" s="177" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D56" s="179" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E56" s="170" t="s">
-        <v>212</v>
-      </c>
-      <c r="F56" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G56" s="116"/>
-    </row>
-    <row r="57" spans="1:7" ht="16">
-      <c r="A57" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B57" s="177" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D57" s="179" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E57" s="170" t="s">
-        <v>213</v>
-      </c>
-      <c r="F57" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G57" s="116"/>
-    </row>
-    <row r="58" spans="1:7" ht="30">
-      <c r="A58" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B58" s="177" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D58" s="179" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E58" s="170" t="s">
-        <v>214</v>
-      </c>
-      <c r="F58" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G58" s="116"/>
-    </row>
-    <row r="59" spans="1:7" ht="16">
-      <c r="A59" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B59" s="177" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D59" s="179" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E59" s="170" t="s">
-        <v>212</v>
-      </c>
-      <c r="F59" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G59" s="116"/>
-    </row>
-    <row r="60" spans="1:7" ht="16">
-      <c r="A60" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B60" s="177" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D60" s="179" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E60" s="170" t="s">
-        <v>212</v>
-      </c>
-      <c r="F60" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G60" s="116"/>
-    </row>
-    <row r="61" spans="1:7" ht="16">
-      <c r="A61" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B61" s="177" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D61" s="179" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E61" s="170" t="s">
-        <v>212</v>
-      </c>
-      <c r="F61" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G61" s="116"/>
-    </row>
-    <row r="62" spans="1:7" ht="16">
-      <c r="A62" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B62" s="177" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D62" s="179" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E62" s="170" t="s">
-        <v>215</v>
-      </c>
-      <c r="F62" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G62" s="116"/>
-    </row>
-    <row r="63" spans="1:7" ht="16">
-      <c r="A63" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B63" s="177" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D63" s="179" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E63" s="170" t="s">
-        <v>216</v>
-      </c>
-      <c r="F63" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G63" s="116"/>
-    </row>
-    <row r="64" spans="1:7" ht="16">
-      <c r="A64" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B64" s="177" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D64" s="179" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E64" s="170" t="s">
-        <v>217</v>
-      </c>
-      <c r="F64" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G64" s="116"/>
-    </row>
-    <row r="65" spans="1:7" ht="17">
-      <c r="A65" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B65" s="174" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D65" s="179" t="s">
-        <v>1056</v>
-      </c>
-      <c r="E65" s="170" t="s">
-        <v>218</v>
-      </c>
-      <c r="F65" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G65" s="116"/>
-    </row>
-    <row r="66" spans="1:7" ht="17">
-      <c r="A66" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B66" s="174" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D66" s="179" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E66" s="170" t="s">
-        <v>219</v>
-      </c>
-      <c r="F66" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G66" s="116"/>
-    </row>
-    <row r="67" spans="1:7" ht="16">
-      <c r="A67" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B67" s="177" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D67" s="179" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E67" s="170" t="s">
-        <v>220</v>
-      </c>
-      <c r="F67" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G67" s="116"/>
-    </row>
-    <row r="68" spans="1:7" ht="30">
-      <c r="A68" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B68" s="177" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D68" s="179" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E68" s="170" t="s">
-        <v>221</v>
-      </c>
-      <c r="F68" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G68" s="116"/>
-    </row>
-    <row r="69" spans="1:7" ht="16">
-      <c r="A69" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B69" s="177" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D69" s="179" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E69" s="170" t="s">
-        <v>222</v>
-      </c>
-      <c r="F69" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G69" s="116"/>
-    </row>
-    <row r="70" spans="1:7" ht="16">
-      <c r="A70" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B70" s="177" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D70" s="179" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E70" s="170" t="s">
-        <v>222</v>
-      </c>
-      <c r="F70" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G70" s="116"/>
-    </row>
-    <row r="71" spans="1:7" ht="16">
-      <c r="A71" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B71" s="177" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D71" s="179" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E71" s="170" t="s">
-        <v>223</v>
-      </c>
-      <c r="F71" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G71" s="116"/>
-    </row>
-    <row r="72" spans="1:7" ht="30">
-      <c r="A72" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B72" s="177" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D72" s="179" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E72" s="170" t="s">
-        <v>224</v>
-      </c>
-      <c r="F72" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G72" s="116"/>
-    </row>
-    <row r="73" spans="1:7" ht="30">
-      <c r="A73" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B73" s="177" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D73" s="179" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E73" s="170" t="s">
-        <v>224</v>
-      </c>
-      <c r="F73" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G73" s="116"/>
-    </row>
-    <row r="74" spans="1:7" ht="30">
-      <c r="A74" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B74" s="177" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D74" s="179" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E74" s="170" t="s">
-        <v>224</v>
-      </c>
-      <c r="F74" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G74" s="116"/>
-    </row>
-    <row r="75" spans="1:7" ht="30">
-      <c r="A75" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B75" s="177" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D75" s="179" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E75" s="170" t="s">
-        <v>224</v>
-      </c>
-      <c r="F75" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G75" s="116"/>
-    </row>
-    <row r="76" spans="1:7" ht="16">
-      <c r="A76" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B76" s="177" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D76" s="179" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E76" s="170" t="s">
-        <v>225</v>
-      </c>
-      <c r="F76" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G76" s="116"/>
-    </row>
-    <row r="77" spans="1:7" ht="16">
-      <c r="A77" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B77" s="177" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D77" s="179" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E77" s="170" t="s">
-        <v>226</v>
-      </c>
-      <c r="F77" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G77" s="116"/>
-    </row>
-    <row r="78" spans="1:7" ht="16">
-      <c r="A78" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B78" s="177" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D78" s="179" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E78" s="170" t="s">
-        <v>227</v>
-      </c>
-      <c r="F78" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G78" s="116"/>
-    </row>
-    <row r="79" spans="1:7" ht="16">
-      <c r="A79" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B79" s="177" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D79" s="179" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E79" s="170" t="s">
-        <v>228</v>
-      </c>
-      <c r="F79" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G79" s="116"/>
-    </row>
-    <row r="80" spans="1:7" ht="16">
-      <c r="A80" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B80" s="177" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D80" s="179" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E80" s="170" t="s">
-        <v>229</v>
-      </c>
-      <c r="F80" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G80" s="116"/>
-    </row>
-    <row r="81" spans="1:7" ht="16">
-      <c r="A81" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B81" s="177" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D81" s="179" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E81" s="170" t="s">
-        <v>230</v>
-      </c>
-      <c r="F81" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G81" s="116"/>
-    </row>
-    <row r="82" spans="1:7" ht="16">
-      <c r="A82" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B82" s="177" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D82" s="179" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E82" s="170" t="s">
-        <v>230</v>
-      </c>
-      <c r="F82" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G82" s="116"/>
-    </row>
-    <row r="83" spans="1:7" ht="16">
-      <c r="A83" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B83" s="177" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D83" s="179" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E83" s="170" t="s">
-        <v>231</v>
-      </c>
-      <c r="F83" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G83" s="116"/>
-    </row>
-    <row r="84" spans="1:7" ht="16">
-      <c r="A84" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B84" s="177" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D84" s="179" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E84" s="170" t="s">
-        <v>232</v>
-      </c>
-      <c r="F84" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G84" s="116"/>
-    </row>
-    <row r="85" spans="1:7" ht="16">
-      <c r="A85" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B85" s="177" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D85" s="179" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E85" s="170" t="s">
-        <v>233</v>
-      </c>
-      <c r="F85" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G85" s="116"/>
-    </row>
-    <row r="86" spans="1:7" ht="30">
-      <c r="A86" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B86" s="177" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D86" s="179" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E86" s="170" t="s">
-        <v>234</v>
-      </c>
-      <c r="F86" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G86" s="116"/>
-    </row>
-    <row r="87" spans="1:7" ht="16">
-      <c r="A87" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B87" s="177" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D87" s="179" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E87" s="170" t="s">
-        <v>235</v>
-      </c>
-      <c r="F87" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G87" s="116"/>
-    </row>
-    <row r="88" spans="1:7" ht="16">
-      <c r="A88" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B88" s="177" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D88" s="179" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E88" s="170" t="s">
-        <v>236</v>
-      </c>
-      <c r="F88" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G88" s="116"/>
-    </row>
-    <row r="89" spans="1:7" ht="16">
-      <c r="A89" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B89" s="177" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D89" s="179" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E89" s="170" t="s">
+      <c r="D91" s="211" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E91" s="208" t="s">
         <v>237</v>
       </c>
-      <c r="F89" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G89" s="116"/>
-    </row>
-    <row r="90" spans="1:7" ht="16">
-      <c r="A90" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B90" s="177" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D90" s="179" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E90" s="170" t="s">
-        <v>237</v>
-      </c>
-      <c r="F90" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G90" s="116"/>
-    </row>
-    <row r="91" spans="1:7" ht="16">
-      <c r="A91" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B91" s="177" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D91" s="179" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E91" s="170" t="s">
-        <v>237</v>
-      </c>
-      <c r="F91" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G91" s="116"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -13565,9 +13419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="15"/>
@@ -13587,7 +13441,7 @@
         <v>987</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>1171</v>
+        <v>1087</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>983</v>
@@ -13609,11 +13463,11 @@
       <c r="B2" s="149" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="211" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D2" s="212" t="s">
-        <v>1179</v>
+      <c r="C2" s="167" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D2" s="168" t="s">
+        <v>1093</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>240</v>
@@ -13634,8 +13488,8 @@
         <v>241</v>
       </c>
       <c r="C3" s="160"/>
-      <c r="D3" s="210" t="s">
-        <v>1180</v>
+      <c r="D3" s="166" t="s">
+        <v>1094</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>243</v>
@@ -14007,11 +13861,11 @@
       <c r="B20" s="160" t="s">
         <v>285</v>
       </c>
-      <c r="C20" s="211" t="s">
-        <v>1181</v>
+      <c r="C20" s="167" t="s">
+        <v>1095</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>1182</v>
+        <v>1096</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>287</v>
@@ -14345,11 +14199,11 @@
       <c r="B35" s="162" t="s">
         <v>320</v>
       </c>
-      <c r="C35" s="209" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D35" s="213" t="s">
-        <v>1184</v>
+      <c r="C35" s="165" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D35" s="169" t="s">
+        <v>1098</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>321</v>
@@ -14665,11 +14519,11 @@
       <c r="B50" s="160" t="s">
         <v>352</v>
       </c>
-      <c r="C50" s="211" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D50" s="214" t="s">
-        <v>1186</v>
+      <c r="C50" s="167" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D50" s="170" t="s">
+        <v>1100</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>353</v>
@@ -15055,11 +14909,11 @@
       <c r="B68" s="98" t="s">
         <v>391</v>
       </c>
-      <c r="C68" s="209" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D68" s="210" t="s">
-        <v>1178</v>
+      <c r="C68" s="165" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D68" s="166" t="s">
+        <v>1092</v>
       </c>
       <c r="E68" s="42" t="s">
         <v>392</v>
@@ -15471,11 +15325,11 @@
       <c r="B87" s="160" t="s">
         <v>423</v>
       </c>
-      <c r="C87" s="211" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D87" s="210" t="s">
-        <v>1188</v>
+      <c r="C87" s="167" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D87" s="166" t="s">
+        <v>1102</v>
       </c>
       <c r="E87" s="42" t="s">
         <v>422</v>
@@ -28323,19 +28177,19 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1">
-      <c r="A26" s="183" t="s">
+      <c r="A26" s="187" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="195" t="s">
+      <c r="B26" s="194" t="s">
         <v>921</v>
       </c>
-      <c r="C26" s="190" t="s">
+      <c r="C26" s="178" t="s">
         <v>922</v>
       </c>
       <c r="D26" s="33" t="s">
         <v>923</v>
       </c>
-      <c r="E26" s="186" t="s">
+      <c r="E26" s="188" t="s">
         <v>35</v>
       </c>
       <c r="F26" s="44" t="s">
@@ -28343,151 +28197,151 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1">
-      <c r="A27" s="184"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="184"/>
+      <c r="A27" s="172"/>
+      <c r="B27" s="172"/>
+      <c r="C27" s="172"/>
       <c r="D27" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="E27" s="184"/>
+      <c r="E27" s="172"/>
       <c r="F27" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1">
-      <c r="A28" s="184"/>
-      <c r="B28" s="184"/>
-      <c r="C28" s="184"/>
+      <c r="A28" s="172"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="172"/>
       <c r="D28" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="E28" s="184"/>
+      <c r="E28" s="172"/>
       <c r="F28" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1">
-      <c r="A29" s="184"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="184"/>
+      <c r="A29" s="172"/>
+      <c r="B29" s="172"/>
+      <c r="C29" s="172"/>
       <c r="D29" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="E29" s="184"/>
+      <c r="E29" s="172"/>
       <c r="F29" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1">
-      <c r="A30" s="184"/>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
+      <c r="A30" s="172"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
       <c r="D30" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="184"/>
+      <c r="E30" s="172"/>
       <c r="F30" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1">
-      <c r="A31" s="184"/>
-      <c r="B31" s="184"/>
-      <c r="C31" s="184"/>
+      <c r="A31" s="172"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="172"/>
       <c r="D31" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E31" s="184"/>
+      <c r="E31" s="172"/>
       <c r="F31" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1">
-      <c r="A32" s="184"/>
-      <c r="B32" s="184"/>
-      <c r="C32" s="184"/>
+      <c r="A32" s="172"/>
+      <c r="B32" s="172"/>
+      <c r="C32" s="172"/>
       <c r="D32" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E32" s="184"/>
+      <c r="E32" s="172"/>
       <c r="F32" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1">
-      <c r="A33" s="184"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="184"/>
+      <c r="A33" s="172"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="172"/>
       <c r="D33" s="33" t="s">
         <v>924</v>
       </c>
-      <c r="E33" s="184"/>
+      <c r="E33" s="172"/>
       <c r="F33" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1">
-      <c r="A34" s="184"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="184"/>
+      <c r="A34" s="172"/>
+      <c r="B34" s="172"/>
+      <c r="C34" s="172"/>
       <c r="D34" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E34" s="184"/>
+      <c r="E34" s="172"/>
       <c r="F34" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1">
-      <c r="A35" s="184"/>
-      <c r="B35" s="184"/>
-      <c r="C35" s="184"/>
+      <c r="A35" s="172"/>
+      <c r="B35" s="172"/>
+      <c r="C35" s="172"/>
       <c r="D35" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="E35" s="184"/>
+      <c r="E35" s="172"/>
       <c r="F35" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1">
-      <c r="A36" s="184"/>
-      <c r="B36" s="184"/>
-      <c r="C36" s="184"/>
+      <c r="A36" s="172"/>
+      <c r="B36" s="172"/>
+      <c r="C36" s="172"/>
       <c r="D36" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="E36" s="184"/>
+      <c r="E36" s="172"/>
       <c r="F36" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1">
-      <c r="A37" s="185"/>
-      <c r="B37" s="185"/>
-      <c r="C37" s="185"/>
+      <c r="A37" s="173"/>
+      <c r="B37" s="173"/>
+      <c r="C37" s="173"/>
       <c r="D37" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="E37" s="185"/>
+      <c r="E37" s="173"/>
       <c r="F37" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1">
-      <c r="A38" s="192" t="s">
+      <c r="A38" s="183" t="s">
         <v>174</v>
       </c>
-      <c r="B38" s="191" t="s">
+      <c r="B38" s="175" t="s">
         <v>925</v>
       </c>
-      <c r="C38" s="190" t="s">
+      <c r="C38" s="178" t="s">
         <v>926</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>927</v>
       </c>
-      <c r="E38" s="186" t="s">
+      <c r="E38" s="188" t="s">
         <v>39</v>
       </c>
       <c r="F38" s="44" t="s">
@@ -28495,211 +28349,211 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1">
-      <c r="A39" s="184"/>
-      <c r="B39" s="184"/>
-      <c r="C39" s="184"/>
+      <c r="A39" s="172"/>
+      <c r="B39" s="172"/>
+      <c r="C39" s="172"/>
       <c r="D39" s="33" t="s">
         <v>928</v>
       </c>
-      <c r="E39" s="184"/>
+      <c r="E39" s="172"/>
       <c r="F39" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1">
-      <c r="A40" s="184"/>
-      <c r="B40" s="184"/>
-      <c r="C40" s="184"/>
+      <c r="A40" s="172"/>
+      <c r="B40" s="172"/>
+      <c r="C40" s="172"/>
       <c r="D40" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E40" s="184"/>
+      <c r="E40" s="172"/>
       <c r="F40" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1">
-      <c r="A41" s="184"/>
-      <c r="B41" s="184"/>
-      <c r="C41" s="184"/>
+      <c r="A41" s="172"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="172"/>
       <c r="D41" s="33" t="s">
         <v>929</v>
       </c>
-      <c r="E41" s="184"/>
+      <c r="E41" s="172"/>
       <c r="F41" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1">
-      <c r="A42" s="184"/>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
+      <c r="A42" s="172"/>
+      <c r="B42" s="172"/>
+      <c r="C42" s="172"/>
       <c r="D42" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="E42" s="184"/>
+      <c r="E42" s="172"/>
       <c r="F42" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1">
-      <c r="A43" s="184"/>
-      <c r="B43" s="184"/>
-      <c r="C43" s="184"/>
+      <c r="A43" s="172"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="172"/>
       <c r="D43" s="33" t="s">
         <v>930</v>
       </c>
-      <c r="E43" s="184"/>
+      <c r="E43" s="172"/>
       <c r="F43" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1">
-      <c r="A44" s="184"/>
-      <c r="B44" s="184"/>
-      <c r="C44" s="184"/>
+      <c r="A44" s="172"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="172"/>
       <c r="D44" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="E44" s="184"/>
+      <c r="E44" s="172"/>
       <c r="F44" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1">
-      <c r="A45" s="184"/>
-      <c r="B45" s="184"/>
-      <c r="C45" s="184"/>
+      <c r="A45" s="172"/>
+      <c r="B45" s="172"/>
+      <c r="C45" s="172"/>
       <c r="D45" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="E45" s="184"/>
+      <c r="E45" s="172"/>
       <c r="F45" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1">
-      <c r="A46" s="184"/>
-      <c r="B46" s="184"/>
-      <c r="C46" s="184"/>
+      <c r="A46" s="172"/>
+      <c r="B46" s="172"/>
+      <c r="C46" s="172"/>
       <c r="D46" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="E46" s="184"/>
+      <c r="E46" s="172"/>
       <c r="F46" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1">
-      <c r="A47" s="184"/>
-      <c r="B47" s="184"/>
-      <c r="C47" s="184"/>
+      <c r="A47" s="172"/>
+      <c r="B47" s="172"/>
+      <c r="C47" s="172"/>
       <c r="D47" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E47" s="184"/>
+      <c r="E47" s="172"/>
       <c r="F47" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1">
-      <c r="A48" s="184"/>
-      <c r="B48" s="184"/>
-      <c r="C48" s="184"/>
+      <c r="A48" s="172"/>
+      <c r="B48" s="172"/>
+      <c r="C48" s="172"/>
       <c r="D48" s="33" t="s">
         <v>931</v>
       </c>
-      <c r="E48" s="184"/>
+      <c r="E48" s="172"/>
       <c r="F48" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1">
-      <c r="A49" s="184"/>
-      <c r="B49" s="184"/>
-      <c r="C49" s="184"/>
+      <c r="A49" s="172"/>
+      <c r="B49" s="172"/>
+      <c r="C49" s="172"/>
       <c r="D49" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E49" s="184"/>
+      <c r="E49" s="172"/>
       <c r="F49" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1">
-      <c r="A50" s="184"/>
-      <c r="B50" s="184"/>
-      <c r="C50" s="184"/>
+      <c r="A50" s="172"/>
+      <c r="B50" s="172"/>
+      <c r="C50" s="172"/>
       <c r="D50" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="E50" s="184"/>
+      <c r="E50" s="172"/>
       <c r="F50" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1">
-      <c r="A51" s="184"/>
-      <c r="B51" s="184"/>
-      <c r="C51" s="184"/>
+      <c r="A51" s="172"/>
+      <c r="B51" s="172"/>
+      <c r="C51" s="172"/>
       <c r="D51" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="E51" s="184"/>
+      <c r="E51" s="172"/>
       <c r="F51" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="30" customHeight="1">
-      <c r="A52" s="184"/>
-      <c r="B52" s="184"/>
-      <c r="C52" s="184"/>
+      <c r="A52" s="172"/>
+      <c r="B52" s="172"/>
+      <c r="C52" s="172"/>
       <c r="D52" s="33" t="s">
         <v>932</v>
       </c>
-      <c r="E52" s="184"/>
+      <c r="E52" s="172"/>
       <c r="F52" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="30" customHeight="1">
-      <c r="A53" s="184"/>
-      <c r="B53" s="184"/>
-      <c r="C53" s="184"/>
+      <c r="A53" s="172"/>
+      <c r="B53" s="172"/>
+      <c r="C53" s="172"/>
       <c r="D53" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E53" s="184"/>
+      <c r="E53" s="172"/>
       <c r="F53" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1">
-      <c r="A54" s="185"/>
-      <c r="B54" s="185"/>
-      <c r="C54" s="185"/>
+      <c r="A54" s="173"/>
+      <c r="B54" s="173"/>
+      <c r="C54" s="173"/>
       <c r="D54" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="E54" s="185"/>
+      <c r="E54" s="173"/>
       <c r="F54" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1">
-      <c r="A55" s="193" t="s">
+      <c r="A55" s="192" t="s">
         <v>174</v>
       </c>
-      <c r="B55" s="197" t="s">
+      <c r="B55" s="196" t="s">
         <v>933</v>
       </c>
-      <c r="C55" s="187" t="s">
+      <c r="C55" s="189" t="s">
         <v>372</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="E55" s="186" t="s">
+      <c r="E55" s="188" t="s">
         <v>42</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -28707,145 +28561,145 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1">
-      <c r="A56" s="194"/>
-      <c r="B56" s="188"/>
-      <c r="C56" s="188"/>
+      <c r="A56" s="193"/>
+      <c r="B56" s="190"/>
+      <c r="C56" s="190"/>
       <c r="D56" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="E56" s="184"/>
+      <c r="E56" s="172"/>
       <c r="F56" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="30" customHeight="1">
-      <c r="A57" s="194"/>
-      <c r="B57" s="188"/>
-      <c r="C57" s="188"/>
+      <c r="A57" s="193"/>
+      <c r="B57" s="190"/>
+      <c r="C57" s="190"/>
       <c r="D57" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="E57" s="184"/>
+      <c r="E57" s="172"/>
       <c r="F57" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="30" customHeight="1">
-      <c r="A58" s="194"/>
-      <c r="B58" s="188"/>
-      <c r="C58" s="188"/>
+      <c r="A58" s="193"/>
+      <c r="B58" s="190"/>
+      <c r="C58" s="190"/>
       <c r="D58" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="E58" s="184"/>
+      <c r="E58" s="172"/>
       <c r="F58" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="30" customHeight="1">
-      <c r="A59" s="194"/>
-      <c r="B59" s="188"/>
-      <c r="C59" s="188"/>
+      <c r="A59" s="193"/>
+      <c r="B59" s="190"/>
+      <c r="C59" s="190"/>
       <c r="D59" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="E59" s="184"/>
+      <c r="E59" s="172"/>
       <c r="F59" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1">
-      <c r="A60" s="194"/>
-      <c r="B60" s="188"/>
-      <c r="C60" s="188"/>
+      <c r="A60" s="193"/>
+      <c r="B60" s="190"/>
+      <c r="C60" s="190"/>
       <c r="D60" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E60" s="184"/>
+      <c r="E60" s="172"/>
       <c r="F60" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30" customHeight="1">
-      <c r="A61" s="194"/>
-      <c r="B61" s="188"/>
-      <c r="C61" s="188"/>
+      <c r="A61" s="193"/>
+      <c r="B61" s="190"/>
+      <c r="C61" s="190"/>
       <c r="D61" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="E61" s="184"/>
+      <c r="E61" s="172"/>
       <c r="F61" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1">
-      <c r="A62" s="194"/>
-      <c r="B62" s="188"/>
-      <c r="C62" s="188"/>
+      <c r="A62" s="193"/>
+      <c r="B62" s="190"/>
+      <c r="C62" s="190"/>
       <c r="D62" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="E62" s="184"/>
+      <c r="E62" s="172"/>
       <c r="F62" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1">
-      <c r="A63" s="194"/>
-      <c r="B63" s="188"/>
-      <c r="C63" s="188"/>
+      <c r="A63" s="193"/>
+      <c r="B63" s="190"/>
+      <c r="C63" s="190"/>
       <c r="D63" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="E63" s="184"/>
+      <c r="E63" s="172"/>
       <c r="F63" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1">
-      <c r="A64" s="194"/>
-      <c r="B64" s="188"/>
-      <c r="C64" s="188"/>
+      <c r="A64" s="193"/>
+      <c r="B64" s="190"/>
+      <c r="C64" s="190"/>
       <c r="D64" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="E64" s="184"/>
+      <c r="E64" s="172"/>
       <c r="F64" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="30" customHeight="1">
-      <c r="A65" s="194"/>
-      <c r="B65" s="188"/>
-      <c r="C65" s="188"/>
+      <c r="A65" s="193"/>
+      <c r="B65" s="190"/>
+      <c r="C65" s="190"/>
       <c r="D65" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="E65" s="184"/>
+      <c r="E65" s="172"/>
       <c r="F65" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="30" customHeight="1">
-      <c r="A66" s="189"/>
-      <c r="B66" s="189"/>
-      <c r="C66" s="189"/>
+      <c r="A66" s="191"/>
+      <c r="B66" s="191"/>
+      <c r="C66" s="191"/>
       <c r="D66" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="E66" s="185"/>
+      <c r="E66" s="173"/>
       <c r="F66" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="30" customHeight="1">
-      <c r="A67" s="198" t="s">
+      <c r="A67" s="182" t="s">
         <v>174</v>
       </c>
-      <c r="B67" s="200" t="s">
+      <c r="B67" s="171" t="s">
         <v>935</v>
       </c>
-      <c r="C67" s="190" t="s">
+      <c r="C67" s="178" t="s">
         <v>936</v>
       </c>
       <c r="D67" s="33" t="s">
@@ -28859,9 +28713,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="30" customHeight="1">
-      <c r="A68" s="184"/>
-      <c r="B68" s="184"/>
-      <c r="C68" s="184"/>
+      <c r="A68" s="172"/>
+      <c r="B68" s="172"/>
+      <c r="C68" s="172"/>
       <c r="D68" s="33" t="s">
         <v>203</v>
       </c>
@@ -28873,9 +28727,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="30" customHeight="1">
-      <c r="A69" s="184"/>
-      <c r="B69" s="184"/>
-      <c r="C69" s="184"/>
+      <c r="A69" s="172"/>
+      <c r="B69" s="172"/>
+      <c r="C69" s="172"/>
       <c r="D69" s="33" t="s">
         <v>186</v>
       </c>
@@ -28887,9 +28741,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="30" customHeight="1">
-      <c r="A70" s="184"/>
-      <c r="B70" s="184"/>
-      <c r="C70" s="184"/>
+      <c r="A70" s="172"/>
+      <c r="B70" s="172"/>
+      <c r="C70" s="172"/>
       <c r="D70" s="33" t="s">
         <v>191</v>
       </c>
@@ -28901,9 +28755,9 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1">
-      <c r="A71" s="184"/>
-      <c r="B71" s="184"/>
-      <c r="C71" s="184"/>
+      <c r="A71" s="172"/>
+      <c r="B71" s="172"/>
+      <c r="C71" s="172"/>
       <c r="D71" s="33" t="s">
         <v>204</v>
       </c>
@@ -28915,9 +28769,9 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1">
-      <c r="A72" s="184"/>
-      <c r="B72" s="184"/>
-      <c r="C72" s="184"/>
+      <c r="A72" s="172"/>
+      <c r="B72" s="172"/>
+      <c r="C72" s="172"/>
       <c r="D72" s="33" t="s">
         <v>205</v>
       </c>
@@ -28929,9 +28783,9 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="30" customHeight="1">
-      <c r="A73" s="184"/>
-      <c r="B73" s="184"/>
-      <c r="C73" s="184"/>
+      <c r="A73" s="172"/>
+      <c r="B73" s="172"/>
+      <c r="C73" s="172"/>
       <c r="D73" s="33" t="s">
         <v>206</v>
       </c>
@@ -28943,9 +28797,9 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="30" customHeight="1">
-      <c r="A74" s="184"/>
-      <c r="B74" s="184"/>
-      <c r="C74" s="184"/>
+      <c r="A74" s="172"/>
+      <c r="B74" s="172"/>
+      <c r="C74" s="172"/>
       <c r="D74" s="33" t="s">
         <v>207</v>
       </c>
@@ -28957,9 +28811,9 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="30" customHeight="1">
-      <c r="A75" s="184"/>
-      <c r="B75" s="184"/>
-      <c r="C75" s="184"/>
+      <c r="A75" s="172"/>
+      <c r="B75" s="172"/>
+      <c r="C75" s="172"/>
       <c r="D75" s="33" t="s">
         <v>208</v>
       </c>
@@ -28971,9 +28825,9 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="30" customHeight="1">
-      <c r="A76" s="184"/>
-      <c r="B76" s="184"/>
-      <c r="C76" s="184"/>
+      <c r="A76" s="172"/>
+      <c r="B76" s="172"/>
+      <c r="C76" s="172"/>
       <c r="D76" s="33" t="s">
         <v>209</v>
       </c>
@@ -28985,9 +28839,9 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="30" customHeight="1">
-      <c r="A77" s="185"/>
-      <c r="B77" s="185"/>
-      <c r="C77" s="185"/>
+      <c r="A77" s="173"/>
+      <c r="B77" s="173"/>
+      <c r="C77" s="173"/>
       <c r="D77" s="48" t="s">
         <v>210</v>
       </c>
@@ -28999,13 +28853,13 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1">
-      <c r="A78" s="196" t="s">
+      <c r="A78" s="195" t="s">
         <v>174</v>
       </c>
-      <c r="B78" s="205" t="s">
+      <c r="B78" s="179" t="s">
         <v>938</v>
       </c>
-      <c r="C78" s="190" t="s">
+      <c r="C78" s="178" t="s">
         <v>939</v>
       </c>
       <c r="D78" s="7" t="s">
@@ -29019,9 +28873,9 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="30" customHeight="1">
-      <c r="A79" s="184"/>
-      <c r="B79" s="206"/>
-      <c r="C79" s="184"/>
+      <c r="A79" s="172"/>
+      <c r="B79" s="180"/>
+      <c r="C79" s="172"/>
       <c r="D79" s="52" t="s">
         <v>211</v>
       </c>
@@ -29033,9 +28887,9 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="30" customHeight="1">
-      <c r="A80" s="184"/>
-      <c r="B80" s="206"/>
-      <c r="C80" s="184"/>
+      <c r="A80" s="172"/>
+      <c r="B80" s="180"/>
+      <c r="C80" s="172"/>
       <c r="D80" s="7" t="s">
         <v>198</v>
       </c>
@@ -29047,9 +28901,9 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="30" customHeight="1">
-      <c r="A81" s="184"/>
-      <c r="B81" s="206"/>
-      <c r="C81" s="184"/>
+      <c r="A81" s="172"/>
+      <c r="B81" s="180"/>
+      <c r="C81" s="172"/>
       <c r="D81" s="33" t="s">
         <v>212</v>
       </c>
@@ -29061,9 +28915,9 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="30" customHeight="1">
-      <c r="A82" s="184"/>
-      <c r="B82" s="206"/>
-      <c r="C82" s="184"/>
+      <c r="A82" s="172"/>
+      <c r="B82" s="180"/>
+      <c r="C82" s="172"/>
       <c r="D82" s="33" t="s">
         <v>213</v>
       </c>
@@ -29075,9 +28929,9 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="30" customHeight="1">
-      <c r="A83" s="184"/>
-      <c r="B83" s="206"/>
-      <c r="C83" s="184"/>
+      <c r="A83" s="172"/>
+      <c r="B83" s="180"/>
+      <c r="C83" s="172"/>
       <c r="D83" s="53" t="s">
         <v>941</v>
       </c>
@@ -29089,9 +28943,9 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="30" customHeight="1">
-      <c r="A84" s="184"/>
-      <c r="B84" s="206"/>
-      <c r="C84" s="184"/>
+      <c r="A84" s="172"/>
+      <c r="B84" s="180"/>
+      <c r="C84" s="172"/>
       <c r="D84" s="33" t="s">
         <v>214</v>
       </c>
@@ -29103,9 +28957,9 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="30" customHeight="1">
-      <c r="A85" s="184"/>
-      <c r="B85" s="206"/>
-      <c r="C85" s="184"/>
+      <c r="A85" s="172"/>
+      <c r="B85" s="180"/>
+      <c r="C85" s="172"/>
       <c r="D85" s="53" t="s">
         <v>942</v>
       </c>
@@ -29117,9 +28971,9 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="30" customHeight="1">
-      <c r="A86" s="184"/>
-      <c r="B86" s="206"/>
-      <c r="C86" s="184"/>
+      <c r="A86" s="172"/>
+      <c r="B86" s="180"/>
+      <c r="C86" s="172"/>
       <c r="D86" s="53" t="s">
         <v>943</v>
       </c>
@@ -29131,9 +28985,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="30" customHeight="1">
-      <c r="A87" s="184"/>
-      <c r="B87" s="206"/>
-      <c r="C87" s="184"/>
+      <c r="A87" s="172"/>
+      <c r="B87" s="180"/>
+      <c r="C87" s="172"/>
       <c r="D87" s="33" t="s">
         <v>215</v>
       </c>
@@ -29145,9 +28999,9 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="30" customHeight="1">
-      <c r="A88" s="185"/>
-      <c r="B88" s="207"/>
-      <c r="C88" s="185"/>
+      <c r="A88" s="173"/>
+      <c r="B88" s="181"/>
+      <c r="C88" s="173"/>
       <c r="D88" s="33" t="s">
         <v>216</v>
       </c>
@@ -29159,13 +29013,13 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="30" customHeight="1">
-      <c r="A89" s="198" t="s">
+      <c r="A89" s="182" t="s">
         <v>174</v>
       </c>
-      <c r="B89" s="191" t="s">
+      <c r="B89" s="175" t="s">
         <v>944</v>
       </c>
-      <c r="C89" s="199" t="s">
+      <c r="C89" s="174" t="s">
         <v>945</v>
       </c>
       <c r="D89" s="33" t="s">
@@ -29179,9 +29033,9 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="30" customHeight="1">
-      <c r="A90" s="184"/>
-      <c r="B90" s="184"/>
-      <c r="C90" s="184"/>
+      <c r="A90" s="172"/>
+      <c r="B90" s="172"/>
+      <c r="C90" s="172"/>
       <c r="D90" s="33" t="s">
         <v>217</v>
       </c>
@@ -29193,9 +29047,9 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="30" customHeight="1">
-      <c r="A91" s="184"/>
-      <c r="B91" s="184"/>
-      <c r="C91" s="184"/>
+      <c r="A91" s="172"/>
+      <c r="B91" s="172"/>
+      <c r="C91" s="172"/>
       <c r="D91" s="33" t="s">
         <v>218</v>
       </c>
@@ -29207,9 +29061,9 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="30" customHeight="1">
-      <c r="A92" s="184"/>
-      <c r="B92" s="184"/>
-      <c r="C92" s="184"/>
+      <c r="A92" s="172"/>
+      <c r="B92" s="172"/>
+      <c r="C92" s="172"/>
       <c r="D92" s="33" t="s">
         <v>219</v>
       </c>
@@ -29221,9 +29075,9 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1">
-      <c r="A93" s="184"/>
-      <c r="B93" s="184"/>
-      <c r="C93" s="184"/>
+      <c r="A93" s="172"/>
+      <c r="B93" s="172"/>
+      <c r="C93" s="172"/>
       <c r="D93" s="33" t="s">
         <v>220</v>
       </c>
@@ -29235,9 +29089,9 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="30" customHeight="1">
-      <c r="A94" s="184"/>
-      <c r="B94" s="184"/>
-      <c r="C94" s="184"/>
+      <c r="A94" s="172"/>
+      <c r="B94" s="172"/>
+      <c r="C94" s="172"/>
       <c r="D94" s="33" t="s">
         <v>947</v>
       </c>
@@ -29249,9 +29103,9 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="30" customHeight="1">
-      <c r="A95" s="184"/>
-      <c r="B95" s="184"/>
-      <c r="C95" s="184"/>
+      <c r="A95" s="172"/>
+      <c r="B95" s="172"/>
+      <c r="C95" s="172"/>
       <c r="D95" s="33" t="s">
         <v>221</v>
       </c>
@@ -29263,9 +29117,9 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="30" customHeight="1">
-      <c r="A96" s="185"/>
-      <c r="B96" s="185"/>
-      <c r="C96" s="185"/>
+      <c r="A96" s="173"/>
+      <c r="B96" s="173"/>
+      <c r="C96" s="173"/>
       <c r="D96" s="33" t="s">
         <v>198</v>
       </c>
@@ -29277,13 +29131,13 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="30" customHeight="1">
-      <c r="A97" s="198" t="s">
+      <c r="A97" s="182" t="s">
         <v>174</v>
       </c>
-      <c r="B97" s="191" t="s">
+      <c r="B97" s="175" t="s">
         <v>948</v>
       </c>
-      <c r="C97" s="190" t="s">
+      <c r="C97" s="178" t="s">
         <v>949</v>
       </c>
       <c r="D97" s="33" t="s">
@@ -29297,9 +29151,9 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="30" customHeight="1">
-      <c r="A98" s="184"/>
-      <c r="B98" s="184"/>
-      <c r="C98" s="184"/>
+      <c r="A98" s="172"/>
+      <c r="B98" s="172"/>
+      <c r="C98" s="172"/>
       <c r="D98" s="33" t="s">
         <v>222</v>
       </c>
@@ -29311,9 +29165,9 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="30" customHeight="1">
-      <c r="A99" s="184"/>
-      <c r="B99" s="184"/>
-      <c r="C99" s="184"/>
+      <c r="A99" s="172"/>
+      <c r="B99" s="172"/>
+      <c r="C99" s="172"/>
       <c r="D99" s="33" t="s">
         <v>951</v>
       </c>
@@ -29325,9 +29179,9 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="30" customHeight="1">
-      <c r="A100" s="184"/>
-      <c r="B100" s="184"/>
-      <c r="C100" s="184"/>
+      <c r="A100" s="172"/>
+      <c r="B100" s="172"/>
+      <c r="C100" s="172"/>
       <c r="D100" s="33" t="s">
         <v>952</v>
       </c>
@@ -29339,9 +29193,9 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="30" customHeight="1">
-      <c r="A101" s="184"/>
-      <c r="B101" s="184"/>
-      <c r="C101" s="184"/>
+      <c r="A101" s="172"/>
+      <c r="B101" s="172"/>
+      <c r="C101" s="172"/>
       <c r="D101" s="33" t="s">
         <v>223</v>
       </c>
@@ -29353,9 +29207,9 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="30" customHeight="1">
-      <c r="A102" s="184"/>
-      <c r="B102" s="184"/>
-      <c r="C102" s="184"/>
+      <c r="A102" s="172"/>
+      <c r="B102" s="172"/>
+      <c r="C102" s="172"/>
       <c r="D102" s="33" t="s">
         <v>953</v>
       </c>
@@ -29367,9 +29221,9 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="30" customHeight="1">
-      <c r="A103" s="184"/>
-      <c r="B103" s="184"/>
-      <c r="C103" s="184"/>
+      <c r="A103" s="172"/>
+      <c r="B103" s="172"/>
+      <c r="C103" s="172"/>
       <c r="D103" s="33" t="s">
         <v>954</v>
       </c>
@@ -29381,9 +29235,9 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1">
-      <c r="A104" s="185"/>
-      <c r="B104" s="185"/>
-      <c r="C104" s="185"/>
+      <c r="A104" s="173"/>
+      <c r="B104" s="173"/>
+      <c r="C104" s="173"/>
       <c r="D104" s="33" t="s">
         <v>955</v>
       </c>
@@ -29395,8 +29249,8 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="30" customHeight="1">
-      <c r="A105" s="204"/>
-      <c r="B105" s="202" t="s">
+      <c r="A105" s="185"/>
+      <c r="B105" s="177" t="s">
         <v>288</v>
       </c>
       <c r="C105" s="46"/>
@@ -29411,8 +29265,8 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="30" customHeight="1">
-      <c r="A106" s="184"/>
-      <c r="B106" s="184"/>
+      <c r="A106" s="172"/>
+      <c r="B106" s="172"/>
       <c r="C106" s="46"/>
       <c r="D106" s="33" t="s">
         <v>957</v>
@@ -29425,8 +29279,8 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="30" customHeight="1">
-      <c r="A107" s="185"/>
-      <c r="B107" s="185"/>
+      <c r="A107" s="173"/>
+      <c r="B107" s="173"/>
       <c r="C107" s="46"/>
       <c r="D107" s="33" t="s">
         <v>958</v>
@@ -29439,13 +29293,13 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="30" customHeight="1">
-      <c r="A108" s="198" t="s">
+      <c r="A108" s="182" t="s">
         <v>174</v>
       </c>
-      <c r="B108" s="191" t="s">
+      <c r="B108" s="175" t="s">
         <v>959</v>
       </c>
-      <c r="C108" s="199" t="s">
+      <c r="C108" s="174" t="s">
         <v>960</v>
       </c>
       <c r="D108" s="33" t="s">
@@ -29459,9 +29313,9 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="30" customHeight="1">
-      <c r="A109" s="184"/>
-      <c r="B109" s="184"/>
-      <c r="C109" s="184"/>
+      <c r="A109" s="172"/>
+      <c r="B109" s="172"/>
+      <c r="C109" s="172"/>
       <c r="D109" s="33" t="s">
         <v>224</v>
       </c>
@@ -29473,9 +29327,9 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="30" customHeight="1">
-      <c r="A110" s="184"/>
-      <c r="B110" s="184"/>
-      <c r="C110" s="184"/>
+      <c r="A110" s="172"/>
+      <c r="B110" s="172"/>
+      <c r="C110" s="172"/>
       <c r="D110" s="33" t="s">
         <v>224</v>
       </c>
@@ -29487,9 +29341,9 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="30" customHeight="1">
-      <c r="A111" s="184"/>
-      <c r="B111" s="184"/>
-      <c r="C111" s="184"/>
+      <c r="A111" s="172"/>
+      <c r="B111" s="172"/>
+      <c r="C111" s="172"/>
       <c r="D111" s="33" t="s">
         <v>225</v>
       </c>
@@ -29501,9 +29355,9 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="30" customHeight="1">
-      <c r="A112" s="184"/>
-      <c r="B112" s="184"/>
-      <c r="C112" s="184"/>
+      <c r="A112" s="172"/>
+      <c r="B112" s="172"/>
+      <c r="C112" s="172"/>
       <c r="D112" s="33" t="s">
         <v>226</v>
       </c>
@@ -29515,9 +29369,9 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="30" customHeight="1">
-      <c r="A113" s="184"/>
-      <c r="B113" s="184"/>
-      <c r="C113" s="184"/>
+      <c r="A113" s="172"/>
+      <c r="B113" s="172"/>
+      <c r="C113" s="172"/>
       <c r="D113" s="33" t="s">
         <v>227</v>
       </c>
@@ -29529,9 +29383,9 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="30" customHeight="1">
-      <c r="A114" s="184"/>
-      <c r="B114" s="184"/>
-      <c r="C114" s="184"/>
+      <c r="A114" s="172"/>
+      <c r="B114" s="172"/>
+      <c r="C114" s="172"/>
       <c r="D114" s="28" t="s">
         <v>962</v>
       </c>
@@ -29543,9 +29397,9 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="30" customHeight="1">
-      <c r="A115" s="184"/>
-      <c r="B115" s="184"/>
-      <c r="C115" s="184"/>
+      <c r="A115" s="172"/>
+      <c r="B115" s="172"/>
+      <c r="C115" s="172"/>
       <c r="D115" s="28" t="s">
         <v>963</v>
       </c>
@@ -29557,9 +29411,9 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="30" customHeight="1">
-      <c r="A116" s="184"/>
-      <c r="B116" s="184"/>
-      <c r="C116" s="184"/>
+      <c r="A116" s="172"/>
+      <c r="B116" s="172"/>
+      <c r="C116" s="172"/>
       <c r="D116" s="28" t="s">
         <v>964</v>
       </c>
@@ -29571,9 +29425,9 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="30" customHeight="1">
-      <c r="A117" s="184"/>
-      <c r="B117" s="184"/>
-      <c r="C117" s="184"/>
+      <c r="A117" s="172"/>
+      <c r="B117" s="172"/>
+      <c r="C117" s="172"/>
       <c r="D117" s="33" t="s">
         <v>228</v>
       </c>
@@ -29585,9 +29439,9 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="30" customHeight="1">
-      <c r="A118" s="185"/>
-      <c r="B118" s="185"/>
-      <c r="C118" s="185"/>
+      <c r="A118" s="173"/>
+      <c r="B118" s="173"/>
+      <c r="C118" s="173"/>
       <c r="D118" s="33" t="s">
         <v>229</v>
       </c>
@@ -29599,13 +29453,13 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="30" customHeight="1">
-      <c r="A119" s="208" t="s">
+      <c r="A119" s="186" t="s">
         <v>174</v>
       </c>
-      <c r="B119" s="201" t="s">
+      <c r="B119" s="176" t="s">
         <v>965</v>
       </c>
-      <c r="C119" s="199" t="s">
+      <c r="C119" s="174" t="s">
         <v>966</v>
       </c>
       <c r="D119" s="33" t="s">
@@ -29619,9 +29473,9 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="30" customHeight="1">
-      <c r="A120" s="184"/>
-      <c r="B120" s="184"/>
-      <c r="C120" s="184"/>
+      <c r="A120" s="172"/>
+      <c r="B120" s="172"/>
+      <c r="C120" s="172"/>
       <c r="D120" s="33" t="s">
         <v>230</v>
       </c>
@@ -29633,9 +29487,9 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="30" customHeight="1">
-      <c r="A121" s="184"/>
-      <c r="B121" s="184"/>
-      <c r="C121" s="184"/>
+      <c r="A121" s="172"/>
+      <c r="B121" s="172"/>
+      <c r="C121" s="172"/>
       <c r="D121" s="33" t="s">
         <v>231</v>
       </c>
@@ -29647,9 +29501,9 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="30" customHeight="1">
-      <c r="A122" s="184"/>
-      <c r="B122" s="184"/>
-      <c r="C122" s="184"/>
+      <c r="A122" s="172"/>
+      <c r="B122" s="172"/>
+      <c r="C122" s="172"/>
       <c r="D122" s="33" t="s">
         <v>232</v>
       </c>
@@ -29661,9 +29515,9 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="30" customHeight="1">
-      <c r="A123" s="184"/>
-      <c r="B123" s="184"/>
-      <c r="C123" s="184"/>
+      <c r="A123" s="172"/>
+      <c r="B123" s="172"/>
+      <c r="C123" s="172"/>
       <c r="D123" s="33" t="s">
         <v>233</v>
       </c>
@@ -29675,9 +29529,9 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="30" customHeight="1">
-      <c r="A124" s="184"/>
-      <c r="B124" s="184"/>
-      <c r="C124" s="184"/>
+      <c r="A124" s="172"/>
+      <c r="B124" s="172"/>
+      <c r="C124" s="172"/>
       <c r="D124" s="28" t="s">
         <v>968</v>
       </c>
@@ -29689,9 +29543,9 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="30" customHeight="1">
-      <c r="A125" s="184"/>
-      <c r="B125" s="184"/>
-      <c r="C125" s="184"/>
+      <c r="A125" s="172"/>
+      <c r="B125" s="172"/>
+      <c r="C125" s="172"/>
       <c r="D125" s="33" t="s">
         <v>234</v>
       </c>
@@ -29703,9 +29557,9 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="30" customHeight="1">
-      <c r="A126" s="184"/>
-      <c r="B126" s="184"/>
-      <c r="C126" s="184"/>
+      <c r="A126" s="172"/>
+      <c r="B126" s="172"/>
+      <c r="C126" s="172"/>
       <c r="D126" s="33" t="s">
         <v>235</v>
       </c>
@@ -29717,9 +29571,9 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="30" customHeight="1">
-      <c r="A127" s="184"/>
-      <c r="B127" s="184"/>
-      <c r="C127" s="184"/>
+      <c r="A127" s="172"/>
+      <c r="B127" s="172"/>
+      <c r="C127" s="172"/>
       <c r="D127" s="28" t="s">
         <v>969</v>
       </c>
@@ -29731,9 +29585,9 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="30" customHeight="1">
-      <c r="A128" s="184"/>
-      <c r="B128" s="184"/>
-      <c r="C128" s="184"/>
+      <c r="A128" s="172"/>
+      <c r="B128" s="172"/>
+      <c r="C128" s="172"/>
       <c r="D128" s="28" t="s">
         <v>970</v>
       </c>
@@ -29745,9 +29599,9 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="30" customHeight="1">
-      <c r="A129" s="184"/>
-      <c r="B129" s="184"/>
-      <c r="C129" s="184"/>
+      <c r="A129" s="172"/>
+      <c r="B129" s="172"/>
+      <c r="C129" s="172"/>
       <c r="D129" s="28" t="s">
         <v>971</v>
       </c>
@@ -29759,9 +29613,9 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="30" customHeight="1">
-      <c r="A130" s="184"/>
-      <c r="B130" s="184"/>
-      <c r="C130" s="184"/>
+      <c r="A130" s="172"/>
+      <c r="B130" s="172"/>
+      <c r="C130" s="172"/>
       <c r="D130" s="28" t="s">
         <v>972</v>
       </c>
@@ -29773,9 +29627,9 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="30" customHeight="1">
-      <c r="A131" s="185"/>
-      <c r="B131" s="185"/>
-      <c r="C131" s="185"/>
+      <c r="A131" s="173"/>
+      <c r="B131" s="173"/>
+      <c r="C131" s="173"/>
       <c r="D131" s="28" t="s">
         <v>973</v>
       </c>
@@ -29787,13 +29641,13 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="30" customHeight="1">
-      <c r="A132" s="192" t="s">
+      <c r="A132" s="183" t="s">
         <v>174</v>
       </c>
-      <c r="B132" s="191" t="s">
+      <c r="B132" s="175" t="s">
         <v>974</v>
       </c>
-      <c r="C132" s="203" t="s">
+      <c r="C132" s="184" t="s">
         <v>975</v>
       </c>
       <c r="D132" s="33" t="s">
@@ -29807,9 +29661,9 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="30" customHeight="1">
-      <c r="A133" s="184"/>
-      <c r="B133" s="184"/>
-      <c r="C133" s="184"/>
+      <c r="A133" s="172"/>
+      <c r="B133" s="172"/>
+      <c r="C133" s="172"/>
       <c r="D133" s="33" t="s">
         <v>236</v>
       </c>
@@ -29821,9 +29675,9 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="30" customHeight="1">
-      <c r="A134" s="184"/>
-      <c r="B134" s="184"/>
-      <c r="C134" s="184"/>
+      <c r="A134" s="172"/>
+      <c r="B134" s="172"/>
+      <c r="C134" s="172"/>
       <c r="D134" s="33" t="s">
         <v>977</v>
       </c>
@@ -29835,9 +29689,9 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="30" customHeight="1">
-      <c r="A135" s="184"/>
-      <c r="B135" s="184"/>
-      <c r="C135" s="184"/>
+      <c r="A135" s="172"/>
+      <c r="B135" s="172"/>
+      <c r="C135" s="172"/>
       <c r="D135" s="33" t="s">
         <v>237</v>
       </c>
@@ -29849,9 +29703,9 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="30" customHeight="1">
-      <c r="A136" s="184"/>
-      <c r="B136" s="184"/>
-      <c r="C136" s="184"/>
+      <c r="A136" s="172"/>
+      <c r="B136" s="172"/>
+      <c r="C136" s="172"/>
       <c r="D136" s="33" t="s">
         <v>237</v>
       </c>
@@ -29863,9 +29717,9 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="30" customHeight="1">
-      <c r="A137" s="184"/>
-      <c r="B137" s="184"/>
-      <c r="C137" s="184"/>
+      <c r="A137" s="172"/>
+      <c r="B137" s="172"/>
+      <c r="C137" s="172"/>
       <c r="D137" s="33" t="s">
         <v>978</v>
       </c>
@@ -29877,9 +29731,9 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="30" customHeight="1">
-      <c r="A138" s="185"/>
-      <c r="B138" s="185"/>
-      <c r="C138" s="185"/>
+      <c r="A138" s="173"/>
+      <c r="B138" s="173"/>
+      <c r="C138" s="173"/>
       <c r="D138" s="33" t="s">
         <v>979</v>
       </c>
@@ -29892,25 +29746,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B67:B77"/>
-    <mergeCell ref="C89:C96"/>
-    <mergeCell ref="B97:B104"/>
-    <mergeCell ref="B119:B131"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B108:B118"/>
-    <mergeCell ref="C78:C88"/>
-    <mergeCell ref="C108:C118"/>
-    <mergeCell ref="C97:C104"/>
-    <mergeCell ref="B78:B88"/>
-    <mergeCell ref="A97:A104"/>
-    <mergeCell ref="A108:A118"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="A132:A138"/>
-    <mergeCell ref="C119:C131"/>
-    <mergeCell ref="B132:B138"/>
-    <mergeCell ref="C132:C138"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A119:A131"/>
     <mergeCell ref="A26:A37"/>
     <mergeCell ref="E26:E37"/>
     <mergeCell ref="C55:C66"/>
@@ -29927,6 +29762,25 @@
     <mergeCell ref="A78:A88"/>
     <mergeCell ref="B55:B66"/>
     <mergeCell ref="A67:A77"/>
+    <mergeCell ref="A97:A104"/>
+    <mergeCell ref="A108:A118"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="A132:A138"/>
+    <mergeCell ref="C119:C131"/>
+    <mergeCell ref="B132:B138"/>
+    <mergeCell ref="C132:C138"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A119:A131"/>
+    <mergeCell ref="B67:B77"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="B97:B104"/>
+    <mergeCell ref="B119:B131"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B108:B118"/>
+    <mergeCell ref="C78:C88"/>
+    <mergeCell ref="C108:C118"/>
+    <mergeCell ref="C97:C104"/>
+    <mergeCell ref="B78:B88"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/instance/zyjk/CHC/rule/规则db.xlsx
+++ b/instance/zyjk/CHC/rule/规则db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/CHC/rule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE89673-9A83-9248-8BDA-E6BA98B038A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07375995-4A8F-464B-9AFA-14196F396E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="730" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="疾病身份证" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3737" uniqueCount="1462">
   <si>
     <t>YH_JB001</t>
   </si>
@@ -3868,10 +3868,6 @@
   </si>
   <si>
     <t>胃癌高危高危</t>
-  </si>
-  <si>
-    <t>ƒ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>r_GW_JB011</t>
@@ -4110,6 +4106,502 @@
     <t>('GW_JB003','GY_SH009')</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>PG_YWZL003</t>
+  </si>
+  <si>
+    <t>药物治疗</t>
+  </si>
+  <si>
+    <t>高血压药物治疗</t>
+  </si>
+  <si>
+    <t>正在接受高血压药物治疗</t>
+  </si>
+  <si>
+    <t>既往用药 包含 用药字典中的高血压药品名称</t>
+  </si>
+  <si>
+    <t>PG_YWZL004</t>
+  </si>
+  <si>
+    <t>糖尿病药物治疗</t>
+  </si>
+  <si>
+    <t>正在接受糖尿病药物治疗</t>
+  </si>
+  <si>
+    <t>既往用药 包含 用药字典中的糖尿病药品名称</t>
+  </si>
+  <si>
+    <t>PG_JYZB011</t>
+  </si>
+  <si>
+    <t>钾离子危急值</t>
+  </si>
+  <si>
+    <t>钾离子危急值（上限6.5；下限2.5）</t>
+  </si>
+  <si>
+    <t>钾离子&gt;6.5 or 钾离子&lt;2.5。（异常数据未转换成数值型的不需要判断）</t>
+  </si>
+  <si>
+    <t>PG_JYZB012</t>
+  </si>
+  <si>
+    <t>钠离子危急值</t>
+  </si>
+  <si>
+    <t>钠离子危急值（上限160；下限120）</t>
+  </si>
+  <si>
+    <t>钠离子&gt;160 or 钠离子&lt;120。（异常数据未转换成数值型的不需要判断）</t>
+  </si>
+  <si>
+    <t>PG_JYZB013</t>
+  </si>
+  <si>
+    <t>氯离子危急值</t>
+  </si>
+  <si>
+    <t>氯离子危急值（上限120；下限80）</t>
+  </si>
+  <si>
+    <t>氯离子&gt;120 or 氯离子&lt;80。（异常数据未转换成数值型的不需要判断）</t>
+  </si>
+  <si>
+    <t>PG_JYZB014</t>
+  </si>
+  <si>
+    <t>钙离子危急值</t>
+  </si>
+  <si>
+    <t>钙离子危急值（上限1.58；下限0.75）</t>
+  </si>
+  <si>
+    <t>钙离子&gt;1.58 or 钙离子&lt;0.75。（异常数据未转换成数值型的不需要判断）</t>
+  </si>
+  <si>
+    <t>PG_JYZB015</t>
+  </si>
+  <si>
+    <t>谷丙转氨酶危急值</t>
+  </si>
+  <si>
+    <t>谷丙转氨酶危急值（上限1000）</t>
+  </si>
+  <si>
+    <t>谷丙转氨酶&gt;1000。（异常数据未转换成数值型的不需要判断）</t>
+  </si>
+  <si>
+    <t>PG_JYZB016</t>
+  </si>
+  <si>
+    <t>肌红蛋白危急值</t>
+  </si>
+  <si>
+    <t>肌红蛋白危急值（上限500）</t>
+  </si>
+  <si>
+    <t>肌红蛋白&gt;500。（异常数据未转换成数值型的不需要判断）</t>
+  </si>
+  <si>
+    <t>PG_JYZB017</t>
+  </si>
+  <si>
+    <t>血白细胞危急值</t>
+  </si>
+  <si>
+    <t>血白细胞危急值（上限30；下限2）</t>
+  </si>
+  <si>
+    <t>血白细胞&gt;30 or 血白细胞&lt;2。（异常数据未转换成数值型的不需要判断）</t>
+  </si>
+  <si>
+    <t>PG_JYZB018</t>
+  </si>
+  <si>
+    <t>血红蛋白危急值</t>
+  </si>
+  <si>
+    <t>血红蛋白危急值（下限5）</t>
+  </si>
+  <si>
+    <t>血红蛋白&lt;5（异常数据未转换成数值型的不需要判断）</t>
+  </si>
+  <si>
+    <t>PG_JYZB019</t>
+  </si>
+  <si>
+    <t>血小板危急值</t>
+  </si>
+  <si>
+    <t>血小板危急值（上限800；下限30）</t>
+  </si>
+  <si>
+    <t>血小板&gt;800 or 血小板&lt;30（异常数据未转换成数值型的不需要判断）</t>
+  </si>
+  <si>
+    <t>PG_JYZB020</t>
+  </si>
+  <si>
+    <t>凝血酶原时间危急值</t>
+  </si>
+  <si>
+    <t>凝血酶原时间危急值（上限30；下限8）</t>
+  </si>
+  <si>
+    <t>凝血酶原时间&gt;30 or 凝血酶原时间&lt;8（异常数据未转换成数值型的不需要判断）</t>
+  </si>
+  <si>
+    <t>PG_JYJG01</t>
+  </si>
+  <si>
+    <t>异常检验结果</t>
+  </si>
+  <si>
+    <t>异常检验结果判断</t>
+  </si>
+  <si>
+    <t>评估周期内检验项目明细有异常</t>
+  </si>
+  <si>
+    <t>评估周期内有任意一条检验明细项目有异常标识，即标识为“3”或者“4”</t>
+  </si>
+  <si>
+    <t>PG_JCJG01</t>
+  </si>
+  <si>
+    <t>辅助检查结果</t>
+  </si>
+  <si>
+    <t>辅助检查结果判断</t>
+  </si>
+  <si>
+    <t>评估周期内有辅助检查结果</t>
+  </si>
+  <si>
+    <t>评估周期内有任意一条检查报告记录</t>
+  </si>
+  <si>
+    <t>r13</t>
+  </si>
+  <si>
+    <t>r13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRUG='高血压用药'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRUG='糖尿病用药'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>POTASSIUM=7</t>
+  </si>
+  <si>
+    <t>SODIUM=170</t>
+  </si>
+  <si>
+    <t>CHLORINE=130</t>
+  </si>
+  <si>
+    <t>CALCIUM=2</t>
+  </si>
+  <si>
+    <t>SGPT=1001</t>
+  </si>
+  <si>
+    <t>MYOGLOBIN=600</t>
+  </si>
+  <si>
+    <t>HEMAMEBA=31</t>
+  </si>
+  <si>
+    <t>NGB=3</t>
+  </si>
+  <si>
+    <t>PLATELET=900</t>
+  </si>
+  <si>
+    <t>PROBIN_TIME=31</t>
+  </si>
+  <si>
+    <t>ABNORMAL_VALUE=1</t>
+  </si>
+  <si>
+    <t>REPORT_VALUE=1</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_ASSESS_INFO_REPORT (ASSESS_ID, POTASSIUM, SODIUM, CHLORINE, CALCIUM, SGPT, MYOGLOBIN, HEMAMEBA, ERYTHROCYTE, NGB, PLATELET, PROBIN_TIME, ABNORMAL_VALUE, REPORT_VALUE, CREATE_DATE) VALUES ({varID} , '', '', '', '', '', '6', '', '', '', '', '', 1, 0, '2023-10-31 15:00:57.5366667')</t>
+  </si>
+  <si>
+    <t>UPDATE T_ASSESS_INFO_REPORT SET {测试规则参数} where ASSESS_ID={varID}</t>
+  </si>
+  <si>
+    <t>DELETE FROM T_ASSESS_INFO_REPORT WHERE ASSESS_ID ={varID}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from T_ASSESS_INFO where ID_CARD = '232625195205150123'</t>
+  </si>
+  <si>
+    <t>UPDATE TB_LIS_REPORT_INDICATOR SET {测试规则参数} where EMPIGUID = 1808</t>
+  </si>
+  <si>
+    <t>self.i_startAssess(232625195205150123)</t>
+  </si>
+  <si>
+    <t>select ID from T_ASSESS_INFO where ID_CARD = '232625195205150123'</t>
+  </si>
+  <si>
+    <t>r14</t>
+  </si>
+  <si>
+    <t>r14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE TB_RIS_REPORT SET {测试规则参数} where EMPIGUID = 1808</t>
+  </si>
+  <si>
+    <t>r15</t>
+  </si>
+  <si>
+    <t>r15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from T_ASSESS_INFO where ID_CARD = '130623198201310025'</t>
+  </si>
+  <si>
+    <t>self.i_startAssess(130623198201310025)</t>
+  </si>
+  <si>
+    <t>update T_ASSESS_INFO set {测试规则参数} where ID_CARD = '130623198201310025'</t>
+  </si>
+  <si>
+    <t>select ID from T_ASSESS_INFO where ID_CARD = '130623198201310025'</t>
+  </si>
+  <si>
+    <t>r16</t>
+  </si>
+  <si>
+    <t>r16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>POTASSIUM=6.6</t>
+  </si>
+  <si>
+    <t>GY_WJZ001</t>
+  </si>
+  <si>
+    <t>PG_JYZB011='是'</t>
+  </si>
+  <si>
+    <t>SODIUM=161</t>
+  </si>
+  <si>
+    <t>GY_WJZ002</t>
+  </si>
+  <si>
+    <t>PG_JYZB012='是'</t>
+  </si>
+  <si>
+    <t>CHLORINE=121</t>
+  </si>
+  <si>
+    <t>GY_WJZ003</t>
+  </si>
+  <si>
+    <t>PG_JYZB013='是'</t>
+  </si>
+  <si>
+    <t>CALCIUM=1.59</t>
+  </si>
+  <si>
+    <t>GY_WJZ004</t>
+  </si>
+  <si>
+    <t>PG_JYZB014='是'</t>
+  </si>
+  <si>
+    <t>GY_WJZ005</t>
+  </si>
+  <si>
+    <t>PG_JYZB015='是'</t>
+  </si>
+  <si>
+    <t>MYOGLOBIN=501</t>
+  </si>
+  <si>
+    <t>GY_WJZ006</t>
+  </si>
+  <si>
+    <t>PG_JYZB016='是'</t>
+  </si>
+  <si>
+    <t>GY_WJZ007</t>
+  </si>
+  <si>
+    <t>PG_JYZB017='是'</t>
+  </si>
+  <si>
+    <t>NGB=4</t>
+  </si>
+  <si>
+    <t>GY_WJZ008</t>
+  </si>
+  <si>
+    <t>PG_JYZB018='是'</t>
+  </si>
+  <si>
+    <t>PLATELET=801</t>
+  </si>
+  <si>
+    <t>GY_WJZ009</t>
+  </si>
+  <si>
+    <t>PG_JYZB019='是'</t>
+  </si>
+  <si>
+    <t>GY_WJZ010</t>
+  </si>
+  <si>
+    <t>PG_JYZB020='是'</t>
+  </si>
+  <si>
+    <t>r11</t>
+  </si>
+  <si>
+    <t>AGE='58' .and.DRUG='高血压用药'</t>
+  </si>
+  <si>
+    <t>GY_GW001002</t>
+  </si>
+  <si>
+    <t>高血压高危='是' and PG_YWZL003='是'</t>
+  </si>
+  <si>
+    <t>服用降压药物，未诊断或登记为高血压</t>
+  </si>
+  <si>
+    <t>AGE='58' .and. DRUG='糖尿病用药'</t>
+  </si>
+  <si>
+    <t>糖尿病高危='是' and PG_YWZL004='是'</t>
+  </si>
+  <si>
+    <t>服用降糖药物，未诊断或登记为糖尿病</t>
+  </si>
+  <si>
+    <t>AGE='41'</t>
+  </si>
+  <si>
+    <t>GY_YS009</t>
+  </si>
+  <si>
+    <t>YH_JB001='否' and YH_JB002='否' andYH_JB003='否' and YH_JB004='否' and YH_JB005='否' and YH_JB006='否' and YH_JB007='否' and YH_JB008='否' and YH_JB009='否' and YH_JB010='否' and YH_JB011='否' and GW_JB001='否' and GW_JB002='否' and GW_JB003='否' and GW_JB004='否' and GW_JB005='否' and GW_JB006='否' and GW_JB007='否' and GW_JB008='否' and GW_JB009='否' and GW_JB010='否' and GW_JB011='否'</t>
+  </si>
+  <si>
+    <t>健康人群饮食调养</t>
+  </si>
+  <si>
+    <t>GY_ZW003</t>
+  </si>
+  <si>
+    <t>健康人群自我管理</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>GY_ZW004</t>
+  </si>
+  <si>
+    <t>YH_JB001='是'</t>
+  </si>
+  <si>
+    <t>高血压患者自我管理</t>
+  </si>
+  <si>
+    <t>GY_ZW005</t>
+  </si>
+  <si>
+    <t>YH_JB002='是'</t>
+  </si>
+  <si>
+    <t>糖尿病患者自我管理</t>
+  </si>
+  <si>
+    <t>AGE='20'</t>
+  </si>
+  <si>
+    <t>GY_SC001</t>
+  </si>
+  <si>
+    <t>YH_JB008='否' and GW_JB008='否' and 性别='女' and 年龄≥20 and 年龄 &lt;30</t>
+  </si>
+  <si>
+    <t>20-30岁妇女乳腺癌筛查</t>
+  </si>
+  <si>
+    <t>AGE='30'</t>
+  </si>
+  <si>
+    <t>GY_SC002</t>
+  </si>
+  <si>
+    <t>YH_JB008='否' and GW_JB008='否' and 性别='女' and 年龄≥30 and 年龄 &lt;35</t>
+  </si>
+  <si>
+    <t>30-35岁妇女乳腺癌筛查</t>
+  </si>
+  <si>
+    <t>AGE='35'</t>
+  </si>
+  <si>
+    <t>GY_SC003</t>
+  </si>
+  <si>
+    <t>YH_JB008='否' and GW_JB008='否' and 性别='女' and 年龄≥35 and 年龄 &lt;60</t>
+  </si>
+  <si>
+    <t>35-60岁妇女乳腺癌筛查</t>
+  </si>
+  <si>
+    <t>AGE='60'</t>
+  </si>
+  <si>
+    <t>GY_SC004</t>
+  </si>
+  <si>
+    <t>YH_JB008='否' and GW_JB008='否' and 性别='女' and 年龄≥60</t>
+  </si>
+  <si>
+    <t>60岁以上妇女乳腺癌筛查</t>
+  </si>
+  <si>
+    <t>RESULTFLAGCODE=4</t>
+  </si>
+  <si>
+    <t>GY_FZ001</t>
+  </si>
+  <si>
+    <t>PG_JYJG01='是'</t>
+  </si>
+  <si>
+    <t>REPORTTYPENAME = '心内'</t>
+  </si>
+  <si>
+    <t>GY_FZ002</t>
+  </si>
+  <si>
+    <t>PG_JCJG01='是'</t>
+  </si>
 </sst>
 </file>
 
@@ -4118,7 +4610,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4366,6 +4858,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4540,7 +5047,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4949,6 +5456,48 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5643,10 +6192,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B2C0DA-DE53-FF4A-B6CA-AA567DFF5C70}">
-  <dimension ref="A1:H427"/>
+  <dimension ref="A1:D452"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="C448" sqref="C448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6646,7 +7195,7 @@
         <v>6</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -6775,7 +7324,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6789,7 +7338,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6803,7 +7352,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="28">
+    <row r="83" spans="1:4" ht="28">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6817,7 +7366,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6831,7 +7380,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="28">
+    <row r="85" spans="1:4" ht="28">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6845,7 +7394,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6859,7 +7408,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6873,7 +7422,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6887,7 +7436,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6901,7 +7450,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6915,7 +7464,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6929,7 +7478,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6943,7 +7492,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6957,7 +7506,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6971,7 +7520,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6984,11 +7533,8 @@
       <c r="D95" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="H95" s="85" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7147,7 +7693,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -7161,7 +7707,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -7175,7 +7721,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -7189,7 +7735,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C110">
         <v>4</v>
@@ -7203,7 +7749,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C111">
         <v>5</v>
@@ -7217,7 +7763,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C112">
         <v>6</v>
@@ -7231,7 +7777,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C113">
         <v>7</v>
@@ -7245,7 +7791,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C114">
         <v>8</v>
@@ -7259,7 +7805,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C115">
         <v>9</v>
@@ -7273,7 +7819,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C116">
         <v>10</v>
@@ -7287,7 +7833,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C117">
         <v>11</v>
@@ -7301,7 +7847,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C118">
         <v>12</v>
@@ -7315,7 +7861,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C119">
         <v>13</v>
@@ -7329,7 +7875,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C120">
         <v>14</v>
@@ -7343,7 +7889,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C121">
         <v>15</v>
@@ -7357,7 +7903,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C122">
         <v>16</v>
@@ -7371,7 +7917,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C123">
         <v>17</v>
@@ -7385,7 +7931,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C124">
         <v>18</v>
@@ -7399,7 +7945,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C125">
         <v>19</v>
@@ -7413,7 +7959,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C126">
         <v>20</v>
@@ -7427,7 +7973,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C127">
         <v>21</v>
@@ -7441,7 +7987,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C128">
         <v>22</v>
@@ -7455,7 +8001,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C129">
         <v>23</v>
@@ -7469,7 +8015,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C130">
         <v>24</v>
@@ -7483,7 +8029,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C131">
         <v>25</v>
@@ -7497,7 +8043,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C132">
         <v>26</v>
@@ -7511,7 +8057,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C133">
         <v>27</v>
@@ -7525,7 +8071,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C134">
         <v>28</v>
@@ -7539,7 +8085,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C135">
         <v>29</v>
@@ -7553,7 +8099,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C136">
         <v>30</v>
@@ -7567,7 +8113,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C137">
         <v>31</v>
@@ -7581,7 +8127,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C138">
         <v>32</v>
@@ -7595,7 +8141,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C139">
         <v>33</v>
@@ -7609,7 +8155,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C140">
         <v>34</v>
@@ -7623,7 +8169,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C141">
         <v>35</v>
@@ -7637,7 +8183,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C142">
         <v>36</v>
@@ -7651,7 +8197,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C143">
         <v>37</v>
@@ -7665,7 +8211,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C144">
         <v>38</v>
@@ -7679,7 +8225,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C145">
         <v>39</v>
@@ -7693,7 +8239,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C146">
         <v>40</v>
@@ -7707,7 +8253,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C147">
         <v>41</v>
@@ -7721,7 +8267,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C148">
         <v>42</v>
@@ -7735,7 +8281,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C149">
         <v>43</v>
@@ -7749,7 +8295,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="85" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C150">
         <v>44</v>
@@ -7763,7 +8309,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -7777,7 +8323,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C152">
         <v>2</v>
@@ -7791,7 +8337,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C153">
         <v>3</v>
@@ -7805,7 +8351,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C154">
         <v>4</v>
@@ -7819,7 +8365,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C155">
         <v>5</v>
@@ -7833,7 +8379,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C156">
         <v>6</v>
@@ -7847,7 +8393,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C157">
         <v>7</v>
@@ -7861,7 +8407,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C158">
         <v>8</v>
@@ -7875,7 +8421,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C159">
         <v>9</v>
@@ -7889,7 +8435,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C160">
         <v>10</v>
@@ -7903,7 +8449,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C161">
         <v>11</v>
@@ -7917,7 +8463,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C162">
         <v>12</v>
@@ -7931,7 +8477,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C163">
         <v>13</v>
@@ -7945,7 +8491,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C164">
         <v>14</v>
@@ -7959,7 +8505,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C165">
         <v>15</v>
@@ -7973,7 +8519,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C166">
         <v>16</v>
@@ -7987,7 +8533,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C167">
         <v>17</v>
@@ -8001,7 +8547,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C168">
         <v>18</v>
@@ -8015,7 +8561,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C169">
         <v>19</v>
@@ -8029,7 +8575,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C170">
         <v>20</v>
@@ -8043,7 +8589,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C171">
         <v>21</v>
@@ -8057,7 +8603,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C172">
         <v>22</v>
@@ -8071,7 +8617,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C173">
         <v>23</v>
@@ -8085,7 +8631,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C174">
         <v>24</v>
@@ -8099,7 +8645,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C175">
         <v>25</v>
@@ -8113,7 +8659,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C176">
         <v>26</v>
@@ -8127,7 +8673,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C177">
         <v>27</v>
@@ -8141,7 +8687,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C178">
         <v>28</v>
@@ -8155,7 +8701,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C179">
         <v>29</v>
@@ -8169,7 +8715,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C180">
         <v>30</v>
@@ -8183,7 +8729,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C181">
         <v>31</v>
@@ -8197,7 +8743,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C182">
         <v>32</v>
@@ -8211,7 +8757,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C183">
         <v>33</v>
@@ -8225,7 +8771,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C184">
         <v>34</v>
@@ -8239,7 +8785,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C185">
         <v>35</v>
@@ -8253,7 +8799,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C186">
         <v>36</v>
@@ -8267,7 +8813,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C187">
         <v>37</v>
@@ -8281,7 +8827,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C188">
         <v>38</v>
@@ -8295,7 +8841,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C189">
         <v>39</v>
@@ -8309,7 +8855,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C190">
         <v>40</v>
@@ -8323,7 +8869,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C191">
         <v>41</v>
@@ -8337,7 +8883,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C192">
         <v>42</v>
@@ -8351,7 +8897,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C193">
         <v>43</v>
@@ -8365,7 +8911,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C194">
         <v>44</v>
@@ -8379,7 +8925,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C195">
         <v>45</v>
@@ -8393,7 +8939,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C196">
         <v>46</v>
@@ -8407,7 +8953,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C197">
         <v>47</v>
@@ -8421,7 +8967,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C198">
         <v>48</v>
@@ -8435,7 +8981,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C199">
         <v>49</v>
@@ -8449,7 +8995,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C200">
         <v>50</v>
@@ -8463,7 +9009,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C201">
         <v>51</v>
@@ -8477,7 +9023,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C202">
         <v>52</v>
@@ -8491,7 +9037,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="85" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C203">
         <v>53</v>
@@ -8505,7 +9051,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -8519,7 +9065,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C205">
         <v>2</v>
@@ -8533,7 +9079,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C206">
         <v>3</v>
@@ -8547,7 +9093,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C207">
         <v>4</v>
@@ -8561,7 +9107,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C208">
         <v>5</v>
@@ -8575,7 +9121,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C209">
         <v>6</v>
@@ -8589,7 +9135,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C210">
         <v>7</v>
@@ -8603,7 +9149,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C211">
         <v>8</v>
@@ -8617,7 +9163,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C212">
         <v>9</v>
@@ -8631,7 +9177,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C213">
         <v>10</v>
@@ -8645,7 +9191,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C214">
         <v>11</v>
@@ -8659,7 +9205,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C215">
         <v>12</v>
@@ -8673,7 +9219,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C216">
         <v>13</v>
@@ -8687,7 +9233,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C217">
         <v>14</v>
@@ -8701,7 +9247,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C218">
         <v>15</v>
@@ -8715,7 +9261,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C219">
         <v>16</v>
@@ -8729,7 +9275,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C220">
         <v>17</v>
@@ -8743,7 +9289,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C221">
         <v>18</v>
@@ -8757,7 +9303,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C222">
         <v>19</v>
@@ -8771,7 +9317,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C223">
         <v>20</v>
@@ -8785,7 +9331,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C224">
         <v>21</v>
@@ -8799,7 +9345,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C225">
         <v>22</v>
@@ -8813,7 +9359,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C226">
         <v>23</v>
@@ -8827,7 +9373,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C227">
         <v>24</v>
@@ -8841,7 +9387,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C228">
         <v>25</v>
@@ -8855,7 +9401,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C229">
         <v>26</v>
@@ -8869,7 +9415,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C230">
         <v>27</v>
@@ -8883,7 +9429,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C231">
         <v>28</v>
@@ -8897,7 +9443,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C232">
         <v>29</v>
@@ -8911,7 +9457,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C233">
         <v>30</v>
@@ -8925,7 +9471,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C234">
         <v>31</v>
@@ -8939,7 +9485,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C235">
         <v>32</v>
@@ -8953,7 +9499,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C236">
         <v>33</v>
@@ -8967,7 +9513,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C237">
         <v>34</v>
@@ -8981,7 +9527,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C238">
         <v>35</v>
@@ -8995,7 +9541,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C239">
         <v>36</v>
@@ -9009,7 +9555,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C240">
         <v>37</v>
@@ -9023,7 +9569,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C241">
         <v>38</v>
@@ -9037,7 +9583,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C242">
         <v>39</v>
@@ -9051,7 +9597,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C243">
         <v>40</v>
@@ -9065,7 +9611,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C244">
         <v>41</v>
@@ -9079,7 +9625,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="85" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C245">
         <v>42</v>
@@ -9093,7 +9639,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -9107,7 +9653,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C247">
         <v>2</v>
@@ -9121,7 +9667,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C248">
         <v>3</v>
@@ -9135,7 +9681,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C249">
         <v>4</v>
@@ -9149,7 +9695,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C250">
         <v>5</v>
@@ -9163,7 +9709,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C251">
         <v>6</v>
@@ -9177,7 +9723,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C252">
         <v>7</v>
@@ -9191,7 +9737,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C253">
         <v>8</v>
@@ -9205,7 +9751,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C254">
         <v>9</v>
@@ -9219,7 +9765,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C255">
         <v>10</v>
@@ -9233,7 +9779,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C256">
         <v>11</v>
@@ -9247,13 +9793,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C257">
         <v>12</v>
       </c>
       <c r="D257" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -9261,7 +9807,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C258">
         <v>13</v>
@@ -9275,7 +9821,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C259">
         <v>14</v>
@@ -9289,7 +9835,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C260">
         <v>15</v>
@@ -9303,13 +9849,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C261">
         <v>16</v>
       </c>
       <c r="D261" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -9317,7 +9863,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C262">
         <v>17</v>
@@ -9331,7 +9877,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C263">
         <v>18</v>
@@ -9345,7 +9891,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C264">
         <v>19</v>
@@ -9359,13 +9905,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C265">
         <v>20</v>
       </c>
       <c r="D265" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -9373,7 +9919,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C266">
         <v>21</v>
@@ -9387,7 +9933,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C267">
         <v>22</v>
@@ -9401,7 +9947,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C268">
         <v>23</v>
@@ -9415,13 +9961,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C269">
         <v>24</v>
       </c>
       <c r="D269" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -9429,7 +9975,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C270">
         <v>25</v>
@@ -9443,7 +9989,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C271">
         <v>26</v>
@@ -9457,7 +10003,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C272">
         <v>27</v>
@@ -9471,13 +10017,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C273">
         <v>28</v>
       </c>
       <c r="D273" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -9485,7 +10031,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C274">
         <v>29</v>
@@ -9499,7 +10045,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C275">
         <v>30</v>
@@ -9513,7 +10059,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C276">
         <v>31</v>
@@ -9527,13 +10073,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C277">
         <v>32</v>
       </c>
       <c r="D277" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -9541,7 +10087,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C278">
         <v>33</v>
@@ -9555,7 +10101,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C279">
         <v>34</v>
@@ -9569,7 +10115,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C280">
         <v>35</v>
@@ -9583,13 +10129,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C281">
         <v>36</v>
       </c>
       <c r="D281" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -9597,7 +10143,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C282">
         <v>37</v>
@@ -9611,7 +10157,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C283">
         <v>38</v>
@@ -9625,7 +10171,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C284">
         <v>39</v>
@@ -9639,13 +10185,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C285">
         <v>40</v>
       </c>
       <c r="D285" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -9653,7 +10199,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C286">
         <v>41</v>
@@ -9667,7 +10213,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C287">
         <v>42</v>
@@ -9681,7 +10227,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C288">
         <v>43</v>
@@ -9695,13 +10241,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C289">
         <v>44</v>
       </c>
       <c r="D289" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -9709,7 +10255,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="85" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C290">
         <v>45</v>
@@ -9723,7 +10269,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -9737,7 +10283,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C292">
         <v>2</v>
@@ -9751,7 +10297,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C293">
         <v>3</v>
@@ -9765,7 +10311,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C294">
         <v>4</v>
@@ -9779,7 +10325,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C295">
         <v>5</v>
@@ -9793,7 +10339,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C296">
         <v>6</v>
@@ -9807,7 +10353,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C297">
         <v>7</v>
@@ -9821,7 +10367,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C298">
         <v>8</v>
@@ -9835,7 +10381,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C299">
         <v>9</v>
@@ -9849,7 +10395,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C300">
         <v>10</v>
@@ -9863,7 +10409,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C301">
         <v>11</v>
@@ -9877,7 +10423,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C302">
         <v>12</v>
@@ -9891,7 +10437,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C303">
         <v>13</v>
@@ -9905,7 +10451,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C304">
         <v>14</v>
@@ -9919,7 +10465,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C305">
         <v>15</v>
@@ -9933,7 +10479,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C306">
         <v>16</v>
@@ -9947,7 +10493,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C307">
         <v>17</v>
@@ -9961,7 +10507,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C308">
         <v>18</v>
@@ -9975,7 +10521,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C309">
         <v>19</v>
@@ -9989,7 +10535,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C310">
         <v>20</v>
@@ -10003,7 +10549,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C311">
         <v>21</v>
@@ -10017,7 +10563,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C312">
         <v>22</v>
@@ -10031,7 +10577,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C313">
         <v>23</v>
@@ -10045,7 +10591,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C314">
         <v>24</v>
@@ -10059,7 +10605,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C315">
         <v>25</v>
@@ -10073,7 +10619,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C316">
         <v>26</v>
@@ -10087,7 +10633,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C317">
         <v>27</v>
@@ -10101,7 +10647,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C318">
         <v>28</v>
@@ -10115,7 +10661,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C319">
         <v>29</v>
@@ -10129,7 +10675,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C320">
         <v>30</v>
@@ -10143,7 +10689,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C321">
         <v>31</v>
@@ -10157,7 +10703,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="85" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C322">
         <v>32</v>
@@ -10171,7 +10717,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C323">
         <v>1</v>
@@ -10185,7 +10731,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C324">
         <v>2</v>
@@ -10199,7 +10745,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C325">
         <v>3</v>
@@ -10213,7 +10759,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C326">
         <v>4</v>
@@ -10227,7 +10773,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C327">
         <v>5</v>
@@ -10241,7 +10787,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C328">
         <v>6</v>
@@ -10255,7 +10801,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C329">
         <v>7</v>
@@ -10269,7 +10815,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C330">
         <v>8</v>
@@ -10283,7 +10829,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C331">
         <v>9</v>
@@ -10297,7 +10843,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C332">
         <v>10</v>
@@ -10311,7 +10857,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C333">
         <v>11</v>
@@ -10325,7 +10871,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C334">
         <v>12</v>
@@ -10339,7 +10885,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C335">
         <v>13</v>
@@ -10353,7 +10899,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C336">
         <v>14</v>
@@ -10367,7 +10913,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C337">
         <v>15</v>
@@ -10381,7 +10927,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C338">
         <v>16</v>
@@ -10395,7 +10941,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C339">
         <v>17</v>
@@ -10409,7 +10955,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C340">
         <v>18</v>
@@ -10423,7 +10969,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C341">
         <v>19</v>
@@ -10437,7 +10983,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C342">
         <v>20</v>
@@ -10451,7 +10997,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C343">
         <v>21</v>
@@ -10465,7 +11011,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C344">
         <v>22</v>
@@ -10479,7 +11025,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C345">
         <v>23</v>
@@ -10493,7 +11039,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C346">
         <v>24</v>
@@ -10507,7 +11053,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C347">
         <v>25</v>
@@ -10521,7 +11067,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C348">
         <v>26</v>
@@ -10535,7 +11081,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="85" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C349">
         <v>27</v>
@@ -10549,7 +11095,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="85" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -10563,7 +11109,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="85" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C351">
         <v>2</v>
@@ -10577,7 +11123,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="85" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C352">
         <v>3</v>
@@ -10591,7 +11137,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="85" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C353">
         <v>4</v>
@@ -10605,7 +11151,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="85" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C354">
         <v>5</v>
@@ -10619,7 +11165,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="85" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C355">
         <v>6</v>
@@ -10633,7 +11179,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="85" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C356">
         <v>7</v>
@@ -10647,7 +11193,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="85" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C357">
         <v>8</v>
@@ -10661,7 +11207,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="85" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C358">
         <v>9</v>
@@ -10675,7 +11221,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="85" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C359">
         <v>10</v>
@@ -10689,7 +11235,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C360">
         <v>1</v>
@@ -10703,7 +11249,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C361">
         <v>2</v>
@@ -10717,7 +11263,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C362">
         <v>3</v>
@@ -10731,7 +11277,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C363">
         <v>4</v>
@@ -10745,7 +11291,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C364">
         <v>5</v>
@@ -10759,7 +11305,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C365">
         <v>6</v>
@@ -10773,7 +11319,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C366">
         <v>7</v>
@@ -10787,13 +11333,13 @@
         <v>366</v>
       </c>
       <c r="B367" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C367">
         <v>8</v>
       </c>
       <c r="D367" s="85" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -10801,7 +11347,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C368">
         <v>9</v>
@@ -10815,7 +11361,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C369">
         <v>10</v>
@@ -10829,7 +11375,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C370">
         <v>11</v>
@@ -10843,7 +11389,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C371">
         <v>12</v>
@@ -10857,7 +11403,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C372">
         <v>13</v>
@@ -10871,7 +11417,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C373">
         <v>14</v>
@@ -10885,7 +11431,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C374">
         <v>15</v>
@@ -10899,7 +11445,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C375">
         <v>16</v>
@@ -10913,7 +11459,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C376">
         <v>17</v>
@@ -10927,7 +11473,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C377">
         <v>18</v>
@@ -10941,7 +11487,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C378">
         <v>19</v>
@@ -10955,7 +11501,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C379">
         <v>20</v>
@@ -10969,7 +11515,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C380">
         <v>21</v>
@@ -10983,7 +11529,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C381">
         <v>22</v>
@@ -10997,7 +11543,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C382">
         <v>23</v>
@@ -11011,7 +11557,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C383">
         <v>24</v>
@@ -11025,7 +11571,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C384">
         <v>25</v>
@@ -11039,7 +11585,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C385">
         <v>26</v>
@@ -11053,7 +11599,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="85" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C386">
         <v>27</v>
@@ -11067,7 +11613,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -11081,7 +11627,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C388">
         <v>2</v>
@@ -11095,7 +11641,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C389">
         <v>3</v>
@@ -11109,7 +11655,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C390">
         <v>4</v>
@@ -11123,7 +11669,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C391">
         <v>5</v>
@@ -11137,7 +11683,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C392">
         <v>6</v>
@@ -11151,7 +11697,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C393">
         <v>7</v>
@@ -11165,7 +11711,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C394">
         <v>8</v>
@@ -11179,7 +11725,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C395">
         <v>9</v>
@@ -11193,7 +11739,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C396">
         <v>10</v>
@@ -11207,7 +11753,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C397">
         <v>11</v>
@@ -11221,7 +11767,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C398">
         <v>12</v>
@@ -11235,7 +11781,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C399">
         <v>13</v>
@@ -11249,7 +11795,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C400">
         <v>14</v>
@@ -11263,7 +11809,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C401">
         <v>15</v>
@@ -11277,7 +11823,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C402">
         <v>16</v>
@@ -11291,7 +11837,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C403">
         <v>17</v>
@@ -11305,7 +11851,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C404">
         <v>18</v>
@@ -11319,7 +11865,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C405">
         <v>19</v>
@@ -11333,7 +11879,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C406">
         <v>20</v>
@@ -11347,7 +11893,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C407">
         <v>21</v>
@@ -11361,7 +11907,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C408">
         <v>22</v>
@@ -11375,7 +11921,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C409">
         <v>23</v>
@@ -11389,7 +11935,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C410">
         <v>24</v>
@@ -11403,7 +11949,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C411">
         <v>25</v>
@@ -11417,7 +11963,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C412">
         <v>26</v>
@@ -11431,7 +11977,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C413">
         <v>27</v>
@@ -11445,7 +11991,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="85" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C414">
         <v>1</v>
@@ -11459,7 +12005,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="85" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C415">
         <v>2</v>
@@ -11473,7 +12019,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="85" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C416">
         <v>3</v>
@@ -11487,7 +12033,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="85" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C417">
         <v>4</v>
@@ -11501,7 +12047,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="85" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C418">
         <v>5</v>
@@ -11515,7 +12061,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="85" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C419">
         <v>6</v>
@@ -11529,7 +12075,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="85" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C420">
         <v>7</v>
@@ -11543,7 +12089,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="85" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C421">
         <v>8</v>
@@ -11557,7 +12103,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="85" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C422">
         <v>9</v>
@@ -11571,7 +12117,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="85" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C423">
         <v>10</v>
@@ -11585,7 +12131,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="85" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C424">
         <v>11</v>
@@ -11599,7 +12145,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="85" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C425">
         <v>12</v>
@@ -11613,7 +12159,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="85" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C426">
         <v>13</v>
@@ -11627,13 +12173,363 @@
         <v>426</v>
       </c>
       <c r="B427" s="85" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C427">
         <v>14</v>
       </c>
       <c r="D427" t="s">
         <v>473</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428" s="85" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+      <c r="D428" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="B429" s="85" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C429">
+        <v>2</v>
+      </c>
+      <c r="D429" s="85" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="B430" s="85" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C430">
+        <v>3</v>
+      </c>
+      <c r="D430" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="B431" s="85" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C431">
+        <v>4</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="B432" s="85" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C432">
+        <v>5</v>
+      </c>
+      <c r="D432" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="B433" s="85" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C433">
+        <v>6</v>
+      </c>
+      <c r="D433" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434">
+        <v>443</v>
+      </c>
+      <c r="B434" s="85" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435">
+        <v>444</v>
+      </c>
+      <c r="B435" s="85" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C435">
+        <v>2</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436">
+        <v>445</v>
+      </c>
+      <c r="B436" s="85" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C436">
+        <v>3</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437">
+        <v>446</v>
+      </c>
+      <c r="B437" s="85" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C437">
+        <v>4</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438">
+        <v>447</v>
+      </c>
+      <c r="B438" s="85" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C438">
+        <v>5</v>
+      </c>
+      <c r="D438" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439">
+        <v>448</v>
+      </c>
+      <c r="B439" s="85" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C439">
+        <v>6</v>
+      </c>
+      <c r="D439" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440">
+        <v>449</v>
+      </c>
+      <c r="B440" s="85" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C440">
+        <v>7</v>
+      </c>
+      <c r="D440" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441">
+        <v>450</v>
+      </c>
+      <c r="B441" s="85" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442">
+        <v>451</v>
+      </c>
+      <c r="B442" s="85" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C442">
+        <v>2</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443">
+        <v>452</v>
+      </c>
+      <c r="B443" s="85" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C443">
+        <v>3</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444">
+        <v>453</v>
+      </c>
+      <c r="B444" s="85" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C444">
+        <v>4</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445">
+        <v>454</v>
+      </c>
+      <c r="B445" s="85" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C445">
+        <v>5</v>
+      </c>
+      <c r="D445" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446">
+        <v>455</v>
+      </c>
+      <c r="B446" s="85" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C446">
+        <v>6</v>
+      </c>
+      <c r="D446" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447">
+        <v>456</v>
+      </c>
+      <c r="B447" s="85" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448">
+        <v>457</v>
+      </c>
+      <c r="B448" s="85" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C448">
+        <v>2</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449">
+        <v>458</v>
+      </c>
+      <c r="B449" s="85" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C449">
+        <v>3</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450">
+        <v>459</v>
+      </c>
+      <c r="B450" s="85" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C450">
+        <v>4</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451">
+        <v>460</v>
+      </c>
+      <c r="B451" s="85" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C451">
+        <v>5</v>
+      </c>
+      <c r="D451" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452">
+        <v>461</v>
+      </c>
+      <c r="B452" s="85" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C452">
+        <v>6</v>
+      </c>
+      <c r="D452" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -11644,11 +12540,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -11664,8 +12560,7 @@
     <col min="9" max="9" width="31" style="15" customWidth="1"/>
     <col min="10" max="10" width="24.33203125" style="15" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="97" customWidth="1"/>
-    <col min="12" max="32" width="9" style="97" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="97"/>
+    <col min="12" max="16384" width="9" style="97"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
@@ -14850,6 +15745,440 @@
         <v>1070</v>
       </c>
       <c r="K91" s="106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="30">
+      <c r="A92" s="97">
+        <v>91</v>
+      </c>
+      <c r="B92" s="116"/>
+      <c r="C92" s="116"/>
+      <c r="D92" s="116" t="s">
+        <v>624</v>
+      </c>
+      <c r="E92" s="136" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F92" s="137" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G92" s="138" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H92" s="139" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I92" s="139" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J92" s="139" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K92" s="106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="30">
+      <c r="A93" s="97">
+        <v>92</v>
+      </c>
+      <c r="B93" s="116"/>
+      <c r="C93" s="116"/>
+      <c r="D93" s="116" t="s">
+        <v>624</v>
+      </c>
+      <c r="E93" s="136" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F93" s="137" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G93" s="138" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H93" s="139" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I93" s="139" t="s">
+        <v>1306</v>
+      </c>
+      <c r="J93" s="139" t="s">
+        <v>1307</v>
+      </c>
+      <c r="K93" s="106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="45">
+      <c r="A94" s="97">
+        <v>93</v>
+      </c>
+      <c r="B94" s="116"/>
+      <c r="C94" s="116"/>
+      <c r="D94" s="116" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E94" s="136" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F94" s="137" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G94" s="138" t="s">
+        <v>931</v>
+      </c>
+      <c r="H94" s="139" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I94" s="139" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J94" s="139" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K94" s="106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="45">
+      <c r="A95" s="97">
+        <v>94</v>
+      </c>
+      <c r="B95" s="116"/>
+      <c r="C95" s="116"/>
+      <c r="D95" s="116" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E95" s="136" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F95" s="137" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G95" s="138" t="s">
+        <v>931</v>
+      </c>
+      <c r="H95" s="139" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I95" s="139" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J95" s="139" t="s">
+        <v>1315</v>
+      </c>
+      <c r="K95" s="106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="45">
+      <c r="A96" s="97">
+        <v>95</v>
+      </c>
+      <c r="B96" s="116"/>
+      <c r="C96" s="116"/>
+      <c r="D96" s="116" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E96" s="136" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F96" s="137" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G96" s="138" t="s">
+        <v>931</v>
+      </c>
+      <c r="H96" s="139" t="s">
+        <v>1317</v>
+      </c>
+      <c r="I96" s="139" t="s">
+        <v>1318</v>
+      </c>
+      <c r="J96" s="139" t="s">
+        <v>1319</v>
+      </c>
+      <c r="K96" s="106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="45">
+      <c r="A97" s="97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="116"/>
+      <c r="C97" s="116"/>
+      <c r="D97" s="116" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E97" s="136" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F97" s="137" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G97" s="138" t="s">
+        <v>931</v>
+      </c>
+      <c r="H97" s="139" t="s">
+        <v>1321</v>
+      </c>
+      <c r="I97" s="139" t="s">
+        <v>1322</v>
+      </c>
+      <c r="J97" s="139" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K97" s="106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="30">
+      <c r="A98" s="97">
+        <v>97</v>
+      </c>
+      <c r="B98" s="116"/>
+      <c r="C98" s="116"/>
+      <c r="D98" s="116" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E98" s="136" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F98" s="137" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G98" s="138" t="s">
+        <v>931</v>
+      </c>
+      <c r="H98" s="139" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I98" s="139" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J98" s="139" t="s">
+        <v>1327</v>
+      </c>
+      <c r="K98" s="106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="30">
+      <c r="A99" s="97">
+        <v>98</v>
+      </c>
+      <c r="B99" s="116"/>
+      <c r="C99" s="116"/>
+      <c r="D99" s="116" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E99" s="136" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F99" s="137" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G99" s="138" t="s">
+        <v>931</v>
+      </c>
+      <c r="H99" s="139" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I99" s="139" t="s">
+        <v>1330</v>
+      </c>
+      <c r="J99" s="139" t="s">
+        <v>1331</v>
+      </c>
+      <c r="K99" s="106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="45">
+      <c r="A100" s="97">
+        <v>99</v>
+      </c>
+      <c r="B100" s="116"/>
+      <c r="C100" s="116"/>
+      <c r="D100" s="116" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E100" s="136" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F100" s="137" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G100" s="138" t="s">
+        <v>931</v>
+      </c>
+      <c r="H100" s="139" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I100" s="139" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J100" s="139" t="s">
+        <v>1335</v>
+      </c>
+      <c r="K100" s="106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="30">
+      <c r="A101" s="97">
+        <v>100</v>
+      </c>
+      <c r="B101" s="116"/>
+      <c r="C101" s="116"/>
+      <c r="D101" s="116" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E101" s="136" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F101" s="140" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G101" s="138" t="s">
+        <v>931</v>
+      </c>
+      <c r="H101" s="139" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I101" s="139" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J101" s="139" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K101" s="106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="45">
+      <c r="A102" s="97">
+        <v>101</v>
+      </c>
+      <c r="B102" s="116"/>
+      <c r="C102" s="116"/>
+      <c r="D102" s="116" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E102" s="136" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F102" s="137" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G102" s="138" t="s">
+        <v>931</v>
+      </c>
+      <c r="H102" s="139" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I102" s="139" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J102" s="139" t="s">
+        <v>1343</v>
+      </c>
+      <c r="K102" s="106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="45">
+      <c r="A103" s="97">
+        <v>102</v>
+      </c>
+      <c r="B103" s="116"/>
+      <c r="C103" s="116"/>
+      <c r="D103" s="116" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E103" s="136" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F103" s="137" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G103" s="138" t="s">
+        <v>931</v>
+      </c>
+      <c r="H103" s="139" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I103" s="139" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J103" s="139" t="s">
+        <v>1347</v>
+      </c>
+      <c r="K103" s="106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="45">
+      <c r="A104" s="97">
+        <v>103</v>
+      </c>
+      <c r="B104" s="116"/>
+      <c r="C104" s="116"/>
+      <c r="D104" s="116" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E104" s="136" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F104" s="137" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G104" s="139" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H104" s="139" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I104" s="139" t="s">
+        <v>1351</v>
+      </c>
+      <c r="J104" s="139" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K104" s="106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="30">
+      <c r="A105" s="97">
+        <v>104</v>
+      </c>
+      <c r="B105" s="116"/>
+      <c r="C105" s="116"/>
+      <c r="D105" s="116" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E105" s="136" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F105" s="137" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G105" s="139" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H105" s="139" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I105" s="139" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J105" s="139" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K105" s="106" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14861,11 +16190,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="15"/>
@@ -16508,11 +17837,11 @@
         <v>265</v>
       </c>
       <c r="D49" s="79" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="6" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>42</v>
@@ -17023,7 +18352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="30" customHeight="1">
+    <row r="65" spans="1:14" ht="30" customHeight="1">
       <c r="A65" s="97">
         <v>64</v>
       </c>
@@ -17056,7 +18385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="30" customHeight="1">
+    <row r="66" spans="1:14" ht="30" customHeight="1">
       <c r="A66" s="97">
         <v>65</v>
       </c>
@@ -17089,7 +18418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30" customHeight="1">
+    <row r="67" spans="1:14" ht="30" customHeight="1">
       <c r="A67" s="97">
         <v>66</v>
       </c>
@@ -17122,7 +18451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="30" customHeight="1">
+    <row r="68" spans="1:14" ht="30" customHeight="1">
       <c r="A68" s="97">
         <v>67</v>
       </c>
@@ -17155,7 +18484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="30" customHeight="1">
+    <row r="69" spans="1:14" ht="30" customHeight="1">
       <c r="A69" s="97">
         <v>68</v>
       </c>
@@ -17188,7 +18517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="30" customHeight="1">
+    <row r="70" spans="1:14" ht="30" customHeight="1">
       <c r="A70" s="97">
         <v>69</v>
       </c>
@@ -17221,7 +18550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="30" customHeight="1">
+    <row r="71" spans="1:14" ht="30" customHeight="1">
       <c r="A71" s="97">
         <v>70</v>
       </c>
@@ -17254,7 +18583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="30" customHeight="1">
+    <row r="72" spans="1:14" ht="30" customHeight="1">
       <c r="A72" s="97">
         <v>71</v>
       </c>
@@ -17287,7 +18616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="30" customHeight="1">
+    <row r="73" spans="1:14" ht="30" customHeight="1">
       <c r="A73" s="97">
         <v>72</v>
       </c>
@@ -17320,7 +18649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="30" customHeight="1">
+    <row r="74" spans="1:14" ht="30" customHeight="1">
       <c r="A74" s="97">
         <v>73</v>
       </c>
@@ -17353,7 +18682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="30" customHeight="1">
+    <row r="75" spans="1:14" ht="30" customHeight="1">
       <c r="A75" s="97">
         <v>74</v>
       </c>
@@ -17386,7 +18715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="30" customHeight="1">
+    <row r="76" spans="1:14" ht="30" customHeight="1">
       <c r="A76" s="97">
         <v>75</v>
       </c>
@@ -17417,7 +18746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="30" customHeight="1">
+    <row r="77" spans="1:14" ht="30" customHeight="1">
       <c r="A77" s="97">
         <v>76</v>
       </c>
@@ -17450,7 +18779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="30" customHeight="1">
+    <row r="78" spans="1:14" ht="30" customHeight="1">
       <c r="A78" s="97">
         <v>77</v>
       </c>
@@ -17480,6 +18809,670 @@
       <c r="K78" s="2" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="141">
+        <v>78</v>
+      </c>
+      <c r="B79" s="142"/>
+      <c r="C79" s="143"/>
+      <c r="D79" s="144" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E79" s="145" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F79" s="146" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G79" s="143"/>
+      <c r="H79" s="144"/>
+      <c r="I79" s="144" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J79" s="144" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K79" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L79" s="143"/>
+      <c r="M79" s="143"/>
+      <c r="N79" s="143"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="141">
+        <v>79</v>
+      </c>
+      <c r="B80" s="142"/>
+      <c r="C80" s="143"/>
+      <c r="D80" s="144" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E80" s="145" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F80" s="146" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G80" s="143"/>
+      <c r="H80" s="143"/>
+      <c r="I80" s="144" t="s">
+        <v>1397</v>
+      </c>
+      <c r="J80" s="144" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K80" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L80" s="143"/>
+      <c r="M80" s="143"/>
+      <c r="N80" s="143"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="141">
+        <v>80</v>
+      </c>
+      <c r="B81" s="142"/>
+      <c r="C81" s="143"/>
+      <c r="D81" s="144" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E81" s="145" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F81" s="146" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G81" s="143"/>
+      <c r="H81" s="143"/>
+      <c r="I81" s="144" t="s">
+        <v>1400</v>
+      </c>
+      <c r="J81" s="144" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K81" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L81" s="143"/>
+      <c r="M81" s="143"/>
+      <c r="N81" s="143"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="141">
+        <v>81</v>
+      </c>
+      <c r="B82" s="142"/>
+      <c r="C82" s="143"/>
+      <c r="D82" s="144" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E82" s="145" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F82" s="146" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G82" s="143"/>
+      <c r="H82" s="143"/>
+      <c r="I82" s="144" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J82" s="144" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K82" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L82" s="143"/>
+      <c r="M82" s="143"/>
+      <c r="N82" s="143"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="141">
+        <v>82</v>
+      </c>
+      <c r="B83" s="142"/>
+      <c r="C83" s="143"/>
+      <c r="D83" s="144" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E83" s="145" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F83" s="146" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G83" s="143"/>
+      <c r="H83" s="143"/>
+      <c r="I83" s="144" t="s">
+        <v>1405</v>
+      </c>
+      <c r="J83" s="144" t="s">
+        <v>1325</v>
+      </c>
+      <c r="K83" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L83" s="143"/>
+      <c r="M83" s="143"/>
+      <c r="N83" s="143"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="141">
+        <v>83</v>
+      </c>
+      <c r="B84" s="142"/>
+      <c r="C84" s="143"/>
+      <c r="D84" s="144" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E84" s="145" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F84" s="146" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G84" s="143"/>
+      <c r="H84" s="143"/>
+      <c r="I84" s="144" t="s">
+        <v>1408</v>
+      </c>
+      <c r="J84" s="144" t="s">
+        <v>1329</v>
+      </c>
+      <c r="K84" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L84" s="143"/>
+      <c r="M84" s="143"/>
+      <c r="N84" s="143"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="141">
+        <v>84</v>
+      </c>
+      <c r="B85" s="142"/>
+      <c r="C85" s="143"/>
+      <c r="D85" s="144" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E85" s="145" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F85" s="146" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G85" s="143"/>
+      <c r="H85" s="143"/>
+      <c r="I85" s="144" t="s">
+        <v>1410</v>
+      </c>
+      <c r="J85" s="144" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K85" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L85" s="143"/>
+      <c r="M85" s="143"/>
+      <c r="N85" s="143"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="141">
+        <v>85</v>
+      </c>
+      <c r="B86" s="142"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="144" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E86" s="145" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F86" s="146" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G86" s="143"/>
+      <c r="H86" s="143"/>
+      <c r="I86" s="144" t="s">
+        <v>1413</v>
+      </c>
+      <c r="J86" s="144" t="s">
+        <v>1337</v>
+      </c>
+      <c r="K86" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L86" s="143"/>
+      <c r="M86" s="143"/>
+      <c r="N86" s="143"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="141">
+        <v>86</v>
+      </c>
+      <c r="B87" s="142"/>
+      <c r="C87" s="143"/>
+      <c r="D87" s="144" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E87" s="145" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F87" s="146" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G87" s="143"/>
+      <c r="H87" s="143"/>
+      <c r="I87" s="144" t="s">
+        <v>1416</v>
+      </c>
+      <c r="J87" s="144" t="s">
+        <v>1341</v>
+      </c>
+      <c r="K87" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L87" s="143"/>
+      <c r="M87" s="143"/>
+      <c r="N87" s="143"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="141">
+        <v>87</v>
+      </c>
+      <c r="B88" s="142"/>
+      <c r="C88" s="143"/>
+      <c r="D88" s="144" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E88" s="145" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F88" s="146" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G88" s="143"/>
+      <c r="H88" s="143"/>
+      <c r="I88" s="144" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J88" s="144" t="s">
+        <v>1345</v>
+      </c>
+      <c r="K88" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L88" s="143"/>
+      <c r="M88" s="143"/>
+      <c r="N88" s="143"/>
+    </row>
+    <row r="89" spans="1:14" ht="30">
+      <c r="A89" s="141">
+        <v>88</v>
+      </c>
+      <c r="B89" s="144"/>
+      <c r="C89" s="143"/>
+      <c r="D89" s="144" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E89" s="145" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F89" s="147" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G89" s="144" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89" s="144"/>
+      <c r="I89" s="144" t="s">
+        <v>1422</v>
+      </c>
+      <c r="J89" s="144" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K89" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L89" s="143"/>
+      <c r="M89" s="143"/>
+      <c r="N89" s="143"/>
+    </row>
+    <row r="90" spans="1:14" ht="30">
+      <c r="A90" s="141">
+        <v>89</v>
+      </c>
+      <c r="B90" s="142"/>
+      <c r="C90" s="143"/>
+      <c r="D90" s="144" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E90" s="145" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F90" s="147" t="s">
+        <v>217</v>
+      </c>
+      <c r="G90" s="144" t="s">
+        <v>39</v>
+      </c>
+      <c r="H90" s="143"/>
+      <c r="I90" s="144" t="s">
+        <v>1425</v>
+      </c>
+      <c r="J90" s="144" t="s">
+        <v>1426</v>
+      </c>
+      <c r="K90" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L90" s="143"/>
+      <c r="M90" s="143"/>
+      <c r="N90" s="143"/>
+    </row>
+    <row r="91" spans="1:14" ht="195">
+      <c r="A91" s="141">
+        <v>90</v>
+      </c>
+      <c r="B91" s="142"/>
+      <c r="C91" s="144"/>
+      <c r="D91" s="144" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E91" s="144" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F91" s="147" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G91" s="143"/>
+      <c r="H91" s="144"/>
+      <c r="I91" s="144" t="s">
+        <v>1429</v>
+      </c>
+      <c r="J91" s="144" t="s">
+        <v>1430</v>
+      </c>
+      <c r="K91" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L91" s="143"/>
+      <c r="M91" s="143"/>
+      <c r="N91" s="143"/>
+    </row>
+    <row r="92" spans="1:14" ht="195">
+      <c r="A92" s="141">
+        <v>91</v>
+      </c>
+      <c r="B92" s="142"/>
+      <c r="C92" s="144"/>
+      <c r="D92" s="144" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E92" s="144" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F92" s="147" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G92" s="143"/>
+      <c r="H92" s="144"/>
+      <c r="I92" s="144" t="s">
+        <v>1429</v>
+      </c>
+      <c r="J92" s="144" t="s">
+        <v>1432</v>
+      </c>
+      <c r="K92" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L92" s="143"/>
+      <c r="M92" s="143"/>
+      <c r="N92" s="143"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="141">
+        <v>92</v>
+      </c>
+      <c r="B93" s="142"/>
+      <c r="C93" s="143"/>
+      <c r="D93" s="148" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E93" s="144" t="s">
+        <v>872</v>
+      </c>
+      <c r="F93" s="147" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G93" s="143"/>
+      <c r="H93" s="143"/>
+      <c r="I93" s="144" t="s">
+        <v>1435</v>
+      </c>
+      <c r="J93" s="144" t="s">
+        <v>1436</v>
+      </c>
+      <c r="K93" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L93" s="143"/>
+      <c r="M93" s="143"/>
+      <c r="N93" s="143"/>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="141">
+        <v>93</v>
+      </c>
+      <c r="B94" s="142"/>
+      <c r="C94" s="143"/>
+      <c r="D94" s="148" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E94" s="144" t="s">
+        <v>873</v>
+      </c>
+      <c r="F94" s="147" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G94" s="143"/>
+      <c r="H94" s="143"/>
+      <c r="I94" s="144" t="s">
+        <v>1438</v>
+      </c>
+      <c r="J94" s="144" t="s">
+        <v>1439</v>
+      </c>
+      <c r="K94" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L94" s="143"/>
+      <c r="M94" s="143"/>
+      <c r="N94" s="143"/>
+    </row>
+    <row r="95" spans="1:14" ht="45">
+      <c r="A95" s="141">
+        <v>94</v>
+      </c>
+      <c r="B95" s="142"/>
+      <c r="C95" s="144"/>
+      <c r="D95" s="144" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E95" s="144" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F95" s="146" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G95" s="143"/>
+      <c r="H95" s="144"/>
+      <c r="I95" s="144" t="s">
+        <v>1442</v>
+      </c>
+      <c r="J95" s="144" t="s">
+        <v>1443</v>
+      </c>
+      <c r="K95" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L95" s="143"/>
+      <c r="M95" s="143"/>
+      <c r="N95" s="143"/>
+    </row>
+    <row r="96" spans="1:14" ht="45">
+      <c r="A96" s="141">
+        <v>95</v>
+      </c>
+      <c r="B96" s="142"/>
+      <c r="C96" s="144"/>
+      <c r="D96" s="144" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E96" s="144" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F96" s="146" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G96" s="143"/>
+      <c r="H96" s="143"/>
+      <c r="I96" s="144" t="s">
+        <v>1446</v>
+      </c>
+      <c r="J96" s="144" t="s">
+        <v>1447</v>
+      </c>
+      <c r="K96" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L96" s="143"/>
+      <c r="M96" s="143"/>
+      <c r="N96" s="143"/>
+    </row>
+    <row r="97" spans="1:14" ht="45">
+      <c r="A97" s="141">
+        <v>96</v>
+      </c>
+      <c r="B97" s="142"/>
+      <c r="C97" s="144"/>
+      <c r="D97" s="144" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E97" s="144" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F97" s="146" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G97" s="143"/>
+      <c r="H97" s="143"/>
+      <c r="I97" s="144" t="s">
+        <v>1450</v>
+      </c>
+      <c r="J97" s="144" t="s">
+        <v>1451</v>
+      </c>
+      <c r="K97" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L97" s="143"/>
+      <c r="M97" s="143"/>
+      <c r="N97" s="143"/>
+    </row>
+    <row r="98" spans="1:14" ht="30">
+      <c r="A98" s="141">
+        <v>97</v>
+      </c>
+      <c r="B98" s="142"/>
+      <c r="C98" s="144"/>
+      <c r="D98" s="144" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E98" s="144" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F98" s="146" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G98" s="143"/>
+      <c r="H98" s="143"/>
+      <c r="I98" s="144" t="s">
+        <v>1454</v>
+      </c>
+      <c r="J98" s="144" t="s">
+        <v>1455</v>
+      </c>
+      <c r="K98" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L98" s="143"/>
+      <c r="M98" s="143"/>
+      <c r="N98" s="143"/>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="141">
+        <v>98</v>
+      </c>
+      <c r="B99" s="149"/>
+      <c r="C99" s="148"/>
+      <c r="D99" s="148" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E99" s="141" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F99" s="147" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G99" s="141"/>
+      <c r="H99" s="144"/>
+      <c r="I99" s="144" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J99" s="144" t="s">
+        <v>1351</v>
+      </c>
+      <c r="K99" s="144" t="s">
+        <v>3</v>
+      </c>
+      <c r="L99" s="143"/>
+      <c r="M99" s="143"/>
+      <c r="N99" s="143"/>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="141">
+        <v>99</v>
+      </c>
+      <c r="B100" s="149"/>
+      <c r="C100" s="148"/>
+      <c r="D100" s="148" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E100" s="141" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F100" s="147" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G100" s="141"/>
+      <c r="H100" s="143"/>
+      <c r="I100" s="144" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J100" s="144" t="s">
+        <v>1356</v>
+      </c>
+      <c r="K100" s="144" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="143"/>
+      <c r="M100" s="143"/>
+      <c r="N100" s="143"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -21576,20 +23569,20 @@
       <c r="B26" s="128"/>
       <c r="C26" s="129"/>
       <c r="D26" s="130" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E26" s="129"/>
       <c r="F26" s="112" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G26" s="131" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H26" s="122" t="s">
         <v>36</v>
       </c>
       <c r="I26" s="123" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="J26" s="24"/>
     </row>
@@ -21600,11 +23593,11 @@
       <c r="B27" s="128"/>
       <c r="C27" s="129"/>
       <c r="D27" s="130" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E27" s="129"/>
       <c r="F27" s="123" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G27" s="131" t="s">
         <v>39</v>
@@ -21613,7 +23606,7 @@
         <v>40</v>
       </c>
       <c r="I27" s="123" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="J27" s="24"/>
     </row>
@@ -21624,7 +23617,7 @@
       <c r="B28" s="128"/>
       <c r="C28" s="129"/>
       <c r="D28" s="130" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E28" s="129"/>
       <c r="F28" s="14" t="s">
@@ -21637,7 +23630,7 @@
         <v>43</v>
       </c>
       <c r="I28" s="123" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="J28" s="24" t="s">
         <v>38</v>
@@ -21650,7 +23643,7 @@
       <c r="B29" s="128"/>
       <c r="C29" s="132"/>
       <c r="D29" s="133" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E29" s="132"/>
       <c r="F29" s="112" t="s">
@@ -21660,10 +23653,10 @@
         <v>45</v>
       </c>
       <c r="H29" s="122" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="I29" s="123" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="J29" s="24" t="s">
         <v>38</v>
@@ -21676,7 +23669,7 @@
       <c r="B30" s="128"/>
       <c r="C30" s="132"/>
       <c r="D30" s="24" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E30" s="132"/>
       <c r="F30" s="14" t="s">
@@ -21689,7 +23682,7 @@
         <v>49</v>
       </c>
       <c r="I30" s="123" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="J30" s="24" t="s">
         <v>38</v>
@@ -21702,20 +23695,20 @@
       <c r="B31" s="128"/>
       <c r="C31" s="134"/>
       <c r="D31" s="24" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E31" s="132"/>
       <c r="F31" s="112" t="s">
         <v>611</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H31" s="124" t="s">
         <v>52</v>
       </c>
       <c r="I31" s="123" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="J31" s="24" t="s">
         <v>38</v>
@@ -21728,11 +23721,11 @@
       <c r="B32" s="128"/>
       <c r="C32" s="134"/>
       <c r="D32" s="24" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E32" s="132"/>
       <c r="F32" s="112" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>54</v>
@@ -21741,7 +23734,7 @@
         <v>55</v>
       </c>
       <c r="I32" s="123" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="J32" s="24" t="s">
         <v>38</v>
@@ -21754,7 +23747,7 @@
       <c r="B33" s="128"/>
       <c r="C33" s="134"/>
       <c r="D33" s="24" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E33" s="132"/>
       <c r="F33" s="112" t="s">
@@ -21767,7 +23760,7 @@
         <v>61</v>
       </c>
       <c r="I33" s="123" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="J33" s="24" t="s">
         <v>38</v>
@@ -21780,7 +23773,7 @@
       <c r="B34" s="128"/>
       <c r="C34" s="134"/>
       <c r="D34" s="24" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E34" s="132"/>
       <c r="F34" s="112" t="s">
@@ -21793,7 +23786,7 @@
         <v>1260</v>
       </c>
       <c r="I34" s="123" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="J34" s="24" t="s">
         <v>38</v>
@@ -21805,7 +23798,7 @@
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="135" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="124" t="s">
@@ -21818,7 +23811,7 @@
         <v>67</v>
       </c>
       <c r="I35" s="124" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="J35" s="24" t="s">
         <v>38</v>

--- a/instance/zyjk/CHC/rule/规则db.xlsx
+++ b/instance/zyjk/CHC/rule/规则db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/CHC/rule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7007179A-5BB4-6A42-ABB5-8090DB158FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F96192A-F7EE-F643-94FA-43F396E05C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="疾病身份证" sheetId="2" r:id="rId1"/>

--- a/instance/zyjk/CHC/rule/规则db.xlsx
+++ b/instance/zyjk/CHC/rule/规则db.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/CHC/rule/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\51\python\project\instance\zyjk\CHC\rule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F96192A-F7EE-F643-94FA-43F396E05C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="17496" tabRatio="730"/>
   </bookViews>
   <sheets>
     <sheet name="疾病身份证" sheetId="2" r:id="rId1"/>
@@ -3985,7 +3984,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
   </numFmts>
@@ -4904,6 +4903,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4923,7 +4990,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5172,28 +5239,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="22" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" style="13"/>
-    <col min="2" max="2" width="18.1640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" style="13" customWidth="1"/>
     <col min="6" max="6" width="11" style="13" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="13" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" style="13" customWidth="1"/>
     <col min="8" max="62" width="11" style="13" customWidth="1"/>
     <col min="63" max="16384" width="11" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22" customHeight="1">
+    <row r="1" spans="1:5" ht="22.05" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>765</v>
       </c>
@@ -5210,7 +5277,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22" customHeight="1">
+    <row r="2" spans="1:5" ht="22.05" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -5227,7 +5294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22" customHeight="1">
+    <row r="3" spans="1:5" ht="22.05" customHeight="1">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -5244,7 +5311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22" customHeight="1">
+    <row r="4" spans="1:5" ht="22.05" customHeight="1">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -5261,7 +5328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22" customHeight="1">
+    <row r="5" spans="1:5" ht="22.05" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -5278,7 +5345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22" customHeight="1">
+    <row r="6" spans="1:5" ht="22.05" customHeight="1">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -5295,7 +5362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22" customHeight="1">
+    <row r="7" spans="1:5" ht="22.05" customHeight="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -5312,7 +5379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="22" customHeight="1">
+    <row r="8" spans="1:5" ht="22.05" customHeight="1">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -5329,7 +5396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22" customHeight="1">
+    <row r="9" spans="1:5" ht="22.05" customHeight="1">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -5346,7 +5413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="22" customHeight="1">
+    <row r="10" spans="1:5" ht="22.05" customHeight="1">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -5363,7 +5430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22" customHeight="1">
+    <row r="11" spans="1:5" ht="22.05" customHeight="1">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -5380,7 +5447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="22" customHeight="1">
+    <row r="12" spans="1:5" ht="22.05" customHeight="1">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -5397,7 +5464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="22" customHeight="1">
+    <row r="13" spans="1:5" ht="22.05" customHeight="1">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -5414,7 +5481,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="22" customHeight="1">
+    <row r="14" spans="1:5" ht="22.05" customHeight="1">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -5431,7 +5498,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="22" customHeight="1">
+    <row r="15" spans="1:5" ht="22.05" customHeight="1">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -5448,7 +5515,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="22" customHeight="1">
+    <row r="16" spans="1:5" ht="22.05" customHeight="1">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -5465,7 +5532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="22" customHeight="1">
+    <row r="17" spans="1:5" ht="22.05" customHeight="1">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -5482,7 +5549,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="22" customHeight="1">
+    <row r="18" spans="1:5" ht="22.05" customHeight="1">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -5499,7 +5566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="22" customHeight="1">
+    <row r="19" spans="1:5" ht="22.05" customHeight="1">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -5516,7 +5583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="22" customHeight="1">
+    <row r="20" spans="1:5" ht="22.05" customHeight="1">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -5533,7 +5600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="22" customHeight="1">
+    <row r="21" spans="1:5" ht="22.05" customHeight="1">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -5550,7 +5617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="22" customHeight="1">
+    <row r="22" spans="1:5" ht="22.05" customHeight="1">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -5567,7 +5634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="22" customHeight="1">
+    <row r="23" spans="1:5" ht="22.05" customHeight="1">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -5591,21 +5658,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B2C0DA-DE53-FF4A-B6CA-AA567DFF5C70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="150" workbookViewId="0">
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="99.83203125" style="81" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="83"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="99.81640625" style="81" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17">
+    <row r="1" spans="1:5">
       <c r="A1" s="35" t="s">
         <v>765</v>
       </c>
@@ -5741,7 +5808,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28">
+    <row r="9" spans="1:5" ht="26.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5894,7 +5961,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28">
+    <row r="18" spans="1:5" ht="26.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6064,7 +6131,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28">
+    <row r="28" spans="1:5" ht="26.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6166,7 +6233,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28">
+    <row r="34" spans="1:5" ht="26.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6353,7 +6420,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="28">
+    <row r="45" spans="1:5" ht="26.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6455,7 +6522,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="28">
+    <row r="51" spans="1:5" ht="26.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6472,7 +6539,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="28">
+    <row r="52" spans="1:5" ht="26.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6591,7 +6658,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="28">
+    <row r="59" spans="1:5" ht="26.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6795,7 +6862,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="28">
+    <row r="71" spans="1:5" ht="26.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6999,7 +7066,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28">
+    <row r="83" spans="1:5" ht="26.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7033,7 +7100,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="28">
+    <row r="85" spans="1:5" ht="26.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7305,7 +7372,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="28">
+    <row r="101" spans="1:5" ht="26.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7407,7 +7474,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="17">
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7424,7 +7491,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="17">
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7441,7 +7508,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="17">
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7458,7 +7525,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="51">
+    <row r="110" spans="1:5" ht="46.8">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7475,7 +7542,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="17">
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7492,7 +7559,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="17">
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7509,7 +7576,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="17">
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7526,7 +7593,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="17">
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7543,7 +7610,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="17">
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7560,7 +7627,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="17">
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7577,7 +7644,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="34">
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7594,7 +7661,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="51">
+    <row r="118" spans="1:5" ht="46.8">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7611,7 +7678,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="17">
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7628,7 +7695,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="17">
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7645,7 +7712,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="34">
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7662,7 +7729,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="51">
+    <row r="122" spans="1:5" ht="46.8">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7679,7 +7746,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="17">
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7696,7 +7763,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="17">
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7713,7 +7780,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="34">
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7730,7 +7797,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="51">
+    <row r="126" spans="1:5" ht="46.8">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7747,7 +7814,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="17">
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7764,7 +7831,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="17">
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7781,7 +7848,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="34">
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7798,7 +7865,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="51">
+    <row r="130" spans="1:5" ht="46.8">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7815,7 +7882,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="17">
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7832,7 +7899,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="17">
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7849,7 +7916,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="34">
+    <row r="133" spans="1:5">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7866,7 +7933,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="51">
+    <row r="134" spans="1:5" ht="46.8">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7883,7 +7950,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="17">
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7900,7 +7967,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="17">
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7917,7 +7984,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="34">
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7934,7 +8001,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="51">
+    <row r="138" spans="1:5" ht="46.8">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7951,7 +8018,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="17">
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7968,7 +8035,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="17">
+    <row r="140" spans="1:5">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7985,7 +8052,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="34">
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>140</v>
       </c>
@@ -8002,7 +8069,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="51">
+    <row r="142" spans="1:5" ht="46.8">
       <c r="A142">
         <v>141</v>
       </c>
@@ -8019,7 +8086,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="34">
+    <row r="143" spans="1:5" ht="31.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -8036,7 +8103,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="17">
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>143</v>
       </c>
@@ -8053,7 +8120,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="34">
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>144</v>
       </c>
@@ -8070,7 +8137,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="17">
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>145</v>
       </c>
@@ -8087,7 +8154,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="51">
+    <row r="147" spans="1:5" ht="31.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -8104,7 +8171,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="17">
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>147</v>
       </c>
@@ -8121,7 +8188,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="34">
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>148</v>
       </c>
@@ -8138,7 +8205,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="17">
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>149</v>
       </c>
@@ -8155,7 +8222,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="17">
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8172,7 +8239,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="17">
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>151</v>
       </c>
@@ -8189,7 +8256,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="17">
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8206,7 +8273,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="51">
+    <row r="154" spans="1:5" ht="46.8">
       <c r="A154">
         <v>153</v>
       </c>
@@ -8223,7 +8290,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="17">
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8240,7 +8307,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="17">
+    <row r="156" spans="1:5">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8257,7 +8324,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="17">
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8274,7 +8341,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="17">
+    <row r="158" spans="1:5">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8291,7 +8358,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="17">
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8308,7 +8375,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="17">
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8325,7 +8392,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="17">
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8342,7 +8409,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="34">
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8359,7 +8426,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="51">
+    <row r="163" spans="1:5" ht="46.8">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8376,7 +8443,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="17">
+    <row r="164" spans="1:5">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8393,7 +8460,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="17">
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8410,7 +8477,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="34">
+    <row r="166" spans="1:5">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8427,7 +8494,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="51">
+    <row r="167" spans="1:5" ht="46.8">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8444,7 +8511,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="17">
+    <row r="168" spans="1:5">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8461,7 +8528,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="17">
+    <row r="169" spans="1:5">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8478,7 +8545,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="34">
+    <row r="170" spans="1:5">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8495,7 +8562,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="51">
+    <row r="171" spans="1:5" ht="46.8">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8512,7 +8579,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="17">
+    <row r="172" spans="1:5">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8529,7 +8596,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="17">
+    <row r="173" spans="1:5">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8546,7 +8613,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="34">
+    <row r="174" spans="1:5">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8563,7 +8630,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="51">
+    <row r="175" spans="1:5" ht="46.8">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8580,7 +8647,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="17">
+    <row r="176" spans="1:5">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8597,7 +8664,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="17">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8614,7 +8681,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="34">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8631,7 +8698,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="51">
+    <row r="179" spans="1:5" ht="46.8">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8648,7 +8715,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="17">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8665,7 +8732,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="17">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8682,7 +8749,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="34">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8699,7 +8766,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="51">
+    <row r="183" spans="1:5" ht="46.8">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8716,7 +8783,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="51">
+    <row r="184" spans="1:5" ht="31.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8733,7 +8800,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="17">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8750,7 +8817,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="34">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8767,7 +8834,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="17">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8784,7 +8851,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="51">
+    <row r="188" spans="1:5" ht="46.8">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8801,7 +8868,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="17">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8818,7 +8885,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="34">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8835,7 +8902,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="17">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8852,7 +8919,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="51">
+    <row r="192" spans="1:5" ht="46.8">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8869,7 +8936,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="17">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8886,7 +8953,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="34">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8903,7 +8970,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="17">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8920,7 +8987,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="51">
+    <row r="196" spans="1:5" ht="31.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8937,7 +9004,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="17">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8954,7 +9021,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="34">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8971,7 +9038,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="17">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8988,7 +9055,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="34">
+    <row r="200" spans="1:5" ht="31.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9005,7 +9072,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="17">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9022,7 +9089,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="34">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9039,7 +9106,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="17">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9056,7 +9123,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="17">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9073,7 +9140,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="17">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9090,7 +9157,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="17">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>205</v>
       </c>
@@ -9107,7 +9174,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="34">
+    <row r="207" spans="1:5" ht="31.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -9124,7 +9191,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="17">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>207</v>
       </c>
@@ -9141,7 +9208,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="17">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9158,7 +9225,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="17">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>209</v>
       </c>
@@ -9175,7 +9242,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="17">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9192,7 +9259,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="17">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9209,7 +9276,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="51">
+    <row r="213" spans="1:5" ht="31.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9226,7 +9293,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="17">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>213</v>
       </c>
@@ -9243,7 +9310,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="34">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>214</v>
       </c>
@@ -9260,7 +9327,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="51">
+    <row r="216" spans="1:5" ht="31.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -9277,7 +9344,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="17">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>216</v>
       </c>
@@ -9294,7 +9361,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="34">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>217</v>
       </c>
@@ -9311,7 +9378,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="51">
+    <row r="219" spans="1:5" ht="31.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -9328,7 +9395,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="17">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>219</v>
       </c>
@@ -9345,7 +9412,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="34">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>220</v>
       </c>
@@ -9362,7 +9429,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="17">
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>221</v>
       </c>
@@ -9379,7 +9446,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="17">
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>222</v>
       </c>
@@ -9396,7 +9463,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="17">
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>223</v>
       </c>
@@ -9413,7 +9480,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="17">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>224</v>
       </c>
@@ -9430,7 +9497,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="34">
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>225</v>
       </c>
@@ -9447,7 +9514,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="34">
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>226</v>
       </c>
@@ -9464,7 +9531,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="34">
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9481,7 +9548,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="34">
+    <row r="229" spans="1:5" ht="31.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9498,7 +9565,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="51">
+    <row r="230" spans="1:5" ht="31.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9515,7 +9582,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="17">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9532,7 +9599,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="34">
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>231</v>
       </c>
@@ -9549,7 +9616,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="34">
+    <row r="233" spans="1:5" ht="31.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -9566,7 +9633,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="17">
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>233</v>
       </c>
@@ -9583,7 +9650,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="17">
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>234</v>
       </c>
@@ -9600,7 +9667,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="17">
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>235</v>
       </c>
@@ -9617,7 +9684,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="17">
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>236</v>
       </c>
@@ -9634,7 +9701,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="34">
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>237</v>
       </c>
@@ -9651,7 +9718,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="17">
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>238</v>
       </c>
@@ -9668,7 +9735,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="17">
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>239</v>
       </c>
@@ -9685,7 +9752,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="34">
+    <row r="241" spans="1:5" ht="31.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -9702,7 +9769,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="51">
+    <row r="242" spans="1:5" ht="31.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -9719,7 +9786,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="17">
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>242</v>
       </c>
@@ -9736,7 +9803,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="34">
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>243</v>
       </c>
@@ -9753,7 +9820,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="17">
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>244</v>
       </c>
@@ -9770,7 +9837,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="17">
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>245</v>
       </c>
@@ -9787,7 +9854,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="17">
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>246</v>
       </c>
@@ -9804,7 +9871,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="17">
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>247</v>
       </c>
@@ -9821,7 +9888,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="34">
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>248</v>
       </c>
@@ -9838,7 +9905,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="17">
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>249</v>
       </c>
@@ -9855,7 +9922,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="17">
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>250</v>
       </c>
@@ -9872,7 +9939,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="17">
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>251</v>
       </c>
@@ -9889,7 +9956,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="17">
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>252</v>
       </c>
@@ -9906,7 +9973,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="17">
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>253</v>
       </c>
@@ -9923,7 +9990,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="51">
+    <row r="255" spans="1:5" ht="31.2">
       <c r="A255">
         <v>254</v>
       </c>
@@ -9940,7 +10007,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="17">
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>255</v>
       </c>
@@ -9957,7 +10024,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="34">
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>256</v>
       </c>
@@ -9974,7 +10041,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="17">
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>257</v>
       </c>
@@ -9991,7 +10058,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="51">
+    <row r="259" spans="1:5" ht="31.2">
       <c r="A259">
         <v>258</v>
       </c>
@@ -10008,7 +10075,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="17">
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>259</v>
       </c>
@@ -10025,7 +10092,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="34">
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>260</v>
       </c>
@@ -10042,7 +10109,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="17">
+    <row r="262" spans="1:5">
       <c r="A262">
         <v>261</v>
       </c>
@@ -10059,7 +10126,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="34">
+    <row r="263" spans="1:5" ht="31.2">
       <c r="A263">
         <v>262</v>
       </c>
@@ -10076,7 +10143,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="17">
+    <row r="264" spans="1:5">
       <c r="A264">
         <v>263</v>
       </c>
@@ -10093,7 +10160,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="34">
+    <row r="265" spans="1:5">
       <c r="A265">
         <v>264</v>
       </c>
@@ -10110,7 +10177,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="17">
+    <row r="266" spans="1:5">
       <c r="A266">
         <v>265</v>
       </c>
@@ -10127,7 +10194,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="34">
+    <row r="267" spans="1:5" ht="31.2">
       <c r="A267">
         <v>266</v>
       </c>
@@ -10144,7 +10211,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="17">
+    <row r="268" spans="1:5">
       <c r="A268">
         <v>267</v>
       </c>
@@ -10161,7 +10228,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="34">
+    <row r="269" spans="1:5">
       <c r="A269">
         <v>268</v>
       </c>
@@ -10178,7 +10245,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="17">
+    <row r="270" spans="1:5">
       <c r="A270">
         <v>269</v>
       </c>
@@ -10195,7 +10262,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="17">
+    <row r="271" spans="1:5">
       <c r="A271">
         <v>270</v>
       </c>
@@ -10212,7 +10279,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="17">
+    <row r="272" spans="1:5">
       <c r="A272">
         <v>271</v>
       </c>
@@ -10229,7 +10296,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="34">
+    <row r="273" spans="1:5">
       <c r="A273">
         <v>272</v>
       </c>
@@ -10246,7 +10313,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="34">
+    <row r="274" spans="1:5">
       <c r="A274">
         <v>273</v>
       </c>
@@ -10263,7 +10330,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="17">
+    <row r="275" spans="1:5">
       <c r="A275">
         <v>274</v>
       </c>
@@ -10280,7 +10347,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="17">
+    <row r="276" spans="1:5">
       <c r="A276">
         <v>275</v>
       </c>
@@ -10297,7 +10364,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="34">
+    <row r="277" spans="1:5">
       <c r="A277">
         <v>276</v>
       </c>
@@ -10314,7 +10381,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="34">
+    <row r="278" spans="1:5">
       <c r="A278">
         <v>277</v>
       </c>
@@ -10331,7 +10398,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="17">
+    <row r="279" spans="1:5">
       <c r="A279">
         <v>278</v>
       </c>
@@ -10348,7 +10415,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="17">
+    <row r="280" spans="1:5">
       <c r="A280">
         <v>279</v>
       </c>
@@ -10365,7 +10432,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="34">
+    <row r="281" spans="1:5">
       <c r="A281">
         <v>280</v>
       </c>
@@ -10382,7 +10449,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="34">
+    <row r="282" spans="1:5">
       <c r="A282">
         <v>281</v>
       </c>
@@ -10399,7 +10466,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="17">
+    <row r="283" spans="1:5">
       <c r="A283">
         <v>282</v>
       </c>
@@ -10416,7 +10483,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="17">
+    <row r="284" spans="1:5">
       <c r="A284">
         <v>283</v>
       </c>
@@ -10433,7 +10500,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="34">
+    <row r="285" spans="1:5">
       <c r="A285">
         <v>284</v>
       </c>
@@ -10450,7 +10517,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="34">
+    <row r="286" spans="1:5">
       <c r="A286">
         <v>285</v>
       </c>
@@ -10467,7 +10534,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="51">
+    <row r="287" spans="1:5" ht="46.8">
       <c r="A287">
         <v>286</v>
       </c>
@@ -10484,7 +10551,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="17">
+    <row r="288" spans="1:5">
       <c r="A288">
         <v>287</v>
       </c>
@@ -10501,7 +10568,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="34">
+    <row r="289" spans="1:5">
       <c r="A289">
         <v>288</v>
       </c>
@@ -10518,7 +10585,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="17">
+    <row r="290" spans="1:5">
       <c r="A290">
         <v>289</v>
       </c>
@@ -10535,7 +10602,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="17">
+    <row r="291" spans="1:5">
       <c r="A291">
         <v>290</v>
       </c>
@@ -10552,7 +10619,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="17">
+    <row r="292" spans="1:5">
       <c r="A292">
         <v>291</v>
       </c>
@@ -10569,7 +10636,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="17">
+    <row r="293" spans="1:5">
       <c r="A293">
         <v>292</v>
       </c>
@@ -10586,7 +10653,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="34">
+    <row r="294" spans="1:5">
       <c r="A294">
         <v>293</v>
       </c>
@@ -10603,7 +10670,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="17">
+    <row r="295" spans="1:5">
       <c r="A295">
         <v>294</v>
       </c>
@@ -10620,7 +10687,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="17">
+    <row r="296" spans="1:5">
       <c r="A296">
         <v>295</v>
       </c>
@@ -10637,7 +10704,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="17">
+    <row r="297" spans="1:5">
       <c r="A297">
         <v>296</v>
       </c>
@@ -10654,7 +10721,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="17">
+    <row r="298" spans="1:5">
       <c r="A298">
         <v>297</v>
       </c>
@@ -10671,7 +10738,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="17">
+    <row r="299" spans="1:5">
       <c r="A299">
         <v>298</v>
       </c>
@@ -10688,7 +10755,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="17">
+    <row r="300" spans="1:5">
       <c r="A300">
         <v>299</v>
       </c>
@@ -10705,7 +10772,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="34">
+    <row r="301" spans="1:5">
       <c r="A301">
         <v>300</v>
       </c>
@@ -10722,7 +10789,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="34">
+    <row r="302" spans="1:5">
       <c r="A302">
         <v>301</v>
       </c>
@@ -10739,7 +10806,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="17">
+    <row r="303" spans="1:5">
       <c r="A303">
         <v>302</v>
       </c>
@@ -10756,7 +10823,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="17">
+    <row r="304" spans="1:5">
       <c r="A304">
         <v>303</v>
       </c>
@@ -10773,7 +10840,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="34">
+    <row r="305" spans="1:5">
       <c r="A305">
         <v>304</v>
       </c>
@@ -10790,7 +10857,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="34">
+    <row r="306" spans="1:5">
       <c r="A306">
         <v>305</v>
       </c>
@@ -10807,7 +10874,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="17">
+    <row r="307" spans="1:5">
       <c r="A307">
         <v>306</v>
       </c>
@@ -10824,7 +10891,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="17">
+    <row r="308" spans="1:5">
       <c r="A308">
         <v>307</v>
       </c>
@@ -10841,7 +10908,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="34">
+    <row r="309" spans="1:5">
       <c r="A309">
         <v>308</v>
       </c>
@@ -10858,7 +10925,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="34">
+    <row r="310" spans="1:5">
       <c r="A310">
         <v>309</v>
       </c>
@@ -10875,7 +10942,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="51">
+    <row r="311" spans="1:5" ht="31.2">
       <c r="A311">
         <v>310</v>
       </c>
@@ -10892,7 +10959,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="17">
+    <row r="312" spans="1:5">
       <c r="A312">
         <v>311</v>
       </c>
@@ -10909,7 +10976,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="34">
+    <row r="313" spans="1:5">
       <c r="A313">
         <v>312</v>
       </c>
@@ -10926,7 +10993,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="17">
+    <row r="314" spans="1:5">
       <c r="A314">
         <v>313</v>
       </c>
@@ -10943,7 +11010,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="51">
+    <row r="315" spans="1:5" ht="31.2">
       <c r="A315">
         <v>314</v>
       </c>
@@ -10960,7 +11027,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="17">
+    <row r="316" spans="1:5">
       <c r="A316">
         <v>315</v>
       </c>
@@ -10977,7 +11044,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="34">
+    <row r="317" spans="1:5">
       <c r="A317">
         <v>316</v>
       </c>
@@ -10994,7 +11061,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="17">
+    <row r="318" spans="1:5">
       <c r="A318">
         <v>317</v>
       </c>
@@ -11011,7 +11078,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="51">
+    <row r="319" spans="1:5" ht="31.2">
       <c r="A319">
         <v>318</v>
       </c>
@@ -11028,7 +11095,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="17">
+    <row r="320" spans="1:5">
       <c r="A320">
         <v>319</v>
       </c>
@@ -11045,7 +11112,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="34">
+    <row r="321" spans="1:5">
       <c r="A321">
         <v>320</v>
       </c>
@@ -11062,7 +11129,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="17">
+    <row r="322" spans="1:5">
       <c r="A322">
         <v>321</v>
       </c>
@@ -11079,7 +11146,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="17">
+    <row r="323" spans="1:5">
       <c r="A323">
         <v>322</v>
       </c>
@@ -11096,7 +11163,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="17">
+    <row r="324" spans="1:5">
       <c r="A324">
         <v>323</v>
       </c>
@@ -11113,7 +11180,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="17">
+    <row r="325" spans="1:5">
       <c r="A325">
         <v>324</v>
       </c>
@@ -11130,7 +11197,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="17">
+    <row r="326" spans="1:5">
       <c r="A326">
         <v>325</v>
       </c>
@@ -11147,7 +11214,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="17">
+    <row r="327" spans="1:5">
       <c r="A327">
         <v>326</v>
       </c>
@@ -11164,7 +11231,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="17">
+    <row r="328" spans="1:5">
       <c r="A328">
         <v>327</v>
       </c>
@@ -11181,7 +11248,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="17">
+    <row r="329" spans="1:5">
       <c r="A329">
         <v>328</v>
       </c>
@@ -11198,7 +11265,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="51">
+    <row r="330" spans="1:5" ht="31.2">
       <c r="A330">
         <v>329</v>
       </c>
@@ -11215,7 +11282,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="17">
+    <row r="331" spans="1:5">
       <c r="A331">
         <v>330</v>
       </c>
@@ -11232,7 +11299,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="34">
+    <row r="332" spans="1:5">
       <c r="A332">
         <v>331</v>
       </c>
@@ -11249,7 +11316,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="17">
+    <row r="333" spans="1:5">
       <c r="A333">
         <v>332</v>
       </c>
@@ -11266,7 +11333,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="51">
+    <row r="334" spans="1:5" ht="31.2">
       <c r="A334">
         <v>333</v>
       </c>
@@ -11283,7 +11350,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="17">
+    <row r="335" spans="1:5">
       <c r="A335">
         <v>334</v>
       </c>
@@ -11300,7 +11367,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="34">
+    <row r="336" spans="1:5">
       <c r="A336">
         <v>335</v>
       </c>
@@ -11317,7 +11384,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="17">
+    <row r="337" spans="1:5">
       <c r="A337">
         <v>336</v>
       </c>
@@ -11334,7 +11401,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="51">
+    <row r="338" spans="1:5" ht="46.8">
       <c r="A338">
         <v>337</v>
       </c>
@@ -11351,7 +11418,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="17">
+    <row r="339" spans="1:5">
       <c r="A339">
         <v>338</v>
       </c>
@@ -11368,7 +11435,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="34">
+    <row r="340" spans="1:5">
       <c r="A340">
         <v>339</v>
       </c>
@@ -11385,7 +11452,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="17">
+    <row r="341" spans="1:5">
       <c r="A341">
         <v>340</v>
       </c>
@@ -11402,7 +11469,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="17">
+    <row r="342" spans="1:5">
       <c r="A342">
         <v>341</v>
       </c>
@@ -11419,7 +11486,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="17">
+    <row r="343" spans="1:5">
       <c r="A343">
         <v>342</v>
       </c>
@@ -11436,7 +11503,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="34">
+    <row r="344" spans="1:5">
       <c r="A344">
         <v>343</v>
       </c>
@@ -11453,7 +11520,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="17">
+    <row r="345" spans="1:5">
       <c r="A345">
         <v>344</v>
       </c>
@@ -11470,7 +11537,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="17">
+    <row r="346" spans="1:5">
       <c r="A346">
         <v>345</v>
       </c>
@@ -11487,7 +11554,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="17">
+    <row r="347" spans="1:5">
       <c r="A347">
         <v>346</v>
       </c>
@@ -11504,7 +11571,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="34">
+    <row r="348" spans="1:5">
       <c r="A348">
         <v>347</v>
       </c>
@@ -11521,7 +11588,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="17">
+    <row r="349" spans="1:5">
       <c r="A349">
         <v>348</v>
       </c>
@@ -11538,7 +11605,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="17">
+    <row r="350" spans="1:5">
       <c r="A350">
         <v>349</v>
       </c>
@@ -11555,7 +11622,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="17">
+    <row r="351" spans="1:5">
       <c r="A351">
         <v>350</v>
       </c>
@@ -11572,7 +11639,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="17">
+    <row r="352" spans="1:5">
       <c r="A352">
         <v>351</v>
       </c>
@@ -11589,7 +11656,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="17">
+    <row r="353" spans="1:5">
       <c r="A353">
         <v>352</v>
       </c>
@@ -11606,7 +11673,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="17">
+    <row r="354" spans="1:5">
       <c r="A354">
         <v>353</v>
       </c>
@@ -11623,7 +11690,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="17">
+    <row r="355" spans="1:5">
       <c r="A355">
         <v>354</v>
       </c>
@@ -11640,7 +11707,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="17">
+    <row r="356" spans="1:5">
       <c r="A356">
         <v>355</v>
       </c>
@@ -11657,7 +11724,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="51">
+    <row r="357" spans="1:5" ht="31.2">
       <c r="A357">
         <v>356</v>
       </c>
@@ -11674,7 +11741,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="17">
+    <row r="358" spans="1:5">
       <c r="A358">
         <v>357</v>
       </c>
@@ -11691,7 +11758,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="34">
+    <row r="359" spans="1:5">
       <c r="A359">
         <v>358</v>
       </c>
@@ -11708,7 +11775,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="17">
+    <row r="360" spans="1:5">
       <c r="A360">
         <v>359</v>
       </c>
@@ -11725,7 +11792,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="17">
+    <row r="361" spans="1:5">
       <c r="A361">
         <v>360</v>
       </c>
@@ -11742,7 +11809,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="17">
+    <row r="362" spans="1:5">
       <c r="A362">
         <v>361</v>
       </c>
@@ -11759,7 +11826,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="17">
+    <row r="363" spans="1:5">
       <c r="A363">
         <v>362</v>
       </c>
@@ -11776,7 +11843,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="17">
+    <row r="364" spans="1:5">
       <c r="A364">
         <v>363</v>
       </c>
@@ -11793,7 +11860,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="17">
+    <row r="365" spans="1:5">
       <c r="A365">
         <v>364</v>
       </c>
@@ -11810,7 +11877,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="17">
+    <row r="366" spans="1:5">
       <c r="A366">
         <v>365</v>
       </c>
@@ -11827,7 +11894,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="51">
+    <row r="367" spans="1:5" ht="31.2">
       <c r="A367">
         <v>366</v>
       </c>
@@ -11844,7 +11911,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="17">
+    <row r="368" spans="1:5">
       <c r="A368">
         <v>367</v>
       </c>
@@ -11861,7 +11928,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="34">
+    <row r="369" spans="1:5">
       <c r="A369">
         <v>368</v>
       </c>
@@ -11878,7 +11945,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="17">
+    <row r="370" spans="1:5">
       <c r="A370">
         <v>369</v>
       </c>
@@ -11895,7 +11962,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="51">
+    <row r="371" spans="1:5" ht="31.2">
       <c r="A371">
         <v>370</v>
       </c>
@@ -11912,7 +11979,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="17">
+    <row r="372" spans="1:5">
       <c r="A372">
         <v>371</v>
       </c>
@@ -11929,7 +11996,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="34">
+    <row r="373" spans="1:5">
       <c r="A373">
         <v>372</v>
       </c>
@@ -11946,7 +12013,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="17">
+    <row r="374" spans="1:5">
       <c r="A374">
         <v>373</v>
       </c>
@@ -11963,7 +12030,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="51">
+    <row r="375" spans="1:5" ht="31.2">
       <c r="A375">
         <v>374</v>
       </c>
@@ -11980,7 +12047,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="17">
+    <row r="376" spans="1:5">
       <c r="A376">
         <v>375</v>
       </c>
@@ -11997,7 +12064,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="34">
+    <row r="377" spans="1:5">
       <c r="A377">
         <v>376</v>
       </c>
@@ -12014,7 +12081,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="17">
+    <row r="378" spans="1:5">
       <c r="A378">
         <v>377</v>
       </c>
@@ -12031,7 +12098,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="51">
+    <row r="379" spans="1:5" ht="31.2">
       <c r="A379">
         <v>378</v>
       </c>
@@ -12048,7 +12115,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="17">
+    <row r="380" spans="1:5">
       <c r="A380">
         <v>379</v>
       </c>
@@ -12065,7 +12132,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="34">
+    <row r="381" spans="1:5">
       <c r="A381">
         <v>380</v>
       </c>
@@ -12082,7 +12149,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="17">
+    <row r="382" spans="1:5">
       <c r="A382">
         <v>381</v>
       </c>
@@ -12099,7 +12166,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="51">
+    <row r="383" spans="1:5" ht="31.2">
       <c r="A383">
         <v>382</v>
       </c>
@@ -12116,7 +12183,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="17">
+    <row r="384" spans="1:5">
       <c r="A384">
         <v>383</v>
       </c>
@@ -12133,7 +12200,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="34">
+    <row r="385" spans="1:5">
       <c r="A385">
         <v>384</v>
       </c>
@@ -12150,7 +12217,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="17">
+    <row r="386" spans="1:5">
       <c r="A386">
         <v>385</v>
       </c>
@@ -12167,7 +12234,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="17">
+    <row r="387" spans="1:5">
       <c r="A387">
         <v>386</v>
       </c>
@@ -12184,7 +12251,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="17">
+    <row r="388" spans="1:5">
       <c r="A388">
         <v>387</v>
       </c>
@@ -12201,7 +12268,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="17">
+    <row r="389" spans="1:5">
       <c r="A389">
         <v>388</v>
       </c>
@@ -12218,7 +12285,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="17">
+    <row r="390" spans="1:5">
       <c r="A390">
         <v>389</v>
       </c>
@@ -12235,7 +12302,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="17">
+    <row r="391" spans="1:5">
       <c r="A391">
         <v>390</v>
       </c>
@@ -12252,7 +12319,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="17">
+    <row r="392" spans="1:5">
       <c r="A392">
         <v>391</v>
       </c>
@@ -12269,7 +12336,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="17">
+    <row r="393" spans="1:5">
       <c r="A393">
         <v>392</v>
       </c>
@@ -12286,7 +12353,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="51">
+    <row r="394" spans="1:5" ht="31.2">
       <c r="A394">
         <v>393</v>
       </c>
@@ -12303,7 +12370,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="17">
+    <row r="395" spans="1:5">
       <c r="A395">
         <v>394</v>
       </c>
@@ -12320,7 +12387,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="34">
+    <row r="396" spans="1:5">
       <c r="A396">
         <v>395</v>
       </c>
@@ -12337,7 +12404,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="17">
+    <row r="397" spans="1:5">
       <c r="A397">
         <v>396</v>
       </c>
@@ -12354,7 +12421,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="51">
+    <row r="398" spans="1:5" ht="31.2">
       <c r="A398">
         <v>397</v>
       </c>
@@ -12371,7 +12438,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="17">
+    <row r="399" spans="1:5">
       <c r="A399">
         <v>398</v>
       </c>
@@ -12388,7 +12455,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="34">
+    <row r="400" spans="1:5">
       <c r="A400">
         <v>399</v>
       </c>
@@ -12405,7 +12472,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="17">
+    <row r="401" spans="1:5">
       <c r="A401">
         <v>400</v>
       </c>
@@ -12422,7 +12489,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="51">
+    <row r="402" spans="1:5" ht="46.8">
       <c r="A402">
         <v>401</v>
       </c>
@@ -12439,7 +12506,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="17">
+    <row r="403" spans="1:5">
       <c r="A403">
         <v>402</v>
       </c>
@@ -12456,7 +12523,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="34">
+    <row r="404" spans="1:5">
       <c r="A404">
         <v>403</v>
       </c>
@@ -12473,7 +12540,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="17">
+    <row r="405" spans="1:5">
       <c r="A405">
         <v>404</v>
       </c>
@@ -12490,7 +12557,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="51">
+    <row r="406" spans="1:5" ht="46.8">
       <c r="A406">
         <v>405</v>
       </c>
@@ -12507,7 +12574,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="17">
+    <row r="407" spans="1:5">
       <c r="A407">
         <v>406</v>
       </c>
@@ -12524,7 +12591,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="34">
+    <row r="408" spans="1:5">
       <c r="A408">
         <v>407</v>
       </c>
@@ -12541,7 +12608,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="17">
+    <row r="409" spans="1:5">
       <c r="A409">
         <v>408</v>
       </c>
@@ -12558,7 +12625,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="17">
+    <row r="410" spans="1:5">
       <c r="A410">
         <v>409</v>
       </c>
@@ -12575,7 +12642,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="17">
+    <row r="411" spans="1:5">
       <c r="A411">
         <v>410</v>
       </c>
@@ -12592,7 +12659,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="34">
+    <row r="412" spans="1:5">
       <c r="A412">
         <v>411</v>
       </c>
@@ -12609,7 +12676,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="17">
+    <row r="413" spans="1:5">
       <c r="A413">
         <v>412</v>
       </c>
@@ -12626,7 +12693,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="17">
+    <row r="414" spans="1:5">
       <c r="A414">
         <v>413</v>
       </c>
@@ -12643,7 +12710,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="17">
+    <row r="415" spans="1:5">
       <c r="A415">
         <v>414</v>
       </c>
@@ -12660,7 +12727,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="17">
+    <row r="416" spans="1:5">
       <c r="A416">
         <v>415</v>
       </c>
@@ -12677,7 +12744,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="17">
+    <row r="417" spans="1:5">
       <c r="A417">
         <v>416</v>
       </c>
@@ -12694,7 +12761,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="17">
+    <row r="418" spans="1:5">
       <c r="A418">
         <v>417</v>
       </c>
@@ -12711,7 +12778,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="17">
+    <row r="419" spans="1:5">
       <c r="A419">
         <v>418</v>
       </c>
@@ -12728,7 +12795,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="51">
+    <row r="420" spans="1:5" ht="31.2">
       <c r="A420">
         <v>419</v>
       </c>
@@ -12745,7 +12812,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="17">
+    <row r="421" spans="1:5">
       <c r="A421">
         <v>420</v>
       </c>
@@ -12762,7 +12829,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="34">
+    <row r="422" spans="1:5">
       <c r="A422">
         <v>421</v>
       </c>
@@ -12779,7 +12846,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="17">
+    <row r="423" spans="1:5">
       <c r="A423">
         <v>422</v>
       </c>
@@ -12796,7 +12863,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="51">
+    <row r="424" spans="1:5" ht="31.2">
       <c r="A424">
         <v>423</v>
       </c>
@@ -12813,7 +12880,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="17">
+    <row r="425" spans="1:5">
       <c r="A425">
         <v>424</v>
       </c>
@@ -12830,7 +12897,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="34">
+    <row r="426" spans="1:5">
       <c r="A426">
         <v>425</v>
       </c>
@@ -12847,7 +12914,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="17">
+    <row r="427" spans="1:5">
       <c r="A427">
         <v>426</v>
       </c>
@@ -12864,7 +12931,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="17">
+    <row r="428" spans="1:5">
       <c r="A428">
         <v>427</v>
       </c>
@@ -12881,7 +12948,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="17">
+    <row r="429" spans="1:5">
       <c r="A429">
         <v>428</v>
       </c>
@@ -12898,7 +12965,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="51">
+    <row r="430" spans="1:5" ht="46.8">
       <c r="A430">
         <v>429</v>
       </c>
@@ -12915,7 +12982,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="17">
+    <row r="431" spans="1:5">
       <c r="A431">
         <v>430</v>
       </c>
@@ -12932,7 +12999,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="17">
+    <row r="432" spans="1:5">
       <c r="A432">
         <v>431</v>
       </c>
@@ -12949,7 +13016,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="17">
+    <row r="433" spans="1:5">
       <c r="A433">
         <v>432</v>
       </c>
@@ -12966,7 +13033,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="17">
+    <row r="434" spans="1:5">
       <c r="A434">
         <v>443</v>
       </c>
@@ -12983,7 +13050,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="17">
+    <row r="435" spans="1:5">
       <c r="A435">
         <v>444</v>
       </c>
@@ -13000,7 +13067,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="17">
+    <row r="436" spans="1:5">
       <c r="A436">
         <v>445</v>
       </c>
@@ -13017,7 +13084,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="17">
+    <row r="437" spans="1:5">
       <c r="A437">
         <v>446</v>
       </c>
@@ -13034,7 +13101,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="17">
+    <row r="438" spans="1:5">
       <c r="A438">
         <v>447</v>
       </c>
@@ -13051,7 +13118,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="17">
+    <row r="439" spans="1:5">
       <c r="A439">
         <v>448</v>
       </c>
@@ -13068,7 +13135,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="17">
+    <row r="440" spans="1:5">
       <c r="A440">
         <v>449</v>
       </c>
@@ -13085,7 +13152,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="17">
+    <row r="441" spans="1:5">
       <c r="A441">
         <v>450</v>
       </c>
@@ -13102,7 +13169,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="17">
+    <row r="442" spans="1:5">
       <c r="A442">
         <v>451</v>
       </c>
@@ -13119,7 +13186,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="17">
+    <row r="443" spans="1:5">
       <c r="A443">
         <v>452</v>
       </c>
@@ -13136,7 +13203,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="34">
+    <row r="444" spans="1:5" ht="31.2">
       <c r="A444">
         <v>453</v>
       </c>
@@ -13153,7 +13220,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="17">
+    <row r="445" spans="1:5">
       <c r="A445">
         <v>454</v>
       </c>
@@ -13170,7 +13237,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="17">
+    <row r="446" spans="1:5">
       <c r="A446">
         <v>455</v>
       </c>
@@ -13187,7 +13254,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="17">
+    <row r="447" spans="1:5">
       <c r="A447">
         <v>456</v>
       </c>
@@ -13204,7 +13271,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="17">
+    <row r="448" spans="1:5">
       <c r="A448">
         <v>457</v>
       </c>
@@ -13221,7 +13288,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="17">
+    <row r="449" spans="1:5">
       <c r="A449">
         <v>458</v>
       </c>
@@ -13238,7 +13305,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="17">
+    <row r="450" spans="1:5">
       <c r="A450">
         <v>459</v>
       </c>
@@ -13255,7 +13322,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="17">
+    <row r="451" spans="1:5">
       <c r="A451">
         <v>460</v>
       </c>
@@ -13272,7 +13339,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="452" spans="1:5" ht="17">
+    <row r="452" spans="1:5">
       <c r="A452">
         <v>461</v>
       </c>
@@ -13289,7 +13356,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="34">
+    <row r="453" spans="1:5" ht="31.2">
       <c r="A453">
         <v>462</v>
       </c>
@@ -13306,7 +13373,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="17">
+    <row r="454" spans="1:5">
       <c r="A454">
         <v>463</v>
       </c>
@@ -13323,7 +13390,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="17">
+    <row r="455" spans="1:5">
       <c r="A455">
         <v>464</v>
       </c>
@@ -13340,7 +13407,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="17">
+    <row r="456" spans="1:5">
       <c r="A456">
         <v>465</v>
       </c>
@@ -13357,7 +13424,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="17">
+    <row r="457" spans="1:5">
       <c r="A457">
         <v>466</v>
       </c>
@@ -13374,7 +13441,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="17">
+    <row r="458" spans="1:5">
       <c r="A458">
         <v>467</v>
       </c>
@@ -13398,7 +13465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
@@ -13406,19 +13473,19 @@
       <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="39"/>
     <col min="2" max="2" width="9" style="39" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="39" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="23.5" style="39" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="23.453125" style="39" customWidth="1"/>
     <col min="9" max="9" width="31" style="39" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" style="39" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="39" customWidth="1"/>
+    <col min="10" max="10" width="24.36328125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" style="39" customWidth="1"/>
     <col min="12" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
@@ -13527,7 +13594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30">
+    <row r="4" spans="1:11" ht="28.8">
       <c r="A4" s="39">
         <v>3</v>
       </c>
@@ -13562,7 +13629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30">
+    <row r="5" spans="1:11" ht="28.8">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -13597,7 +13664,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30">
+    <row r="6" spans="1:11" ht="28.8">
       <c r="A6" s="39">
         <v>5</v>
       </c>
@@ -13632,7 +13699,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30">
+    <row r="7" spans="1:11" ht="15">
       <c r="A7" s="39">
         <v>6</v>
       </c>
@@ -13667,7 +13734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30">
+    <row r="8" spans="1:11" ht="15">
       <c r="A8" s="39">
         <v>7</v>
       </c>
@@ -13702,7 +13769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30">
+    <row r="9" spans="1:11" ht="28.8">
       <c r="A9" s="39">
         <v>8</v>
       </c>
@@ -13737,7 +13804,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30">
+    <row r="10" spans="1:11" ht="28.8">
       <c r="A10" s="39">
         <v>9</v>
       </c>
@@ -13772,7 +13839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30">
+    <row r="11" spans="1:11" ht="28.8">
       <c r="A11" s="39">
         <v>10</v>
       </c>
@@ -13807,7 +13874,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30">
+    <row r="12" spans="1:11" ht="28.8">
       <c r="A12" s="39">
         <v>11</v>
       </c>
@@ -13842,7 +13909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30">
+    <row r="13" spans="1:11" ht="15">
       <c r="A13" s="39">
         <v>12</v>
       </c>
@@ -13877,7 +13944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30">
+    <row r="14" spans="1:11" ht="28.8">
       <c r="A14" s="39">
         <v>13</v>
       </c>
@@ -13912,7 +13979,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30">
+    <row r="15" spans="1:11" ht="28.8">
       <c r="A15" s="39">
         <v>14</v>
       </c>
@@ -13947,7 +14014,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30">
+    <row r="16" spans="1:11" ht="28.8">
       <c r="A16" s="39">
         <v>15</v>
       </c>
@@ -13982,7 +14049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30">
+    <row r="17" spans="1:11" ht="28.8">
       <c r="A17" s="39">
         <v>16</v>
       </c>
@@ -14017,7 +14084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30">
+    <row r="18" spans="1:11" ht="28.8">
       <c r="A18" s="39">
         <v>17</v>
       </c>
@@ -14052,7 +14119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30">
+    <row r="19" spans="1:11" ht="28.8">
       <c r="A19" s="39">
         <v>18</v>
       </c>
@@ -14087,7 +14154,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="17">
+    <row r="20" spans="1:11" ht="15">
       <c r="A20" s="39">
         <v>19</v>
       </c>
@@ -14122,7 +14189,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="17">
+    <row r="21" spans="1:11" ht="15">
       <c r="A21" s="39">
         <v>20</v>
       </c>
@@ -14157,7 +14224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="17">
+    <row r="22" spans="1:11" ht="15">
       <c r="A22" s="39">
         <v>21</v>
       </c>
@@ -14192,7 +14259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="165">
+    <row r="23" spans="1:11" ht="144">
       <c r="A23" s="39">
         <v>22</v>
       </c>
@@ -14227,7 +14294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="165">
+    <row r="24" spans="1:11" ht="144">
       <c r="A24" s="39">
         <v>23</v>
       </c>
@@ -14262,7 +14329,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30">
+    <row r="25" spans="1:11" ht="28.8">
       <c r="A25" s="39">
         <v>24</v>
       </c>
@@ -14297,7 +14364,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30">
+    <row r="26" spans="1:11" ht="28.8">
       <c r="A26" s="39">
         <v>25</v>
       </c>
@@ -14332,7 +14399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30">
+    <row r="27" spans="1:11" ht="28.8">
       <c r="A27" s="39">
         <v>26</v>
       </c>
@@ -14367,7 +14434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30">
+    <row r="28" spans="1:11" ht="28.8">
       <c r="A28" s="39">
         <v>27</v>
       </c>
@@ -14402,7 +14469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30">
+    <row r="29" spans="1:11" ht="28.8">
       <c r="A29" s="39">
         <v>28</v>
       </c>
@@ -14437,7 +14504,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="30">
+    <row r="30" spans="1:11" ht="28.8">
       <c r="A30" s="39">
         <v>29</v>
       </c>
@@ -14472,7 +14539,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="30">
+    <row r="31" spans="1:11" ht="15">
       <c r="A31" s="39">
         <v>30</v>
       </c>
@@ -14507,7 +14574,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30">
+    <row r="32" spans="1:11" ht="28.8">
       <c r="A32" s="39">
         <v>31</v>
       </c>
@@ -14542,7 +14609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="30">
+    <row r="33" spans="1:11" ht="28.8">
       <c r="A33" s="39">
         <v>32</v>
       </c>
@@ -14577,7 +14644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="30">
+    <row r="34" spans="1:11" ht="28.8">
       <c r="A34" s="39">
         <v>33</v>
       </c>
@@ -14612,7 +14679,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="30">
+    <row r="35" spans="1:11" ht="28.8">
       <c r="A35" s="39">
         <v>34</v>
       </c>
@@ -14647,7 +14714,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="30">
+    <row r="36" spans="1:11" ht="28.8">
       <c r="A36" s="39">
         <v>35</v>
       </c>
@@ -14682,7 +14749,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="30">
+    <row r="37" spans="1:11" ht="28.8">
       <c r="A37" s="39">
         <v>36</v>
       </c>
@@ -14717,7 +14784,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="30">
+    <row r="38" spans="1:11" ht="28.8">
       <c r="A38" s="39">
         <v>37</v>
       </c>
@@ -14752,7 +14819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="30">
+    <row r="39" spans="1:11" ht="28.8">
       <c r="A39" s="39">
         <v>38</v>
       </c>
@@ -14787,7 +14854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="30">
+    <row r="40" spans="1:11" ht="28.8">
       <c r="A40" s="39">
         <v>39</v>
       </c>
@@ -14822,7 +14889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="30">
+    <row r="41" spans="1:11" ht="28.8">
       <c r="A41" s="39">
         <v>40</v>
       </c>
@@ -14857,7 +14924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="30">
+    <row r="42" spans="1:11" ht="28.8">
       <c r="A42" s="39">
         <v>41</v>
       </c>
@@ -14892,7 +14959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="30">
+    <row r="43" spans="1:11" ht="28.8">
       <c r="A43" s="39">
         <v>42</v>
       </c>
@@ -14927,7 +14994,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="30">
+    <row r="44" spans="1:11" ht="28.8">
       <c r="A44" s="39">
         <v>43</v>
       </c>
@@ -14962,7 +15029,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="30">
+    <row r="45" spans="1:11" ht="28.8">
       <c r="A45" s="39">
         <v>44</v>
       </c>
@@ -14997,7 +15064,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16">
+    <row r="46" spans="1:11" ht="15">
       <c r="A46" s="39">
         <v>45</v>
       </c>
@@ -15032,7 +15099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30">
+    <row r="47" spans="1:11" ht="28.8">
       <c r="A47" s="39">
         <v>46</v>
       </c>
@@ -15067,7 +15134,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="30">
+    <row r="48" spans="1:11" ht="28.8">
       <c r="A48" s="39">
         <v>47</v>
       </c>
@@ -15102,7 +15169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="30">
+    <row r="49" spans="1:11" ht="28.8">
       <c r="A49" s="39">
         <v>48</v>
       </c>
@@ -15137,7 +15204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="30">
+    <row r="50" spans="1:11" ht="28.8">
       <c r="A50" s="39">
         <v>49</v>
       </c>
@@ -15172,7 +15239,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="30">
+    <row r="51" spans="1:11" ht="28.8">
       <c r="A51" s="39">
         <v>50</v>
       </c>
@@ -15207,7 +15274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="75">
+    <row r="52" spans="1:11" ht="57.6">
       <c r="A52" s="39">
         <v>51</v>
       </c>
@@ -15242,7 +15309,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30">
+    <row r="53" spans="1:11" ht="28.8">
       <c r="A53" s="39">
         <v>52</v>
       </c>
@@ -15277,7 +15344,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="16">
+    <row r="54" spans="1:11" ht="15">
       <c r="A54" s="39">
         <v>53</v>
       </c>
@@ -15312,7 +15379,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="16">
+    <row r="55" spans="1:11" ht="15">
       <c r="A55" s="39">
         <v>54</v>
       </c>
@@ -15347,7 +15414,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="45">
+    <row r="56" spans="1:11" ht="28.8">
       <c r="A56" s="39">
         <v>55</v>
       </c>
@@ -15382,7 +15449,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="30">
+    <row r="57" spans="1:11" ht="28.8">
       <c r="A57" s="39">
         <v>56</v>
       </c>
@@ -15417,7 +15484,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="30">
+    <row r="58" spans="1:11" ht="28.8">
       <c r="A58" s="39">
         <v>57</v>
       </c>
@@ -15452,7 +15519,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="45">
+    <row r="59" spans="1:11" ht="28.8">
       <c r="A59" s="39">
         <v>58</v>
       </c>
@@ -15487,7 +15554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="45">
+    <row r="60" spans="1:11" ht="28.8">
       <c r="A60" s="39">
         <v>59</v>
       </c>
@@ -15522,7 +15589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="45">
+    <row r="61" spans="1:11" ht="28.8">
       <c r="A61" s="39">
         <v>60</v>
       </c>
@@ -15557,7 +15624,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="30">
+    <row r="62" spans="1:11" ht="28.8">
       <c r="A62" s="39">
         <v>61</v>
       </c>
@@ -15592,7 +15659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="30">
+    <row r="63" spans="1:11" ht="28.8">
       <c r="A63" s="39">
         <v>62</v>
       </c>
@@ -15627,7 +15694,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="16">
+    <row r="64" spans="1:11" ht="15">
       <c r="A64" s="39">
         <v>63</v>
       </c>
@@ -15662,7 +15729,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="30">
+    <row r="65" spans="1:11" ht="28.8">
       <c r="A65" s="39">
         <v>64</v>
       </c>
@@ -15697,7 +15764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="16">
+    <row r="66" spans="1:11" ht="15">
       <c r="A66" s="39">
         <v>65</v>
       </c>
@@ -15732,7 +15799,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30">
+    <row r="67" spans="1:11" ht="28.8">
       <c r="A67" s="39">
         <v>66</v>
       </c>
@@ -15767,7 +15834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="30">
+    <row r="68" spans="1:11" ht="28.8">
       <c r="A68" s="39">
         <v>67</v>
       </c>
@@ -15802,7 +15869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16">
+    <row r="69" spans="1:11" ht="15">
       <c r="A69" s="39">
         <v>68</v>
       </c>
@@ -15837,7 +15904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="16">
+    <row r="70" spans="1:11" ht="15">
       <c r="A70" s="39">
         <v>69</v>
       </c>
@@ -15872,7 +15939,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="30">
+    <row r="71" spans="1:11" ht="28.8">
       <c r="A71" s="39">
         <v>70</v>
       </c>
@@ -15907,7 +15974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="30">
+    <row r="72" spans="1:11" ht="28.8">
       <c r="A72" s="39">
         <v>71</v>
       </c>
@@ -15942,7 +16009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="30">
+    <row r="73" spans="1:11" ht="28.8">
       <c r="A73" s="39">
         <v>72</v>
       </c>
@@ -15977,7 +16044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="30">
+    <row r="74" spans="1:11" ht="28.8">
       <c r="A74" s="39">
         <v>73</v>
       </c>
@@ -16012,7 +16079,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="30">
+    <row r="75" spans="1:11" ht="28.8">
       <c r="A75" s="39">
         <v>74</v>
       </c>
@@ -16047,7 +16114,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="30">
+    <row r="76" spans="1:11" ht="28.8">
       <c r="A76" s="39">
         <v>75</v>
       </c>
@@ -16082,7 +16149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="30">
+    <row r="77" spans="1:11" ht="28.8">
       <c r="A77" s="39">
         <v>76</v>
       </c>
@@ -16117,7 +16184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="30">
+    <row r="78" spans="1:11" ht="28.8">
       <c r="A78" s="39">
         <v>77</v>
       </c>
@@ -16152,7 +16219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="30">
+    <row r="79" spans="1:11" ht="28.8">
       <c r="A79" s="39">
         <v>78</v>
       </c>
@@ -16187,7 +16254,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="30">
+    <row r="80" spans="1:11" ht="28.8">
       <c r="A80" s="39">
         <v>79</v>
       </c>
@@ -16222,7 +16289,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="16">
+    <row r="81" spans="1:11" ht="15">
       <c r="A81" s="39">
         <v>80</v>
       </c>
@@ -16257,7 +16324,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="16">
+    <row r="82" spans="1:11" ht="15">
       <c r="A82" s="39">
         <v>81</v>
       </c>
@@ -16292,7 +16359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="30">
+    <row r="83" spans="1:11" ht="28.8">
       <c r="A83" s="39">
         <v>82</v>
       </c>
@@ -16327,7 +16394,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="30">
+    <row r="84" spans="1:11" ht="28.8">
       <c r="A84" s="39">
         <v>83</v>
       </c>
@@ -16362,7 +16429,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="30">
+    <row r="85" spans="1:11" ht="28.8">
       <c r="A85" s="39">
         <v>84</v>
       </c>
@@ -16397,7 +16464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="30">
+    <row r="86" spans="1:11" ht="28.8">
       <c r="A86" s="39">
         <v>85</v>
       </c>
@@ -16432,7 +16499,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="30">
+    <row r="87" spans="1:11" ht="28.8">
       <c r="A87" s="39">
         <v>86</v>
       </c>
@@ -16467,7 +16534,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="30">
+    <row r="88" spans="1:11" ht="28.8">
       <c r="A88" s="39">
         <v>87</v>
       </c>
@@ -16502,7 +16569,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="30">
+    <row r="89" spans="1:11" ht="28.8">
       <c r="A89" s="39">
         <v>88</v>
       </c>
@@ -16537,7 +16604,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="30">
+    <row r="90" spans="1:11" ht="28.8">
       <c r="A90" s="39">
         <v>89</v>
       </c>
@@ -16572,7 +16639,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="30">
+    <row r="91" spans="1:11" ht="28.8">
       <c r="A91" s="39">
         <v>90</v>
       </c>
@@ -16607,7 +16674,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="30">
+    <row r="92" spans="1:11" ht="24">
       <c r="A92" s="39">
         <v>91</v>
       </c>
@@ -16642,7 +16709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="30">
+    <row r="93" spans="1:11" ht="24">
       <c r="A93" s="39">
         <v>92</v>
       </c>
@@ -16677,7 +16744,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="45">
+    <row r="94" spans="1:11" ht="36">
       <c r="A94" s="39">
         <v>93</v>
       </c>
@@ -16712,7 +16779,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="45">
+    <row r="95" spans="1:11" ht="36">
       <c r="A95" s="39">
         <v>94</v>
       </c>
@@ -16747,7 +16814,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="45">
+    <row r="96" spans="1:11" ht="36">
       <c r="A96" s="39">
         <v>95</v>
       </c>
@@ -16782,7 +16849,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="45">
+    <row r="97" spans="1:11" ht="36">
       <c r="A97" s="39">
         <v>96</v>
       </c>
@@ -16817,7 +16884,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="30">
+    <row r="98" spans="1:11" ht="24">
       <c r="A98" s="39">
         <v>97</v>
       </c>
@@ -16852,7 +16919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="30">
+    <row r="99" spans="1:11" ht="24">
       <c r="A99" s="39">
         <v>98</v>
       </c>
@@ -16887,7 +16954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="45">
+    <row r="100" spans="1:11" ht="36">
       <c r="A100" s="39">
         <v>99</v>
       </c>
@@ -16922,7 +16989,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="30">
+    <row r="101" spans="1:11" ht="24">
       <c r="A101" s="39">
         <v>100</v>
       </c>
@@ -16957,7 +17024,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="45">
+    <row r="102" spans="1:11" ht="36">
       <c r="A102" s="39">
         <v>101</v>
       </c>
@@ -16992,7 +17059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="45">
+    <row r="103" spans="1:11" ht="36">
       <c r="A103" s="39">
         <v>102</v>
       </c>
@@ -17027,7 +17094,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="45">
+    <row r="104" spans="1:11" ht="36">
       <c r="A104" s="39">
         <v>103</v>
       </c>
@@ -17062,7 +17129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="30">
+    <row r="105" spans="1:11" ht="24">
       <c r="A105" s="39">
         <v>104</v>
       </c>
@@ -17104,7 +17171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView zoomScale="137" workbookViewId="0">
@@ -17112,19 +17179,19 @@
       <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="33.81640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="39"/>
-    <col min="2" max="2" width="14.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="10" customWidth="1"/>
     <col min="5" max="5" width="45" style="16" customWidth="1"/>
     <col min="6" max="6" width="23" style="10" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" style="10" customWidth="1"/>
-    <col min="9" max="10" width="33.83203125" style="10"/>
-    <col min="11" max="11" width="21.83203125" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="33.83203125" style="10"/>
+    <col min="7" max="7" width="25.6328125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" style="10" customWidth="1"/>
+    <col min="9" max="10" width="33.81640625" style="10"/>
+    <col min="11" max="11" width="21.81640625" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="33.81640625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1">
@@ -20142,7 +20209,7 @@
       <c r="M88" s="78"/>
       <c r="N88" s="78"/>
     </row>
-    <row r="89" spans="1:14" ht="30">
+    <row r="89" spans="1:14">
       <c r="A89" s="104">
         <v>88</v>
       </c>
@@ -20178,7 +20245,7 @@
       <c r="M89" s="78"/>
       <c r="N89" s="78"/>
     </row>
-    <row r="90" spans="1:14" ht="30">
+    <row r="90" spans="1:14">
       <c r="A90" s="104">
         <v>89</v>
       </c>
@@ -20214,7 +20281,7 @@
       <c r="M90" s="78"/>
       <c r="N90" s="78"/>
     </row>
-    <row r="91" spans="1:14" ht="195">
+    <row r="91" spans="1:14" ht="158.4">
       <c r="A91" s="104">
         <v>90</v>
       </c>
@@ -20248,7 +20315,7 @@
       <c r="M91" s="78"/>
       <c r="N91" s="78"/>
     </row>
-    <row r="92" spans="1:14" ht="195">
+    <row r="92" spans="1:14" ht="158.4">
       <c r="A92" s="104">
         <v>91</v>
       </c>
@@ -20354,7 +20421,7 @@
       <c r="M94" s="78"/>
       <c r="N94" s="78"/>
     </row>
-    <row r="95" spans="1:14" ht="45">
+    <row r="95" spans="1:14" ht="28.8">
       <c r="A95" s="104">
         <v>94</v>
       </c>
@@ -20388,7 +20455,7 @@
       <c r="M95" s="78"/>
       <c r="N95" s="78"/>
     </row>
-    <row r="96" spans="1:14" ht="45">
+    <row r="96" spans="1:14" ht="28.8">
       <c r="A96" s="104">
         <v>95</v>
       </c>
@@ -20422,7 +20489,7 @@
       <c r="M96" s="78"/>
       <c r="N96" s="78"/>
     </row>
-    <row r="97" spans="1:14" ht="45">
+    <row r="97" spans="1:14" ht="28.8">
       <c r="A97" s="104">
         <v>96</v>
       </c>
@@ -20456,7 +20523,7 @@
       <c r="M97" s="78"/>
       <c r="N97" s="78"/>
     </row>
-    <row r="98" spans="1:14" ht="30">
+    <row r="98" spans="1:14" ht="28.8">
       <c r="A98" s="104">
         <v>97</v>
       </c>
@@ -20565,7 +20632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20573,14 +20640,14 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="33.81640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="13" customWidth="1"/>
-    <col min="5" max="7" width="33.83203125" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="33.83203125" style="13"/>
+    <col min="1" max="1" width="11.81640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" style="13" customWidth="1"/>
+    <col min="5" max="7" width="33.81640625" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="33.81640625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1">
@@ -23829,7 +23896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -23837,13 +23904,13 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2:G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="33.81640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="33.83203125" style="13" customWidth="1"/>
-    <col min="3" max="5" width="33.83203125" style="64" customWidth="1"/>
-    <col min="6" max="10" width="33.83203125" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="33.83203125" style="13"/>
+    <col min="1" max="1" width="12.453125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" style="13" customWidth="1"/>
+    <col min="3" max="5" width="33.81640625" style="64" customWidth="1"/>
+    <col min="6" max="10" width="33.81640625" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="33.81640625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
@@ -24852,7 +24919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="58" customHeight="1">
+    <row r="33" spans="1:29" ht="58.05" customHeight="1">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -24882,7 +24949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="58" customHeight="1">
+    <row r="34" spans="1:29" ht="58.05" customHeight="1">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -24912,7 +24979,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="58" customHeight="1">
+    <row r="35" spans="1:29" ht="58.05" customHeight="1">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -24961,14 +25028,14 @@
       <c r="AB35" s="55"/>
       <c r="AC35" s="55"/>
     </row>
-    <row r="36" spans="1:29" ht="58" customHeight="1"/>
-    <row r="37" spans="1:29" ht="58" customHeight="1"/>
-    <row r="38" spans="1:29" ht="58" customHeight="1"/>
-    <row r="39" spans="1:29" ht="58" customHeight="1"/>
-    <row r="40" spans="1:29" ht="58" customHeight="1"/>
-    <row r="41" spans="1:29" ht="58" customHeight="1"/>
-    <row r="42" spans="1:29" ht="58" customHeight="1"/>
-    <row r="43" spans="1:29" ht="58" customHeight="1"/>
+    <row r="36" spans="1:29" ht="58.05" customHeight="1"/>
+    <row r="37" spans="1:29" ht="58.05" customHeight="1"/>
+    <row r="38" spans="1:29" ht="58.05" customHeight="1"/>
+    <row r="39" spans="1:29" ht="58.05" customHeight="1"/>
+    <row r="40" spans="1:29" ht="58.05" customHeight="1"/>
+    <row r="41" spans="1:29" ht="58.05" customHeight="1"/>
+    <row r="42" spans="1:29" ht="58.05" customHeight="1"/>
+    <row r="43" spans="1:29" ht="58.05" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24977,7 +25044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24985,17 +25052,17 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:J66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="39"/>
-    <col min="2" max="2" width="10.83203125" style="10" customWidth="1"/>
-    <col min="3" max="4" width="24.33203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="48.6640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" style="10" customWidth="1"/>
-    <col min="9" max="64" width="10.83203125" style="10" customWidth="1"/>
-    <col min="65" max="16384" width="10.83203125" style="10"/>
+    <col min="2" max="2" width="10.81640625" style="10" customWidth="1"/>
+    <col min="3" max="4" width="24.36328125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="48.6328125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" style="10" customWidth="1"/>
+    <col min="9" max="64" width="10.81640625" style="10" customWidth="1"/>
+    <col min="65" max="16384" width="10.81640625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1">

--- a/instance/zyjk/CHC/rule/规则db.xlsx
+++ b/instance/zyjk/CHC/rule/规则db.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\51\python\project\instance\zyjk\CHC\rule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/CHC/rule/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D676D6A-BAEA-784E-9A82-EFDD22DD80C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="17496" tabRatio="730" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="730" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="疾病身份证" sheetId="2" r:id="rId1"/>
@@ -21,24 +22,11 @@
     <sheet name="儿童健康干预" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3995" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3991" uniqueCount="1229">
   <si>
     <t>YH_JB001</t>
   </si>
@@ -3847,9 +3835,6 @@
     <t>'K51','1',AGE='45'</t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
     <t>1, delete from T_ASSESS_INFO where ID_CARD = '410101202308070009'
 2, DELETE FROM T_HIS_DIAGNOSIS where IDCARD = '410101202308070009'
 3, INSERT INTO T_HIS_DIAGNOSIS (IDCARD, DIAGNOSIS_CODE, DIAGNOSIS_TYPE,DIAGNOSIS_DATE, CREATE_DATE) VALUES ('410101202308070009', 'B17.1','1', '2023-07-29 16:02:19.000', '2023-07-31 09:39:24.3700000')
@@ -3992,9 +3977,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -4433,7 +4419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4833,74 +4819,86 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="32" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="31" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="32" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4908,74 +4906,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5244,28 +5174,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.05" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="22" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" style="13"/>
-    <col min="2" max="2" width="18.1796875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="13" customWidth="1"/>
     <col min="6" max="6" width="11" style="13" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="13" customWidth="1"/>
     <col min="8" max="62" width="11" style="13" customWidth="1"/>
     <col min="63" max="16384" width="11" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.05" customHeight="1">
+    <row r="1" spans="1:5" ht="22" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>765</v>
       </c>
@@ -5282,7 +5212,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.05" customHeight="1">
+    <row r="2" spans="1:5" ht="22" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -5299,7 +5229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.05" customHeight="1">
+    <row r="3" spans="1:5" ht="22" customHeight="1">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -5316,7 +5246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.05" customHeight="1">
+    <row r="4" spans="1:5" ht="22" customHeight="1">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -5333,7 +5263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.05" customHeight="1">
+    <row r="5" spans="1:5" ht="22" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -5350,7 +5280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22.05" customHeight="1">
+    <row r="6" spans="1:5" ht="22" customHeight="1">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -5367,7 +5297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22.05" customHeight="1">
+    <row r="7" spans="1:5" ht="22" customHeight="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -5384,7 +5314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="22.05" customHeight="1">
+    <row r="8" spans="1:5" ht="22" customHeight="1">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -5401,7 +5331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22.05" customHeight="1">
+    <row r="9" spans="1:5" ht="22" customHeight="1">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -5418,7 +5348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="22.05" customHeight="1">
+    <row r="10" spans="1:5" ht="22" customHeight="1">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -5435,7 +5365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22.05" customHeight="1">
+    <row r="11" spans="1:5" ht="22" customHeight="1">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -5452,7 +5382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="22.05" customHeight="1">
+    <row r="12" spans="1:5" ht="22" customHeight="1">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -5469,7 +5399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="22.05" customHeight="1">
+    <row r="13" spans="1:5" ht="22" customHeight="1">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -5486,7 +5416,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="22.05" customHeight="1">
+    <row r="14" spans="1:5" ht="22" customHeight="1">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -5503,7 +5433,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="22.05" customHeight="1">
+    <row r="15" spans="1:5" ht="22" customHeight="1">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -5520,7 +5450,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="22.05" customHeight="1">
+    <row r="16" spans="1:5" ht="22" customHeight="1">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -5537,7 +5467,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="22.05" customHeight="1">
+    <row r="17" spans="1:5" ht="22" customHeight="1">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -5554,7 +5484,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="22.05" customHeight="1">
+    <row r="18" spans="1:5" ht="22" customHeight="1">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -5571,7 +5501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="22.05" customHeight="1">
+    <row r="19" spans="1:5" ht="22" customHeight="1">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -5588,7 +5518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="22.05" customHeight="1">
+    <row r="20" spans="1:5" ht="22" customHeight="1">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -5605,7 +5535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="22.05" customHeight="1">
+    <row r="21" spans="1:5" ht="22" customHeight="1">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -5622,7 +5552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="22.05" customHeight="1">
+    <row r="22" spans="1:5" ht="22" customHeight="1">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -5639,7 +5569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="22.05" customHeight="1">
+    <row r="23" spans="1:5" ht="22" customHeight="1">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -5663,21 +5593,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E458"/>
   <sheetViews>
     <sheetView topLeftCell="A55" zoomScale="150" workbookViewId="0">
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="99.81640625" style="80" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" style="82"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="99.83203125" style="80" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="17">
       <c r="A1" s="35" t="s">
         <v>765</v>
       </c>
@@ -5813,7 +5743,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="26.4">
+    <row r="9" spans="1:5" ht="28">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5966,7 +5896,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="26.4">
+    <row r="18" spans="1:5" ht="28">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6136,7 +6066,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="26.4">
+    <row r="28" spans="1:5" ht="28">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6238,7 +6168,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="26.4">
+    <row r="34" spans="1:5" ht="28">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6425,7 +6355,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="26.4">
+    <row r="45" spans="1:5" ht="28">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6527,7 +6457,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="26.4">
+    <row r="51" spans="1:5" ht="28">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6544,7 +6474,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="26.4">
+    <row r="52" spans="1:5" ht="28">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6657,13 +6587,13 @@
         <v>1</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E58" s="81" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="26.4">
+    <row r="59" spans="1:5" ht="28">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6674,7 +6604,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E59" s="81" t="s">
         <v>1136</v>
@@ -6691,7 +6621,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E60" s="81" t="s">
         <v>1136</v>
@@ -6708,7 +6638,7 @@
         <v>4</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E61" s="81" t="s">
         <v>1136</v>
@@ -6725,7 +6655,7 @@
         <v>5</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E62" s="81" t="s">
         <v>1136</v>
@@ -6742,7 +6672,7 @@
         <v>6</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E63" s="81" t="s">
         <v>1136</v>
@@ -6776,7 +6706,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E65" s="81" t="s">
         <v>1136</v>
@@ -6867,7 +6797,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="26.4">
+    <row r="71" spans="1:5" ht="28">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7071,7 +7001,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="26.4">
+    <row r="83" spans="1:5" ht="28">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7105,7 +7035,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="26.4">
+    <row r="85" spans="1:5" ht="28">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7377,7 +7307,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="26.4">
+    <row r="101" spans="1:5" ht="28">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7479,7 +7409,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" ht="17">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7496,7 +7426,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" ht="17">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7513,7 +7443,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" ht="17">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7530,7 +7460,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="46.8">
+    <row r="110" spans="1:5" ht="51">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7547,7 +7477,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" ht="17">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7564,7 +7494,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" ht="17">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7581,7 +7511,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" ht="17">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7598,7 +7528,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" ht="17">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7615,7 +7545,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" ht="17">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7632,7 +7562,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" ht="17">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7649,7 +7579,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" ht="34">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7666,7 +7596,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="46.8">
+    <row r="118" spans="1:5" ht="51">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7683,7 +7613,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" ht="17">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7700,7 +7630,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" ht="17">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7717,7 +7647,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" ht="34">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7734,7 +7664,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="46.8">
+    <row r="122" spans="1:5" ht="51">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7751,7 +7681,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" ht="17">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7768,7 +7698,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" ht="17">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7785,7 +7715,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" ht="34">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7802,7 +7732,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="46.8">
+    <row r="126" spans="1:5" ht="51">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7819,7 +7749,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" ht="17">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7836,7 +7766,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" ht="17">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7853,7 +7783,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" ht="34">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7870,7 +7800,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="46.8">
+    <row r="130" spans="1:5" ht="51">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7887,7 +7817,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" ht="17">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7904,7 +7834,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" ht="17">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7921,7 +7851,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" ht="34">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7938,7 +7868,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="46.8">
+    <row r="134" spans="1:5" ht="51">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7955,7 +7885,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" ht="17">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7972,7 +7902,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" ht="17">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7989,7 +7919,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" ht="34">
       <c r="A137">
         <v>136</v>
       </c>
@@ -8006,7 +7936,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="46.8">
+    <row r="138" spans="1:5" ht="51">
       <c r="A138">
         <v>137</v>
       </c>
@@ -8023,7 +7953,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" ht="17">
       <c r="A139">
         <v>138</v>
       </c>
@@ -8040,7 +7970,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" ht="17">
       <c r="A140">
         <v>139</v>
       </c>
@@ -8057,7 +7987,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" ht="34">
       <c r="A141">
         <v>140</v>
       </c>
@@ -8074,7 +8004,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="46.8">
+    <row r="142" spans="1:5" ht="51">
       <c r="A142">
         <v>141</v>
       </c>
@@ -8091,7 +8021,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="31.2">
+    <row r="143" spans="1:5" ht="34">
       <c r="A143">
         <v>142</v>
       </c>
@@ -8108,7 +8038,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" ht="17">
       <c r="A144">
         <v>143</v>
       </c>
@@ -8125,7 +8055,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" ht="34">
       <c r="A145">
         <v>144</v>
       </c>
@@ -8142,7 +8072,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" ht="17">
       <c r="A146">
         <v>145</v>
       </c>
@@ -8159,7 +8089,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="31.2">
+    <row r="147" spans="1:5" ht="51">
       <c r="A147">
         <v>146</v>
       </c>
@@ -8176,7 +8106,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" ht="17">
       <c r="A148">
         <v>147</v>
       </c>
@@ -8193,7 +8123,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" ht="34">
       <c r="A149">
         <v>148</v>
       </c>
@@ -8210,7 +8140,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" ht="17">
       <c r="A150">
         <v>149</v>
       </c>
@@ -8227,7 +8157,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" ht="17">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8244,7 +8174,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" ht="17">
       <c r="A152">
         <v>151</v>
       </c>
@@ -8261,7 +8191,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" ht="17">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8278,7 +8208,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="46.8">
+    <row r="154" spans="1:5" ht="51">
       <c r="A154">
         <v>153</v>
       </c>
@@ -8295,7 +8225,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" ht="17">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8312,7 +8242,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" ht="17">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8329,7 +8259,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" ht="17">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8346,7 +8276,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" ht="17">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8363,7 +8293,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" ht="17">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8380,7 +8310,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" ht="17">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8397,7 +8327,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" ht="17">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8414,7 +8344,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" ht="34">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8431,7 +8361,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="46.8">
+    <row r="163" spans="1:5" ht="51">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8448,7 +8378,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" ht="17">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8465,7 +8395,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" ht="17">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8482,7 +8412,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" ht="34">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8499,7 +8429,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="46.8">
+    <row r="167" spans="1:5" ht="51">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8516,7 +8446,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" ht="17">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8533,7 +8463,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" ht="17">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8550,7 +8480,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" ht="34">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8567,7 +8497,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="46.8">
+    <row r="171" spans="1:5" ht="51">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8584,7 +8514,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" ht="17">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8601,7 +8531,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" ht="17">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8618,7 +8548,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" ht="34">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8635,7 +8565,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="46.8">
+    <row r="175" spans="1:5" ht="51">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8652,7 +8582,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" ht="17">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8669,7 +8599,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" ht="17">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8686,7 +8616,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" ht="34">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8703,7 +8633,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="46.8">
+    <row r="179" spans="1:5" ht="51">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8720,7 +8650,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" ht="17">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8737,7 +8667,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" ht="17">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8754,7 +8684,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" ht="34">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8771,7 +8701,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="46.8">
+    <row r="183" spans="1:5" ht="51">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8788,7 +8718,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="31.2">
+    <row r="184" spans="1:5" ht="51">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8805,7 +8735,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" ht="17">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8822,7 +8752,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" ht="34">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8839,7 +8769,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" ht="17">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8856,7 +8786,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="46.8">
+    <row r="188" spans="1:5" ht="51">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8873,7 +8803,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" ht="17">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8890,7 +8820,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" ht="34">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8907,7 +8837,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" ht="17">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8924,7 +8854,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="46.8">
+    <row r="192" spans="1:5" ht="51">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8941,7 +8871,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" ht="17">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8958,7 +8888,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" ht="34">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8975,7 +8905,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" ht="17">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8992,7 +8922,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="31.2">
+    <row r="196" spans="1:5" ht="51">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9009,7 +8939,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" ht="17">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9026,7 +8956,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" ht="34">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9043,7 +8973,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" ht="17">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9060,7 +8990,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="31.2">
+    <row r="200" spans="1:5" ht="34">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9077,7 +9007,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" ht="17">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9094,7 +9024,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" ht="34">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9111,7 +9041,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" ht="17">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9128,7 +9058,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" ht="17">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9145,7 +9075,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" ht="17">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9162,7 +9092,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" ht="17">
       <c r="A206">
         <v>205</v>
       </c>
@@ -9179,7 +9109,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="31.2">
+    <row r="207" spans="1:5" ht="34">
       <c r="A207">
         <v>206</v>
       </c>
@@ -9196,7 +9126,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" ht="17">
       <c r="A208">
         <v>207</v>
       </c>
@@ -9213,7 +9143,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" ht="17">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9230,7 +9160,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" ht="17">
       <c r="A210">
         <v>209</v>
       </c>
@@ -9247,7 +9177,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" ht="17">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9264,7 +9194,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" ht="17">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9281,7 +9211,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="31.2">
+    <row r="213" spans="1:5" ht="51">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9298,7 +9228,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" ht="17">
       <c r="A214">
         <v>213</v>
       </c>
@@ -9315,7 +9245,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" ht="34">
       <c r="A215">
         <v>214</v>
       </c>
@@ -9332,7 +9262,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="31.2">
+    <row r="216" spans="1:5" ht="51">
       <c r="A216">
         <v>215</v>
       </c>
@@ -9349,7 +9279,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" ht="17">
       <c r="A217">
         <v>216</v>
       </c>
@@ -9366,7 +9296,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" ht="34">
       <c r="A218">
         <v>217</v>
       </c>
@@ -9383,7 +9313,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="31.2">
+    <row r="219" spans="1:5" ht="51">
       <c r="A219">
         <v>218</v>
       </c>
@@ -9400,7 +9330,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" ht="17">
       <c r="A220">
         <v>219</v>
       </c>
@@ -9417,7 +9347,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" ht="34">
       <c r="A221">
         <v>220</v>
       </c>
@@ -9434,7 +9364,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" ht="17">
       <c r="A222">
         <v>221</v>
       </c>
@@ -9451,7 +9381,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" ht="17">
       <c r="A223">
         <v>222</v>
       </c>
@@ -9468,7 +9398,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" ht="17">
       <c r="A224">
         <v>223</v>
       </c>
@@ -9485,7 +9415,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" ht="17">
       <c r="A225">
         <v>224</v>
       </c>
@@ -9502,7 +9432,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" ht="34">
       <c r="A226">
         <v>225</v>
       </c>
@@ -9519,7 +9449,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" ht="34">
       <c r="A227">
         <v>226</v>
       </c>
@@ -9536,7 +9466,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" ht="34">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9553,7 +9483,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="31.2">
+    <row r="229" spans="1:5" ht="34">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9570,7 +9500,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="31.2">
+    <row r="230" spans="1:5" ht="51">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9587,7 +9517,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" ht="17">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9604,7 +9534,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" ht="34">
       <c r="A232">
         <v>231</v>
       </c>
@@ -9621,7 +9551,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="31.2">
+    <row r="233" spans="1:5" ht="34">
       <c r="A233">
         <v>232</v>
       </c>
@@ -9638,7 +9568,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" ht="17">
       <c r="A234">
         <v>233</v>
       </c>
@@ -9655,7 +9585,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" ht="17">
       <c r="A235">
         <v>234</v>
       </c>
@@ -9672,7 +9602,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" ht="17">
       <c r="A236">
         <v>235</v>
       </c>
@@ -9689,7 +9619,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" ht="17">
       <c r="A237">
         <v>236</v>
       </c>
@@ -9706,7 +9636,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" ht="34">
       <c r="A238">
         <v>237</v>
       </c>
@@ -9723,7 +9653,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" ht="17">
       <c r="A239">
         <v>238</v>
       </c>
@@ -9740,7 +9670,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" ht="17">
       <c r="A240">
         <v>239</v>
       </c>
@@ -9757,7 +9687,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="31.2">
+    <row r="241" spans="1:5" ht="34">
       <c r="A241">
         <v>240</v>
       </c>
@@ -9774,7 +9704,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="31.2">
+    <row r="242" spans="1:5" ht="51">
       <c r="A242">
         <v>241</v>
       </c>
@@ -9791,7 +9721,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" ht="17">
       <c r="A243">
         <v>242</v>
       </c>
@@ -9808,7 +9738,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" ht="34">
       <c r="A244">
         <v>243</v>
       </c>
@@ -9825,7 +9755,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" ht="17">
       <c r="A245">
         <v>244</v>
       </c>
@@ -9842,7 +9772,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" ht="17">
       <c r="A246">
         <v>245</v>
       </c>
@@ -9859,7 +9789,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" ht="17">
       <c r="A247">
         <v>246</v>
       </c>
@@ -9876,7 +9806,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" ht="17">
       <c r="A248">
         <v>247</v>
       </c>
@@ -9893,7 +9823,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" ht="34">
       <c r="A249">
         <v>248</v>
       </c>
@@ -9910,7 +9840,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" ht="17">
       <c r="A250">
         <v>249</v>
       </c>
@@ -9927,7 +9857,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" ht="17">
       <c r="A251">
         <v>250</v>
       </c>
@@ -9944,7 +9874,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" ht="17">
       <c r="A252">
         <v>251</v>
       </c>
@@ -9961,7 +9891,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" ht="17">
       <c r="A253">
         <v>252</v>
       </c>
@@ -9978,7 +9908,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" ht="17">
       <c r="A254">
         <v>253</v>
       </c>
@@ -9995,7 +9925,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="31.2">
+    <row r="255" spans="1:5" ht="51">
       <c r="A255">
         <v>254</v>
       </c>
@@ -10012,7 +9942,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" ht="17">
       <c r="A256">
         <v>255</v>
       </c>
@@ -10029,7 +9959,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" ht="34">
       <c r="A257">
         <v>256</v>
       </c>
@@ -10046,7 +9976,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" ht="17">
       <c r="A258">
         <v>257</v>
       </c>
@@ -10063,7 +9993,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="31.2">
+    <row r="259" spans="1:5" ht="51">
       <c r="A259">
         <v>258</v>
       </c>
@@ -10080,7 +10010,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" ht="17">
       <c r="A260">
         <v>259</v>
       </c>
@@ -10097,7 +10027,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" ht="34">
       <c r="A261">
         <v>260</v>
       </c>
@@ -10114,7 +10044,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" ht="17">
       <c r="A262">
         <v>261</v>
       </c>
@@ -10131,7 +10061,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="31.2">
+    <row r="263" spans="1:5" ht="34">
       <c r="A263">
         <v>262</v>
       </c>
@@ -10148,7 +10078,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" ht="17">
       <c r="A264">
         <v>263</v>
       </c>
@@ -10165,7 +10095,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" ht="34">
       <c r="A265">
         <v>264</v>
       </c>
@@ -10182,7 +10112,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" ht="17">
       <c r="A266">
         <v>265</v>
       </c>
@@ -10199,7 +10129,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="31.2">
+    <row r="267" spans="1:5" ht="34">
       <c r="A267">
         <v>266</v>
       </c>
@@ -10216,7 +10146,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" ht="17">
       <c r="A268">
         <v>267</v>
       </c>
@@ -10233,7 +10163,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" ht="34">
       <c r="A269">
         <v>268</v>
       </c>
@@ -10250,7 +10180,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" ht="17">
       <c r="A270">
         <v>269</v>
       </c>
@@ -10267,7 +10197,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" ht="17">
       <c r="A271">
         <v>270</v>
       </c>
@@ -10284,7 +10214,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" ht="17">
       <c r="A272">
         <v>271</v>
       </c>
@@ -10301,7 +10231,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" ht="34">
       <c r="A273">
         <v>272</v>
       </c>
@@ -10318,7 +10248,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" ht="34">
       <c r="A274">
         <v>273</v>
       </c>
@@ -10335,7 +10265,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" ht="17">
       <c r="A275">
         <v>274</v>
       </c>
@@ -10352,7 +10282,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" ht="17">
       <c r="A276">
         <v>275</v>
       </c>
@@ -10369,7 +10299,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" ht="34">
       <c r="A277">
         <v>276</v>
       </c>
@@ -10386,7 +10316,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" ht="34">
       <c r="A278">
         <v>277</v>
       </c>
@@ -10403,7 +10333,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" ht="17">
       <c r="A279">
         <v>278</v>
       </c>
@@ -10420,7 +10350,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" ht="17">
       <c r="A280">
         <v>279</v>
       </c>
@@ -10437,7 +10367,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" ht="34">
       <c r="A281">
         <v>280</v>
       </c>
@@ -10454,7 +10384,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" ht="34">
       <c r="A282">
         <v>281</v>
       </c>
@@ -10471,7 +10401,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" ht="17">
       <c r="A283">
         <v>282</v>
       </c>
@@ -10488,7 +10418,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" ht="17">
       <c r="A284">
         <v>283</v>
       </c>
@@ -10505,7 +10435,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" ht="34">
       <c r="A285">
         <v>284</v>
       </c>
@@ -10522,7 +10452,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" ht="34">
       <c r="A286">
         <v>285</v>
       </c>
@@ -10539,7 +10469,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="46.8">
+    <row r="287" spans="1:5" ht="51">
       <c r="A287">
         <v>286</v>
       </c>
@@ -10556,7 +10486,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" ht="17">
       <c r="A288">
         <v>287</v>
       </c>
@@ -10573,7 +10503,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" ht="34">
       <c r="A289">
         <v>288</v>
       </c>
@@ -10590,7 +10520,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" ht="17">
       <c r="A290">
         <v>289</v>
       </c>
@@ -10607,7 +10537,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" ht="17">
       <c r="A291">
         <v>290</v>
       </c>
@@ -10624,7 +10554,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" ht="17">
       <c r="A292">
         <v>291</v>
       </c>
@@ -10641,7 +10571,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" ht="17">
       <c r="A293">
         <v>292</v>
       </c>
@@ -10658,7 +10588,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" ht="34">
       <c r="A294">
         <v>293</v>
       </c>
@@ -10675,7 +10605,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" ht="17">
       <c r="A295">
         <v>294</v>
       </c>
@@ -10692,7 +10622,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" ht="17">
       <c r="A296">
         <v>295</v>
       </c>
@@ -10709,7 +10639,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" ht="17">
       <c r="A297">
         <v>296</v>
       </c>
@@ -10726,7 +10656,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" ht="17">
       <c r="A298">
         <v>297</v>
       </c>
@@ -10743,7 +10673,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" ht="17">
       <c r="A299">
         <v>298</v>
       </c>
@@ -10760,7 +10690,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" ht="17">
       <c r="A300">
         <v>299</v>
       </c>
@@ -10777,7 +10707,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" ht="34">
       <c r="A301">
         <v>300</v>
       </c>
@@ -10794,7 +10724,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" ht="34">
       <c r="A302">
         <v>301</v>
       </c>
@@ -10811,7 +10741,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" ht="17">
       <c r="A303">
         <v>302</v>
       </c>
@@ -10828,7 +10758,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" ht="17">
       <c r="A304">
         <v>303</v>
       </c>
@@ -10845,7 +10775,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" ht="34">
       <c r="A305">
         <v>304</v>
       </c>
@@ -10862,7 +10792,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" ht="34">
       <c r="A306">
         <v>305</v>
       </c>
@@ -10879,7 +10809,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" ht="17">
       <c r="A307">
         <v>306</v>
       </c>
@@ -10896,7 +10826,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" ht="17">
       <c r="A308">
         <v>307</v>
       </c>
@@ -10913,7 +10843,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" ht="34">
       <c r="A309">
         <v>308</v>
       </c>
@@ -10930,7 +10860,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" ht="34">
       <c r="A310">
         <v>309</v>
       </c>
@@ -10947,7 +10877,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="31.2">
+    <row r="311" spans="1:5" ht="51">
       <c r="A311">
         <v>310</v>
       </c>
@@ -10964,7 +10894,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" ht="17">
       <c r="A312">
         <v>311</v>
       </c>
@@ -10981,7 +10911,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" ht="34">
       <c r="A313">
         <v>312</v>
       </c>
@@ -10998,7 +10928,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" ht="17">
       <c r="A314">
         <v>313</v>
       </c>
@@ -11015,7 +10945,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="31.2">
+    <row r="315" spans="1:5" ht="51">
       <c r="A315">
         <v>314</v>
       </c>
@@ -11032,7 +10962,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" ht="17">
       <c r="A316">
         <v>315</v>
       </c>
@@ -11049,7 +10979,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" ht="34">
       <c r="A317">
         <v>316</v>
       </c>
@@ -11066,7 +10996,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" ht="17">
       <c r="A318">
         <v>317</v>
       </c>
@@ -11083,7 +11013,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="31.2">
+    <row r="319" spans="1:5" ht="51">
       <c r="A319">
         <v>318</v>
       </c>
@@ -11100,7 +11030,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" ht="17">
       <c r="A320">
         <v>319</v>
       </c>
@@ -11117,7 +11047,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" ht="34">
       <c r="A321">
         <v>320</v>
       </c>
@@ -11134,7 +11064,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" ht="17">
       <c r="A322">
         <v>321</v>
       </c>
@@ -11151,7 +11081,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" ht="17">
       <c r="A323">
         <v>322</v>
       </c>
@@ -11168,7 +11098,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" ht="17">
       <c r="A324">
         <v>323</v>
       </c>
@@ -11185,7 +11115,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" ht="17">
       <c r="A325">
         <v>324</v>
       </c>
@@ -11202,7 +11132,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" ht="17">
       <c r="A326">
         <v>325</v>
       </c>
@@ -11219,7 +11149,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" ht="17">
       <c r="A327">
         <v>326</v>
       </c>
@@ -11236,7 +11166,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" ht="17">
       <c r="A328">
         <v>327</v>
       </c>
@@ -11253,7 +11183,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" ht="17">
       <c r="A329">
         <v>328</v>
       </c>
@@ -11270,7 +11200,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="31.2">
+    <row r="330" spans="1:5" ht="51">
       <c r="A330">
         <v>329</v>
       </c>
@@ -11287,7 +11217,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" ht="17">
       <c r="A331">
         <v>330</v>
       </c>
@@ -11304,7 +11234,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" ht="34">
       <c r="A332">
         <v>331</v>
       </c>
@@ -11321,7 +11251,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" ht="17">
       <c r="A333">
         <v>332</v>
       </c>
@@ -11338,7 +11268,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="31.2">
+    <row r="334" spans="1:5" ht="51">
       <c r="A334">
         <v>333</v>
       </c>
@@ -11355,7 +11285,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" ht="17">
       <c r="A335">
         <v>334</v>
       </c>
@@ -11372,7 +11302,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" ht="34">
       <c r="A336">
         <v>335</v>
       </c>
@@ -11389,7 +11319,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" ht="17">
       <c r="A337">
         <v>336</v>
       </c>
@@ -11406,7 +11336,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="46.8">
+    <row r="338" spans="1:5" ht="51">
       <c r="A338">
         <v>337</v>
       </c>
@@ -11423,7 +11353,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" ht="17">
       <c r="A339">
         <v>338</v>
       </c>
@@ -11440,7 +11370,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" ht="34">
       <c r="A340">
         <v>339</v>
       </c>
@@ -11457,7 +11387,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" ht="17">
       <c r="A341">
         <v>340</v>
       </c>
@@ -11474,7 +11404,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" ht="17">
       <c r="A342">
         <v>341</v>
       </c>
@@ -11491,7 +11421,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" ht="17">
       <c r="A343">
         <v>342</v>
       </c>
@@ -11508,7 +11438,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" ht="34">
       <c r="A344">
         <v>343</v>
       </c>
@@ -11525,7 +11455,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" ht="17">
       <c r="A345">
         <v>344</v>
       </c>
@@ -11542,7 +11472,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" ht="17">
       <c r="A346">
         <v>345</v>
       </c>
@@ -11559,7 +11489,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" ht="17">
       <c r="A347">
         <v>346</v>
       </c>
@@ -11576,7 +11506,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" ht="34">
       <c r="A348">
         <v>347</v>
       </c>
@@ -11593,7 +11523,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" ht="17">
       <c r="A349">
         <v>348</v>
       </c>
@@ -11610,7 +11540,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" ht="17">
       <c r="A350">
         <v>349</v>
       </c>
@@ -11627,7 +11557,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" ht="17">
       <c r="A351">
         <v>350</v>
       </c>
@@ -11644,7 +11574,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" ht="17">
       <c r="A352">
         <v>351</v>
       </c>
@@ -11661,7 +11591,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" ht="17">
       <c r="A353">
         <v>352</v>
       </c>
@@ -11678,7 +11608,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" ht="17">
       <c r="A354">
         <v>353</v>
       </c>
@@ -11695,7 +11625,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" ht="17">
       <c r="A355">
         <v>354</v>
       </c>
@@ -11712,7 +11642,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" ht="17">
       <c r="A356">
         <v>355</v>
       </c>
@@ -11729,7 +11659,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="31.2">
+    <row r="357" spans="1:5" ht="51">
       <c r="A357">
         <v>356</v>
       </c>
@@ -11746,7 +11676,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" ht="17">
       <c r="A358">
         <v>357</v>
       </c>
@@ -11763,7 +11693,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" ht="34">
       <c r="A359">
         <v>358</v>
       </c>
@@ -11780,7 +11710,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" ht="17">
       <c r="A360">
         <v>359</v>
       </c>
@@ -11797,7 +11727,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" ht="17">
       <c r="A361">
         <v>360</v>
       </c>
@@ -11814,7 +11744,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" ht="17">
       <c r="A362">
         <v>361</v>
       </c>
@@ -11831,7 +11761,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" ht="17">
       <c r="A363">
         <v>362</v>
       </c>
@@ -11848,7 +11778,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" ht="17">
       <c r="A364">
         <v>363</v>
       </c>
@@ -11865,7 +11795,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" ht="17">
       <c r="A365">
         <v>364</v>
       </c>
@@ -11882,7 +11812,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" ht="17">
       <c r="A366">
         <v>365</v>
       </c>
@@ -11899,7 +11829,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="31.2">
+    <row r="367" spans="1:5" ht="51">
       <c r="A367">
         <v>366</v>
       </c>
@@ -11916,7 +11846,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" ht="17">
       <c r="A368">
         <v>367</v>
       </c>
@@ -11933,7 +11863,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" ht="34">
       <c r="A369">
         <v>368</v>
       </c>
@@ -11950,7 +11880,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" ht="17">
       <c r="A370">
         <v>369</v>
       </c>
@@ -11967,7 +11897,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="31.2">
+    <row r="371" spans="1:5" ht="51">
       <c r="A371">
         <v>370</v>
       </c>
@@ -11984,7 +11914,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" ht="17">
       <c r="A372">
         <v>371</v>
       </c>
@@ -12001,7 +11931,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" ht="34">
       <c r="A373">
         <v>372</v>
       </c>
@@ -12018,7 +11948,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" ht="17">
       <c r="A374">
         <v>373</v>
       </c>
@@ -12035,7 +11965,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="31.2">
+    <row r="375" spans="1:5" ht="51">
       <c r="A375">
         <v>374</v>
       </c>
@@ -12052,7 +11982,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" ht="17">
       <c r="A376">
         <v>375</v>
       </c>
@@ -12069,7 +11999,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" ht="34">
       <c r="A377">
         <v>376</v>
       </c>
@@ -12086,7 +12016,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" ht="17">
       <c r="A378">
         <v>377</v>
       </c>
@@ -12103,7 +12033,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="31.2">
+    <row r="379" spans="1:5" ht="51">
       <c r="A379">
         <v>378</v>
       </c>
@@ -12120,7 +12050,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" ht="17">
       <c r="A380">
         <v>379</v>
       </c>
@@ -12137,7 +12067,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" ht="34">
       <c r="A381">
         <v>380</v>
       </c>
@@ -12154,7 +12084,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" ht="17">
       <c r="A382">
         <v>381</v>
       </c>
@@ -12171,7 +12101,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="31.2">
+    <row r="383" spans="1:5" ht="51">
       <c r="A383">
         <v>382</v>
       </c>
@@ -12188,7 +12118,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" ht="17">
       <c r="A384">
         <v>383</v>
       </c>
@@ -12205,7 +12135,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" ht="34">
       <c r="A385">
         <v>384</v>
       </c>
@@ -12222,7 +12152,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" ht="17">
       <c r="A386">
         <v>385</v>
       </c>
@@ -12239,7 +12169,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" ht="17">
       <c r="A387">
         <v>386</v>
       </c>
@@ -12256,7 +12186,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" ht="17">
       <c r="A388">
         <v>387</v>
       </c>
@@ -12273,7 +12203,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" ht="17">
       <c r="A389">
         <v>388</v>
       </c>
@@ -12290,7 +12220,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" ht="17">
       <c r="A390">
         <v>389</v>
       </c>
@@ -12307,7 +12237,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" ht="17">
       <c r="A391">
         <v>390</v>
       </c>
@@ -12324,7 +12254,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" ht="17">
       <c r="A392">
         <v>391</v>
       </c>
@@ -12341,7 +12271,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" ht="17">
       <c r="A393">
         <v>392</v>
       </c>
@@ -12358,7 +12288,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="31.2">
+    <row r="394" spans="1:5" ht="51">
       <c r="A394">
         <v>393</v>
       </c>
@@ -12375,7 +12305,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" ht="17">
       <c r="A395">
         <v>394</v>
       </c>
@@ -12392,7 +12322,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" ht="34">
       <c r="A396">
         <v>395</v>
       </c>
@@ -12409,7 +12339,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" ht="17">
       <c r="A397">
         <v>396</v>
       </c>
@@ -12426,7 +12356,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="31.2">
+    <row r="398" spans="1:5" ht="51">
       <c r="A398">
         <v>397</v>
       </c>
@@ -12443,7 +12373,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" ht="17">
       <c r="A399">
         <v>398</v>
       </c>
@@ -12460,7 +12390,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" ht="34">
       <c r="A400">
         <v>399</v>
       </c>
@@ -12477,7 +12407,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" ht="17">
       <c r="A401">
         <v>400</v>
       </c>
@@ -12494,7 +12424,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="46.8">
+    <row r="402" spans="1:5" ht="51">
       <c r="A402">
         <v>401</v>
       </c>
@@ -12511,7 +12441,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" ht="17">
       <c r="A403">
         <v>402</v>
       </c>
@@ -12528,7 +12458,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" ht="34">
       <c r="A404">
         <v>403</v>
       </c>
@@ -12545,7 +12475,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" ht="17">
       <c r="A405">
         <v>404</v>
       </c>
@@ -12562,7 +12492,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="46.8">
+    <row r="406" spans="1:5" ht="51">
       <c r="A406">
         <v>405</v>
       </c>
@@ -12579,7 +12509,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" ht="17">
       <c r="A407">
         <v>406</v>
       </c>
@@ -12596,7 +12526,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" ht="34">
       <c r="A408">
         <v>407</v>
       </c>
@@ -12613,7 +12543,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" ht="17">
       <c r="A409">
         <v>408</v>
       </c>
@@ -12630,7 +12560,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" ht="17">
       <c r="A410">
         <v>409</v>
       </c>
@@ -12647,7 +12577,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" ht="17">
       <c r="A411">
         <v>410</v>
       </c>
@@ -12664,7 +12594,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" ht="34">
       <c r="A412">
         <v>411</v>
       </c>
@@ -12681,7 +12611,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" ht="17">
       <c r="A413">
         <v>412</v>
       </c>
@@ -12698,7 +12628,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" ht="17">
       <c r="A414">
         <v>413</v>
       </c>
@@ -12715,7 +12645,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" ht="17">
       <c r="A415">
         <v>414</v>
       </c>
@@ -12732,7 +12662,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" ht="17">
       <c r="A416">
         <v>415</v>
       </c>
@@ -12749,7 +12679,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" ht="17">
       <c r="A417">
         <v>416</v>
       </c>
@@ -12766,7 +12696,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" ht="17">
       <c r="A418">
         <v>417</v>
       </c>
@@ -12783,7 +12713,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" ht="17">
       <c r="A419">
         <v>418</v>
       </c>
@@ -12800,7 +12730,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="31.2">
+    <row r="420" spans="1:5" ht="51">
       <c r="A420">
         <v>419</v>
       </c>
@@ -12817,7 +12747,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" ht="17">
       <c r="A421">
         <v>420</v>
       </c>
@@ -12834,7 +12764,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" ht="34">
       <c r="A422">
         <v>421</v>
       </c>
@@ -12851,7 +12781,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" ht="17">
       <c r="A423">
         <v>422</v>
       </c>
@@ -12868,7 +12798,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="31.2">
+    <row r="424" spans="1:5" ht="51">
       <c r="A424">
         <v>423</v>
       </c>
@@ -12885,7 +12815,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" ht="17">
       <c r="A425">
         <v>424</v>
       </c>
@@ -12902,7 +12832,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" ht="34">
       <c r="A426">
         <v>425</v>
       </c>
@@ -12919,7 +12849,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" ht="17">
       <c r="A427">
         <v>426</v>
       </c>
@@ -12936,7 +12866,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" ht="17">
       <c r="A428">
         <v>427</v>
       </c>
@@ -12953,7 +12883,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" ht="17">
       <c r="A429">
         <v>428</v>
       </c>
@@ -12970,7 +12900,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="46.8">
+    <row r="430" spans="1:5" ht="51">
       <c r="A430">
         <v>429</v>
       </c>
@@ -12987,7 +12917,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" ht="17">
       <c r="A431">
         <v>430</v>
       </c>
@@ -13004,7 +12934,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" ht="17">
       <c r="A432">
         <v>431</v>
       </c>
@@ -13021,7 +12951,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" ht="17">
       <c r="A433">
         <v>432</v>
       </c>
@@ -13038,7 +12968,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" ht="17">
       <c r="A434">
         <v>443</v>
       </c>
@@ -13055,7 +12985,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" ht="17">
       <c r="A435">
         <v>444</v>
       </c>
@@ -13072,7 +13002,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" ht="17">
       <c r="A436">
         <v>445</v>
       </c>
@@ -13089,7 +13019,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" ht="17">
       <c r="A437">
         <v>446</v>
       </c>
@@ -13106,7 +13036,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" ht="17">
       <c r="A438">
         <v>447</v>
       </c>
@@ -13123,7 +13053,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" ht="17">
       <c r="A439">
         <v>448</v>
       </c>
@@ -13140,7 +13070,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" ht="17">
       <c r="A440">
         <v>449</v>
       </c>
@@ -13157,7 +13087,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" ht="17">
       <c r="A441">
         <v>450</v>
       </c>
@@ -13174,7 +13104,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" ht="17">
       <c r="A442">
         <v>451</v>
       </c>
@@ -13191,7 +13121,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" ht="17">
       <c r="A443">
         <v>452</v>
       </c>
@@ -13208,7 +13138,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="31.2">
+    <row r="444" spans="1:5" ht="34">
       <c r="A444">
         <v>453</v>
       </c>
@@ -13225,7 +13155,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" ht="17">
       <c r="A445">
         <v>454</v>
       </c>
@@ -13242,7 +13172,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" ht="17">
       <c r="A446">
         <v>455</v>
       </c>
@@ -13259,7 +13189,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" ht="17">
       <c r="A447">
         <v>456</v>
       </c>
@@ -13276,7 +13206,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" ht="17">
       <c r="A448">
         <v>457</v>
       </c>
@@ -13293,7 +13223,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" ht="17">
       <c r="A449">
         <v>458</v>
       </c>
@@ -13310,7 +13240,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" ht="17">
       <c r="A450">
         <v>459</v>
       </c>
@@ -13327,7 +13257,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" ht="17">
       <c r="A451">
         <v>460</v>
       </c>
@@ -13344,7 +13274,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" ht="17">
       <c r="A452">
         <v>461</v>
       </c>
@@ -13361,7 +13291,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="31.2">
+    <row r="453" spans="1:5" ht="34">
       <c r="A453">
         <v>462</v>
       </c>
@@ -13378,7 +13308,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" ht="17">
       <c r="A454">
         <v>463</v>
       </c>
@@ -13395,7 +13325,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" ht="17">
       <c r="A455">
         <v>464</v>
       </c>
@@ -13412,7 +13342,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" ht="17">
       <c r="A456">
         <v>465</v>
       </c>
@@ -13429,7 +13359,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" ht="17">
       <c r="A457">
         <v>466</v>
       </c>
@@ -13446,7 +13376,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" ht="17">
       <c r="A458">
         <v>467</v>
       </c>
@@ -13470,27 +13400,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="39"/>
     <col min="2" max="2" width="9" style="39" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="35.1796875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="11.36328125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="23.453125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="39" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="39" customWidth="1"/>
     <col min="9" max="9" width="31" style="39" customWidth="1"/>
-    <col min="10" max="10" width="24.36328125" style="39" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="39" customWidth="1"/>
     <col min="12" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
@@ -13599,7 +13529,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="39">
         <v>3</v>
       </c>
@@ -13634,7 +13564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8">
+    <row r="5" spans="1:11" ht="30">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -13669,7 +13599,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8">
+    <row r="6" spans="1:11" ht="30">
       <c r="A6" s="39">
         <v>5</v>
       </c>
@@ -13704,7 +13634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" s="39">
         <v>6</v>
       </c>
@@ -13739,7 +13669,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:11" ht="30">
       <c r="A8" s="39">
         <v>7</v>
       </c>
@@ -13774,7 +13704,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.8">
+    <row r="9" spans="1:11" ht="30">
       <c r="A9" s="39">
         <v>8</v>
       </c>
@@ -13809,7 +13739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8">
+    <row r="10" spans="1:11" ht="30">
       <c r="A10" s="39">
         <v>9</v>
       </c>
@@ -13844,7 +13774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8">
+    <row r="11" spans="1:11" ht="30">
       <c r="A11" s="39">
         <v>10</v>
       </c>
@@ -13879,7 +13809,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.8">
+    <row r="12" spans="1:11" ht="30">
       <c r="A12" s="39">
         <v>11</v>
       </c>
@@ -13914,7 +13844,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15">
+    <row r="13" spans="1:11" ht="30">
       <c r="A13" s="39">
         <v>12</v>
       </c>
@@ -13949,7 +13879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.8">
+    <row r="14" spans="1:11" ht="30">
       <c r="A14" s="39">
         <v>13</v>
       </c>
@@ -13984,7 +13914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.8">
+    <row r="15" spans="1:11" ht="30">
       <c r="A15" s="39">
         <v>14</v>
       </c>
@@ -14019,7 +13949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8">
+    <row r="16" spans="1:11" ht="30">
       <c r="A16" s="39">
         <v>15</v>
       </c>
@@ -14054,7 +13984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="28.8">
+    <row r="17" spans="1:11" ht="30">
       <c r="A17" s="39">
         <v>16</v>
       </c>
@@ -14089,7 +14019,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="28.8">
+    <row r="18" spans="1:11" ht="30">
       <c r="A18" s="39">
         <v>17</v>
       </c>
@@ -14124,7 +14054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="28.8">
+    <row r="19" spans="1:11" ht="30">
       <c r="A19" s="39">
         <v>18</v>
       </c>
@@ -14159,7 +14089,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15">
+    <row r="20" spans="1:11" ht="17">
       <c r="A20" s="39">
         <v>19</v>
       </c>
@@ -14194,7 +14124,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15">
+    <row r="21" spans="1:11" ht="17">
       <c r="A21" s="39">
         <v>20</v>
       </c>
@@ -14229,7 +14159,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15">
+    <row r="22" spans="1:11" ht="17">
       <c r="A22" s="39">
         <v>21</v>
       </c>
@@ -14264,7 +14194,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="144">
+    <row r="23" spans="1:11" ht="165">
       <c r="A23" s="39">
         <v>22</v>
       </c>
@@ -14299,7 +14229,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="144">
+    <row r="24" spans="1:11" ht="165">
       <c r="A24" s="39">
         <v>23</v>
       </c>
@@ -14334,7 +14264,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="28.8">
+    <row r="25" spans="1:11" ht="30">
       <c r="A25" s="39">
         <v>24</v>
       </c>
@@ -14369,7 +14299,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="28.8">
+    <row r="26" spans="1:11" ht="30">
       <c r="A26" s="39">
         <v>25</v>
       </c>
@@ -14404,7 +14334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="28.8">
+    <row r="27" spans="1:11" ht="30">
       <c r="A27" s="39">
         <v>26</v>
       </c>
@@ -14439,7 +14369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="28.8">
+    <row r="28" spans="1:11" ht="30">
       <c r="A28" s="39">
         <v>27</v>
       </c>
@@ -14474,7 +14404,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="28.8">
+    <row r="29" spans="1:11" ht="30">
       <c r="A29" s="39">
         <v>28</v>
       </c>
@@ -14509,7 +14439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="28.8">
+    <row r="30" spans="1:11" ht="30">
       <c r="A30" s="39">
         <v>29</v>
       </c>
@@ -14544,7 +14474,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15">
+    <row r="31" spans="1:11" ht="30">
       <c r="A31" s="39">
         <v>30</v>
       </c>
@@ -14579,7 +14509,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="28.8">
+    <row r="32" spans="1:11" ht="30">
       <c r="A32" s="39">
         <v>31</v>
       </c>
@@ -14614,7 +14544,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="28.8">
+    <row r="33" spans="1:11" ht="30">
       <c r="A33" s="39">
         <v>32</v>
       </c>
@@ -14649,7 +14579,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="28.8">
+    <row r="34" spans="1:11" ht="30">
       <c r="A34" s="39">
         <v>33</v>
       </c>
@@ -14684,7 +14614,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="28.8">
+    <row r="35" spans="1:11" ht="30">
       <c r="A35" s="39">
         <v>34</v>
       </c>
@@ -14719,7 +14649,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="28.8">
+    <row r="36" spans="1:11" ht="30">
       <c r="A36" s="39">
         <v>35</v>
       </c>
@@ -14754,7 +14684,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="28.8">
+    <row r="37" spans="1:11" ht="30">
       <c r="A37" s="39">
         <v>36</v>
       </c>
@@ -14789,7 +14719,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="28.8">
+    <row r="38" spans="1:11" ht="30">
       <c r="A38" s="39">
         <v>37</v>
       </c>
@@ -14824,7 +14754,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="28.8">
+    <row r="39" spans="1:11" ht="30">
       <c r="A39" s="39">
         <v>38</v>
       </c>
@@ -14859,7 +14789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="28.8">
+    <row r="40" spans="1:11" ht="30">
       <c r="A40" s="39">
         <v>39</v>
       </c>
@@ -14894,7 +14824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="28.8">
+    <row r="41" spans="1:11" ht="30">
       <c r="A41" s="39">
         <v>40</v>
       </c>
@@ -14929,7 +14859,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="28.8">
+    <row r="42" spans="1:11" ht="30">
       <c r="A42" s="39">
         <v>41</v>
       </c>
@@ -14964,7 +14894,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="28.8">
+    <row r="43" spans="1:11" ht="30">
       <c r="A43" s="39">
         <v>42</v>
       </c>
@@ -14999,7 +14929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="28.8">
+    <row r="44" spans="1:11" ht="30">
       <c r="A44" s="39">
         <v>43</v>
       </c>
@@ -15034,7 +14964,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="28.8">
+    <row r="45" spans="1:11" ht="30">
       <c r="A45" s="39">
         <v>44</v>
       </c>
@@ -15069,7 +14999,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15">
+    <row r="46" spans="1:11" ht="16">
       <c r="A46" s="39">
         <v>45</v>
       </c>
@@ -15104,7 +15034,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="28.8">
+    <row r="47" spans="1:11" ht="30">
       <c r="A47" s="39">
         <v>46</v>
       </c>
@@ -15139,7 +15069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="28.8">
+    <row r="48" spans="1:11" ht="30">
       <c r="A48" s="39">
         <v>47</v>
       </c>
@@ -15174,7 +15104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="28.8">
+    <row r="49" spans="1:11" ht="30">
       <c r="A49" s="39">
         <v>48</v>
       </c>
@@ -15209,7 +15139,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="28.8">
+    <row r="50" spans="1:11" ht="30">
       <c r="A50" s="39">
         <v>49</v>
       </c>
@@ -15244,7 +15174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="28.8">
+    <row r="51" spans="1:11" ht="30">
       <c r="A51" s="39">
         <v>50</v>
       </c>
@@ -15279,7 +15209,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="57.6">
+    <row r="52" spans="1:11" ht="75">
       <c r="A52" s="39">
         <v>51</v>
       </c>
@@ -15314,7 +15244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="28.8">
+    <row r="53" spans="1:11" ht="30">
       <c r="A53" s="39">
         <v>52</v>
       </c>
@@ -15349,7 +15279,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15">
+    <row r="54" spans="1:11" ht="16">
       <c r="A54" s="39">
         <v>53</v>
       </c>
@@ -15384,7 +15314,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15">
+    <row r="55" spans="1:11" ht="16">
       <c r="A55" s="39">
         <v>54</v>
       </c>
@@ -15419,7 +15349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="28.8">
+    <row r="56" spans="1:11" ht="45">
       <c r="A56" s="39">
         <v>55</v>
       </c>
@@ -15454,7 +15384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="28.8">
+    <row r="57" spans="1:11" ht="30">
       <c r="A57" s="39">
         <v>56</v>
       </c>
@@ -15489,7 +15419,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="28.8">
+    <row r="58" spans="1:11" ht="30">
       <c r="A58" s="39">
         <v>57</v>
       </c>
@@ -15524,7 +15454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="28.8">
+    <row r="59" spans="1:11" ht="45">
       <c r="A59" s="39">
         <v>58</v>
       </c>
@@ -15559,7 +15489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="28.8">
+    <row r="60" spans="1:11" ht="45">
       <c r="A60" s="39">
         <v>59</v>
       </c>
@@ -15594,7 +15524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="28.8">
+    <row r="61" spans="1:11" ht="45">
       <c r="A61" s="39">
         <v>60</v>
       </c>
@@ -15629,7 +15559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="28.8">
+    <row r="62" spans="1:11" ht="30">
       <c r="A62" s="39">
         <v>61</v>
       </c>
@@ -15664,7 +15594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="28.8">
+    <row r="63" spans="1:11" ht="30">
       <c r="A63" s="39">
         <v>62</v>
       </c>
@@ -15699,7 +15629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15">
+    <row r="64" spans="1:11" ht="16">
       <c r="A64" s="39">
         <v>63</v>
       </c>
@@ -15734,7 +15664,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="28.8">
+    <row r="65" spans="1:11" ht="30">
       <c r="A65" s="39">
         <v>64</v>
       </c>
@@ -15769,7 +15699,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15">
+    <row r="66" spans="1:11" ht="16">
       <c r="A66" s="39">
         <v>65</v>
       </c>
@@ -15804,7 +15734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="28.8">
+    <row r="67" spans="1:11" ht="30">
       <c r="A67" s="39">
         <v>66</v>
       </c>
@@ -15839,7 +15769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="28.8">
+    <row r="68" spans="1:11" ht="30">
       <c r="A68" s="39">
         <v>67</v>
       </c>
@@ -15874,7 +15804,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15">
+    <row r="69" spans="1:11" ht="16">
       <c r="A69" s="39">
         <v>68</v>
       </c>
@@ -15909,7 +15839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15">
+    <row r="70" spans="1:11" ht="16">
       <c r="A70" s="39">
         <v>69</v>
       </c>
@@ -15944,7 +15874,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="28.8">
+    <row r="71" spans="1:11" ht="30">
       <c r="A71" s="39">
         <v>70</v>
       </c>
@@ -15979,7 +15909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="28.8">
+    <row r="72" spans="1:11" ht="30">
       <c r="A72" s="39">
         <v>71</v>
       </c>
@@ -16014,7 +15944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="28.8">
+    <row r="73" spans="1:11" ht="30">
       <c r="A73" s="39">
         <v>72</v>
       </c>
@@ -16049,7 +15979,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="28.8">
+    <row r="74" spans="1:11" ht="30">
       <c r="A74" s="39">
         <v>73</v>
       </c>
@@ -16084,7 +16014,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="28.8">
+    <row r="75" spans="1:11" ht="30">
       <c r="A75" s="39">
         <v>74</v>
       </c>
@@ -16119,7 +16049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="28.8">
+    <row r="76" spans="1:11" ht="30">
       <c r="A76" s="39">
         <v>75</v>
       </c>
@@ -16154,7 +16084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="28.8">
+    <row r="77" spans="1:11" ht="30">
       <c r="A77" s="39">
         <v>76</v>
       </c>
@@ -16189,7 +16119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="28.8">
+    <row r="78" spans="1:11" ht="30">
       <c r="A78" s="39">
         <v>77</v>
       </c>
@@ -16224,7 +16154,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="28.8">
+    <row r="79" spans="1:11" ht="30">
       <c r="A79" s="39">
         <v>78</v>
       </c>
@@ -16259,7 +16189,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="28.8">
+    <row r="80" spans="1:11" ht="30">
       <c r="A80" s="39">
         <v>79</v>
       </c>
@@ -16294,7 +16224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15">
+    <row r="81" spans="1:11" ht="16">
       <c r="A81" s="39">
         <v>80</v>
       </c>
@@ -16329,7 +16259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15">
+    <row r="82" spans="1:11" ht="16">
       <c r="A82" s="39">
         <v>81</v>
       </c>
@@ -16364,7 +16294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="28.8">
+    <row r="83" spans="1:11" ht="30">
       <c r="A83" s="39">
         <v>82</v>
       </c>
@@ -16399,7 +16329,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="28.8">
+    <row r="84" spans="1:11" ht="30">
       <c r="A84" s="39">
         <v>83</v>
       </c>
@@ -16434,7 +16364,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="28.8">
+    <row r="85" spans="1:11" ht="30">
       <c r="A85" s="39">
         <v>84</v>
       </c>
@@ -16469,7 +16399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="28.8">
+    <row r="86" spans="1:11" ht="30">
       <c r="A86" s="39">
         <v>85</v>
       </c>
@@ -16504,7 +16434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="28.8">
+    <row r="87" spans="1:11" ht="30">
       <c r="A87" s="39">
         <v>86</v>
       </c>
@@ -16539,7 +16469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="28.8">
+    <row r="88" spans="1:11" ht="30">
       <c r="A88" s="39">
         <v>87</v>
       </c>
@@ -16574,7 +16504,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="28.8">
+    <row r="89" spans="1:11" ht="30">
       <c r="A89" s="39">
         <v>88</v>
       </c>
@@ -16609,7 +16539,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="28.8">
+    <row r="90" spans="1:11" ht="30">
       <c r="A90" s="39">
         <v>89</v>
       </c>
@@ -16644,7 +16574,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="28.8">
+    <row r="91" spans="1:11" ht="30">
       <c r="A91" s="39">
         <v>90</v>
       </c>
@@ -16679,7 +16609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="24">
+    <row r="92" spans="1:11" ht="30">
       <c r="A92" s="39">
         <v>91</v>
       </c>
@@ -16714,7 +16644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="24">
+    <row r="93" spans="1:11" ht="30">
       <c r="A93" s="39">
         <v>92</v>
       </c>
@@ -16749,7 +16679,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="36">
+    <row r="94" spans="1:11" ht="45">
       <c r="A94" s="39">
         <v>93</v>
       </c>
@@ -16784,7 +16714,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="36">
+    <row r="95" spans="1:11" ht="45">
       <c r="A95" s="39">
         <v>94</v>
       </c>
@@ -16819,7 +16749,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="36">
+    <row r="96" spans="1:11" ht="45">
       <c r="A96" s="39">
         <v>95</v>
       </c>
@@ -16854,7 +16784,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="36">
+    <row r="97" spans="1:11" ht="45">
       <c r="A97" s="39">
         <v>96</v>
       </c>
@@ -16889,7 +16819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="24">
+    <row r="98" spans="1:11" ht="30">
       <c r="A98" s="39">
         <v>97</v>
       </c>
@@ -16924,7 +16854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="24">
+    <row r="99" spans="1:11" ht="30">
       <c r="A99" s="39">
         <v>98</v>
       </c>
@@ -16959,7 +16889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="36">
+    <row r="100" spans="1:11" ht="45">
       <c r="A100" s="39">
         <v>99</v>
       </c>
@@ -16994,7 +16924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="24">
+    <row r="101" spans="1:11" ht="30">
       <c r="A101" s="39">
         <v>100</v>
       </c>
@@ -17029,7 +16959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="36">
+    <row r="102" spans="1:11" ht="45">
       <c r="A102" s="39">
         <v>101</v>
       </c>
@@ -17064,7 +16994,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="36">
+    <row r="103" spans="1:11" ht="45">
       <c r="A103" s="39">
         <v>102</v>
       </c>
@@ -17099,7 +17029,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="36">
+    <row r="104" spans="1:11" ht="45">
       <c r="A104" s="39">
         <v>103</v>
       </c>
@@ -17134,7 +17064,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="24">
+    <row r="105" spans="1:11" ht="30">
       <c r="A105" s="39">
         <v>104</v>
       </c>
@@ -17176,27 +17106,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.81640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="39"/>
-    <col min="2" max="2" width="14.6328125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" style="154" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="136" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="10" customWidth="1"/>
     <col min="5" max="5" width="45" style="16" customWidth="1"/>
     <col min="6" max="6" width="23" style="10" customWidth="1"/>
-    <col min="7" max="7" width="25.6328125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" style="10" customWidth="1"/>
-    <col min="9" max="10" width="33.81640625" style="10"/>
-    <col min="11" max="11" width="21.81640625" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="33.81640625" style="10"/>
+    <col min="7" max="7" width="25.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="10" customWidth="1"/>
+    <col min="9" max="10" width="33.83203125" style="10"/>
+    <col min="11" max="11" width="21.83203125" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="33.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
@@ -17206,7 +17136,7 @@
       <c r="B1" s="98" t="s">
         <v>408</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="137" t="s">
         <v>409</v>
       </c>
       <c r="D1" s="56" t="s">
@@ -17241,7 +17171,7 @@
       <c r="B2" s="110" t="s">
         <v>1174</v>
       </c>
-      <c r="C2" s="134">
+      <c r="C2" s="138">
         <v>45232.600231481483</v>
       </c>
       <c r="D2" s="41" t="s">
@@ -17274,7 +17204,7 @@
       <c r="B3" s="115" t="s">
         <v>1174</v>
       </c>
-      <c r="C3" s="135">
+      <c r="C3" s="139">
         <v>45232.600358796299</v>
       </c>
       <c r="D3" s="41" t="s">
@@ -17307,7 +17237,7 @@
       <c r="B4" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C4" s="136">
+      <c r="C4" s="140">
         <v>45232.600497685184</v>
       </c>
       <c r="D4" s="41" t="s">
@@ -17340,7 +17270,7 @@
       <c r="B5" s="118" t="s">
         <v>1174</v>
       </c>
-      <c r="C5" s="137">
+      <c r="C5" s="141">
         <v>45232.600624999999</v>
       </c>
       <c r="D5" s="41" t="s">
@@ -17373,7 +17303,7 @@
       <c r="B6" s="119" t="s">
         <v>1174</v>
       </c>
-      <c r="C6" s="138">
+      <c r="C6" s="142">
         <v>45232.600752314815</v>
       </c>
       <c r="D6" s="41" t="s">
@@ -17406,7 +17336,7 @@
       <c r="B7" s="120" t="s">
         <v>1174</v>
       </c>
-      <c r="C7" s="139">
+      <c r="C7" s="143">
         <v>45232.60087962963</v>
       </c>
       <c r="D7" s="41" t="s">
@@ -17439,11 +17369,11 @@
       <c r="B8" s="121" t="s">
         <v>1174</v>
       </c>
-      <c r="C8" s="140">
+      <c r="C8" s="144">
         <v>45232.601018518515</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E8" s="116" t="s">
         <v>552</v>
@@ -17472,7 +17402,7 @@
       <c r="B9" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C9" s="136">
+      <c r="C9" s="140">
         <v>45232.601145833331</v>
       </c>
       <c r="D9" s="41" t="s">
@@ -17505,7 +17435,7 @@
       <c r="B10" s="121" t="s">
         <v>1174</v>
       </c>
-      <c r="C10" s="140">
+      <c r="C10" s="144">
         <v>45232.601273148146</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -17538,7 +17468,7 @@
       <c r="B11" s="119" t="s">
         <v>1174</v>
       </c>
-      <c r="C11" s="138">
+      <c r="C11" s="142">
         <v>45232.601400462961</v>
       </c>
       <c r="D11" s="41" t="s">
@@ -17571,7 +17501,7 @@
       <c r="B12" s="119" t="s">
         <v>1174</v>
       </c>
-      <c r="C12" s="138">
+      <c r="C12" s="142">
         <v>45232.601527777777</v>
       </c>
       <c r="D12" s="41" t="s">
@@ -17604,7 +17534,7 @@
       <c r="B13" s="121" t="s">
         <v>1174</v>
       </c>
-      <c r="C13" s="140">
+      <c r="C13" s="144">
         <v>45232.601666666669</v>
       </c>
       <c r="D13" s="41" t="s">
@@ -17637,7 +17567,7 @@
       <c r="B14" s="119" t="s">
         <v>1174</v>
       </c>
-      <c r="C14" s="138">
+      <c r="C14" s="142">
         <v>45232.601793981485</v>
       </c>
       <c r="D14" s="41" t="s">
@@ -17670,7 +17600,7 @@
       <c r="B15" s="121" t="s">
         <v>1174</v>
       </c>
-      <c r="C15" s="140">
+      <c r="C15" s="144">
         <v>45232.601921296293</v>
       </c>
       <c r="D15" s="41" t="s">
@@ -17703,7 +17633,7 @@
       <c r="B16" s="119" t="s">
         <v>1174</v>
       </c>
-      <c r="C16" s="138">
+      <c r="C16" s="142">
         <v>45232.602048611108</v>
       </c>
       <c r="D16" s="41" t="s">
@@ -17736,7 +17666,7 @@
       <c r="B17" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C17" s="136">
+      <c r="C17" s="140">
         <v>45232.602187500001</v>
       </c>
       <c r="D17" s="41" t="s">
@@ -17769,7 +17699,7 @@
       <c r="B18" s="121" t="s">
         <v>1174</v>
       </c>
-      <c r="C18" s="140">
+      <c r="C18" s="144">
         <v>45232.602314814816</v>
       </c>
       <c r="D18" s="41" t="s">
@@ -17802,7 +17732,7 @@
       <c r="B19" s="115" t="s">
         <v>1174</v>
       </c>
-      <c r="C19" s="135">
+      <c r="C19" s="139">
         <v>45232.602442129632</v>
       </c>
       <c r="D19" s="41" t="s">
@@ -17835,7 +17765,7 @@
       <c r="B20" s="115" t="s">
         <v>1174</v>
       </c>
-      <c r="C20" s="135">
+      <c r="C20" s="139">
         <v>45232.602569444447</v>
       </c>
       <c r="D20" s="41" t="s">
@@ -17870,7 +17800,7 @@
       <c r="B21" s="115" t="s">
         <v>1174</v>
       </c>
-      <c r="C21" s="135">
+      <c r="C21" s="139">
         <v>45232.602708333332</v>
       </c>
       <c r="D21" s="41" t="s">
@@ -17905,7 +17835,7 @@
       <c r="B22" s="115" t="s">
         <v>1174</v>
       </c>
-      <c r="C22" s="141">
+      <c r="C22" s="145">
         <v>45232.602835648147</v>
       </c>
       <c r="D22" s="50" t="s">
@@ -17940,7 +17870,7 @@
       <c r="B23" s="115" t="s">
         <v>1174</v>
       </c>
-      <c r="C23" s="141">
+      <c r="C23" s="145">
         <v>45232.602962962963</v>
       </c>
       <c r="D23" s="50" t="s">
@@ -17973,7 +17903,7 @@
       <c r="B24" s="115" t="s">
         <v>1174</v>
       </c>
-      <c r="C24" s="135">
+      <c r="C24" s="139">
         <v>45232.603090277778</v>
       </c>
       <c r="D24" s="41" t="s">
@@ -18008,7 +17938,7 @@
       <c r="B25" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C25" s="142">
+      <c r="C25" s="146">
         <v>45232.603229166663</v>
       </c>
       <c r="D25" s="41" t="s">
@@ -18043,7 +17973,7 @@
       <c r="B26" s="119" t="s">
         <v>1174</v>
       </c>
-      <c r="C26" s="143">
+      <c r="C26" s="147">
         <v>45232.603356481479</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -18078,7 +18008,7 @@
       <c r="B27" s="121" t="s">
         <v>1174</v>
       </c>
-      <c r="C27" s="140">
+      <c r="C27" s="144">
         <v>45232.603483796294</v>
       </c>
       <c r="D27" s="41" t="s">
@@ -18113,7 +18043,7 @@
       <c r="B28" s="119" t="s">
         <v>1174</v>
       </c>
-      <c r="C28" s="138">
+      <c r="C28" s="142">
         <v>45232.603622685187</v>
       </c>
       <c r="D28" s="41" t="s">
@@ -18148,7 +18078,7 @@
       <c r="B29" s="121" t="s">
         <v>1174</v>
       </c>
-      <c r="C29" s="144">
+      <c r="C29" s="148">
         <v>45232.603750000002</v>
       </c>
       <c r="D29" s="41" t="s">
@@ -18183,7 +18113,7 @@
       <c r="B30" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C30" s="142">
+      <c r="C30" s="146">
         <v>45232.603877314818</v>
       </c>
       <c r="D30" s="41" t="s">
@@ -18218,7 +18148,7 @@
       <c r="B31" s="115" t="s">
         <v>1174</v>
       </c>
-      <c r="C31" s="141">
+      <c r="C31" s="145">
         <v>45232.604004629633</v>
       </c>
       <c r="D31" s="50" t="s">
@@ -18253,8 +18183,8 @@
       <c r="B32" s="125" t="s">
         <v>1174</v>
       </c>
-      <c r="C32" s="155" t="s">
-        <v>1229</v>
+      <c r="C32" s="149" t="s">
+        <v>1228</v>
       </c>
       <c r="D32" s="50" t="s">
         <v>1201</v>
@@ -18283,12 +18213,10 @@
       <c r="A33" s="45">
         <v>32</v>
       </c>
-      <c r="B33" s="121" t="s">
+      <c r="B33" s="135" t="s">
         <v>1203</v>
       </c>
-      <c r="C33" s="140" t="s">
-        <v>1204</v>
-      </c>
+      <c r="C33" s="150"/>
       <c r="D33" s="50" t="s">
         <v>1201</v>
       </c>
@@ -18318,12 +18246,10 @@
       <c r="A34" s="45">
         <v>33</v>
       </c>
-      <c r="B34" s="119" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C34" s="138" t="s">
-        <v>1205</v>
-      </c>
+      <c r="B34" s="134" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C34" s="150"/>
       <c r="D34" s="50" t="s">
         <v>1201</v>
       </c>
@@ -18353,12 +18279,10 @@
       <c r="A35" s="45">
         <v>34</v>
       </c>
-      <c r="B35" s="119" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C35" s="138" t="s">
-        <v>1206</v>
-      </c>
+      <c r="B35" s="134" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C35" s="150"/>
       <c r="D35" s="50" t="s">
         <v>1201</v>
       </c>
@@ -18391,7 +18315,7 @@
       <c r="B36" s="121" t="s">
         <v>1174</v>
       </c>
-      <c r="C36" s="144">
+      <c r="C36" s="148">
         <v>45232.39738425926</v>
       </c>
       <c r="D36" s="50" t="s">
@@ -18426,7 +18350,7 @@
       <c r="B37" s="119" t="s">
         <v>1174</v>
       </c>
-      <c r="C37" s="143">
+      <c r="C37" s="147">
         <v>45232.397511574076</v>
       </c>
       <c r="D37" s="50" t="s">
@@ -18461,7 +18385,7 @@
       <c r="B38" s="115" t="s">
         <v>1174</v>
       </c>
-      <c r="C38" s="141">
+      <c r="C38" s="145">
         <v>45232.397638888891</v>
       </c>
       <c r="D38" s="50" t="s">
@@ -18496,7 +18420,7 @@
       <c r="B39" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C39" s="142">
+      <c r="C39" s="146">
         <v>45232.397766203707</v>
       </c>
       <c r="D39" s="50" t="s">
@@ -18528,17 +18452,15 @@
       <c r="A40" s="45">
         <v>39</v>
       </c>
-      <c r="B40" s="115" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C40" s="135" t="s">
+      <c r="B40" s="133" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C40" s="150"/>
+      <c r="D40" s="41" t="s">
         <v>1207</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="E40" s="123" t="s">
         <v>1208</v>
-      </c>
-      <c r="E40" s="123" t="s">
-        <v>1209</v>
       </c>
       <c r="F40" s="112" t="s">
         <v>181</v>
@@ -18562,11 +18484,11 @@
       <c r="B41" s="121" t="s">
         <v>1174</v>
       </c>
-      <c r="C41" s="140">
+      <c r="C41" s="144">
         <v>45232.581805555557</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E41" s="123" t="s">
         <v>535</v>
@@ -18593,7 +18515,7 @@
       <c r="B42" s="119" t="s">
         <v>1174</v>
       </c>
-      <c r="C42" s="143">
+      <c r="C42" s="147">
         <v>45232.398078703707</v>
       </c>
       <c r="D42" s="50" t="s">
@@ -18624,7 +18546,7 @@
       <c r="B43" s="119" t="s">
         <v>1174</v>
       </c>
-      <c r="C43" s="138">
+      <c r="C43" s="142">
         <v>45232.398148148146</v>
       </c>
       <c r="D43" s="50" t="s">
@@ -18655,7 +18577,7 @@
       <c r="B44" s="126" t="s">
         <v>1174</v>
       </c>
-      <c r="C44" s="145">
+      <c r="C44" s="151">
         <v>45232.398287037038</v>
       </c>
       <c r="D44" s="41" t="s">
@@ -18675,7 +18597,7 @@
         <v>768</v>
       </c>
       <c r="J44" s="113" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K44" s="114" t="s">
         <v>3</v>
@@ -18688,7 +18610,7 @@
       <c r="B45" s="127" t="s">
         <v>1174</v>
       </c>
-      <c r="C45" s="146">
+      <c r="C45" s="152">
         <v>45232.398356481484</v>
       </c>
       <c r="D45" s="50" t="s">
@@ -18708,7 +18630,7 @@
         <v>790</v>
       </c>
       <c r="J45" s="113" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K45" s="114" t="s">
         <v>3</v>
@@ -18721,7 +18643,7 @@
       <c r="B46" s="127" t="s">
         <v>1174</v>
       </c>
-      <c r="C46" s="146">
+      <c r="C46" s="152">
         <v>45232.3984837963</v>
       </c>
       <c r="D46" s="50" t="s">
@@ -18741,7 +18663,7 @@
         <v>770</v>
       </c>
       <c r="J46" s="113" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K46" s="114" t="s">
         <v>3</v>
@@ -18754,7 +18676,7 @@
       <c r="B47" s="128" t="s">
         <v>1174</v>
       </c>
-      <c r="C47" s="147">
+      <c r="C47" s="153">
         <v>45232.398611111108</v>
       </c>
       <c r="D47" s="50" t="s">
@@ -18774,7 +18696,7 @@
         <v>792</v>
       </c>
       <c r="J47" s="113" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K47" s="114" t="s">
         <v>3</v>
@@ -18787,7 +18709,7 @@
       <c r="B48" s="128" t="s">
         <v>1174</v>
       </c>
-      <c r="C48" s="147">
+      <c r="C48" s="153">
         <v>45232.398738425924</v>
       </c>
       <c r="D48" s="50" t="s">
@@ -18807,7 +18729,7 @@
         <v>772</v>
       </c>
       <c r="J48" s="113" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K48" s="114" t="s">
         <v>3</v>
@@ -18820,7 +18742,7 @@
       <c r="B49" s="129" t="s">
         <v>1174</v>
       </c>
-      <c r="C49" s="148">
+      <c r="C49" s="154">
         <v>45232.399363425924</v>
       </c>
       <c r="D49" s="50" t="s">
@@ -18828,7 +18750,7 @@
       </c>
       <c r="E49" s="112"/>
       <c r="F49" s="112" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G49" s="112" t="s">
         <v>39</v>
@@ -18838,7 +18760,7 @@
         <v>797</v>
       </c>
       <c r="J49" s="113" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K49" s="114" t="s">
         <v>3</v>
@@ -18851,7 +18773,7 @@
       <c r="B50" s="127" t="s">
         <v>1174</v>
       </c>
-      <c r="C50" s="146">
+      <c r="C50" s="152">
         <v>45232.39949074074</v>
       </c>
       <c r="D50" s="50" t="s">
@@ -18868,10 +18790,10 @@
       </c>
       <c r="H50" s="112"/>
       <c r="I50" s="113" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="J50" s="113" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K50" s="114" t="s">
         <v>3</v>
@@ -18884,7 +18806,7 @@
       <c r="B51" s="128" t="s">
         <v>1174</v>
       </c>
-      <c r="C51" s="147">
+      <c r="C51" s="153">
         <v>45232.399618055555</v>
       </c>
       <c r="D51" s="50" t="s">
@@ -18904,7 +18826,7 @@
         <v>799</v>
       </c>
       <c r="J51" s="113" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K51" s="114" t="s">
         <v>3</v>
@@ -18917,7 +18839,7 @@
       <c r="B52" s="127" t="s">
         <v>1174</v>
       </c>
-      <c r="C52" s="146">
+      <c r="C52" s="152">
         <v>45232.399745370371</v>
       </c>
       <c r="D52" s="50" t="s">
@@ -18937,7 +18859,7 @@
         <v>786</v>
       </c>
       <c r="J52" s="113" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K52" s="114" t="s">
         <v>3</v>
@@ -18950,14 +18872,14 @@
       <c r="B53" s="127" t="s">
         <v>1174</v>
       </c>
-      <c r="C53" s="146">
+      <c r="C53" s="152">
         <v>45232.399814814817</v>
       </c>
       <c r="D53" s="50" t="s">
         <v>66</v>
       </c>
       <c r="E53" s="123" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F53" s="112" t="s">
         <v>185</v>
@@ -18970,7 +18892,7 @@
         <v>816</v>
       </c>
       <c r="J53" s="113" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K53" s="114" t="s">
         <v>3</v>
@@ -18983,7 +18905,7 @@
       <c r="B54" s="127" t="s">
         <v>1174</v>
       </c>
-      <c r="C54" s="146">
+      <c r="C54" s="152">
         <v>45232.399895833332</v>
       </c>
       <c r="D54" s="50" t="s">
@@ -19016,7 +18938,7 @@
       <c r="B55" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C55" s="142">
+      <c r="C55" s="146">
         <v>45232.399965277778</v>
       </c>
       <c r="D55" s="50" t="s">
@@ -19049,7 +18971,7 @@
       <c r="B56" s="127" t="s">
         <v>1174</v>
       </c>
-      <c r="C56" s="146">
+      <c r="C56" s="152">
         <v>45232.400092592594</v>
       </c>
       <c r="D56" s="50" t="s">
@@ -19082,7 +19004,7 @@
       <c r="B57" s="127" t="s">
         <v>1174</v>
       </c>
-      <c r="C57" s="146">
+      <c r="C57" s="152">
         <v>45232.400092592594</v>
       </c>
       <c r="D57" s="50" t="s">
@@ -19115,7 +19037,7 @@
       <c r="B58" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C58" s="142">
+      <c r="C58" s="146">
         <v>45232.400289351855</v>
       </c>
       <c r="D58" s="50" t="s">
@@ -19135,7 +19057,7 @@
         <v>768</v>
       </c>
       <c r="J58" s="130" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="K58" s="131" t="s">
         <v>7</v>
@@ -19148,7 +19070,7 @@
       <c r="B59" s="127" t="s">
         <v>1174</v>
       </c>
-      <c r="C59" s="146">
+      <c r="C59" s="152">
         <v>45232.40042824074</v>
       </c>
       <c r="D59" s="50" t="s">
@@ -19168,7 +19090,7 @@
         <v>790</v>
       </c>
       <c r="J59" s="130" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="K59" s="131" t="s">
         <v>7</v>
@@ -19181,7 +19103,7 @@
       <c r="B60" s="127" t="s">
         <v>1174</v>
       </c>
-      <c r="C60" s="146">
+      <c r="C60" s="152">
         <v>45232.400555555556</v>
       </c>
       <c r="D60" s="50" t="s">
@@ -19201,7 +19123,7 @@
         <v>770</v>
       </c>
       <c r="J60" s="130" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="K60" s="131" t="s">
         <v>7</v>
@@ -19214,7 +19136,7 @@
       <c r="B61" s="127" t="s">
         <v>1174</v>
       </c>
-      <c r="C61" s="146">
+      <c r="C61" s="152">
         <v>45232.39435185185</v>
       </c>
       <c r="D61" s="50" t="s">
@@ -19234,7 +19156,7 @@
         <v>792</v>
       </c>
       <c r="J61" s="130" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="K61" s="131" t="s">
         <v>7</v>
@@ -19247,7 +19169,7 @@
       <c r="B62" s="132" t="s">
         <v>1174</v>
       </c>
-      <c r="C62" s="149">
+      <c r="C62" s="155">
         <v>45232.394479166665</v>
       </c>
       <c r="D62" s="50" t="s">
@@ -19264,7 +19186,7 @@
       </c>
       <c r="H62" s="108"/>
       <c r="I62" s="130" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="J62" s="130" t="s">
         <v>839</v>
@@ -19280,7 +19202,7 @@
       <c r="B63" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C63" s="142">
+      <c r="C63" s="146">
         <v>45232.394618055558</v>
       </c>
       <c r="D63" s="50" t="s">
@@ -19313,7 +19235,7 @@
       <c r="B64" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C64" s="136">
+      <c r="C64" s="140">
         <v>45232.394745370373</v>
       </c>
       <c r="D64" s="41" t="s">
@@ -19346,7 +19268,7 @@
       <c r="B65" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C65" s="142">
+      <c r="C65" s="146">
         <v>45232.394872685189</v>
       </c>
       <c r="D65" s="50" t="s">
@@ -19379,7 +19301,7 @@
       <c r="B66" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C66" s="136">
+      <c r="C66" s="140">
         <v>45232.395011574074</v>
       </c>
       <c r="D66" s="41" t="s">
@@ -19412,7 +19334,7 @@
       <c r="B67" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C67" s="136">
+      <c r="C67" s="140">
         <v>45232.395138888889</v>
       </c>
       <c r="D67" s="41" t="s">
@@ -19445,7 +19367,7 @@
       <c r="B68" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C68" s="136">
+      <c r="C68" s="140">
         <v>45232.395266203705</v>
       </c>
       <c r="D68" s="41" t="s">
@@ -19478,7 +19400,7 @@
       <c r="B69" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C69" s="142">
+      <c r="C69" s="146">
         <v>45232.39539351852</v>
       </c>
       <c r="D69" s="50" t="s">
@@ -19511,7 +19433,7 @@
       <c r="B70" s="128" t="s">
         <v>1174</v>
       </c>
-      <c r="C70" s="150">
+      <c r="C70" s="156">
         <v>45232.395532407405</v>
       </c>
       <c r="D70" s="41" t="s">
@@ -19544,7 +19466,7 @@
       <c r="B71" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C71" s="136">
+      <c r="C71" s="140">
         <v>45232.39565972222</v>
       </c>
       <c r="D71" s="41" t="s">
@@ -19577,7 +19499,7 @@
       <c r="B72" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C72" s="136">
+      <c r="C72" s="140">
         <v>45232.396087962959</v>
       </c>
       <c r="D72" s="41" t="s">
@@ -19610,7 +19532,7 @@
       <c r="B73" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C73" s="136">
+      <c r="C73" s="140">
         <v>45232.396215277775</v>
       </c>
       <c r="D73" s="41" t="s">
@@ -19643,7 +19565,7 @@
       <c r="B74" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C74" s="136">
+      <c r="C74" s="140">
         <v>45232.396284722221</v>
       </c>
       <c r="D74" s="41" t="s">
@@ -19676,7 +19598,7 @@
       <c r="B75" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C75" s="136">
+      <c r="C75" s="140">
         <v>45232.396423611113</v>
       </c>
       <c r="D75" s="41" t="s">
@@ -19709,14 +19631,14 @@
       <c r="B76" s="115" t="s">
         <v>1174</v>
       </c>
-      <c r="C76" s="135">
+      <c r="C76" s="139">
         <v>45232.396550925929</v>
       </c>
       <c r="D76" s="41" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E76" s="116" t="s">
         <v>1216</v>
-      </c>
-      <c r="E76" s="116" t="s">
-        <v>1217</v>
       </c>
       <c r="F76" s="108" t="s">
         <v>197</v>
@@ -19740,7 +19662,7 @@
       <c r="B77" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C77" s="136">
+      <c r="C77" s="140">
         <v>45232.396678240744</v>
       </c>
       <c r="D77" s="41" t="s">
@@ -19773,11 +19695,11 @@
       <c r="B78" s="117" t="s">
         <v>1174</v>
       </c>
-      <c r="C78" s="136">
+      <c r="C78" s="140">
         <v>45232.579085648147</v>
       </c>
       <c r="D78" s="41" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E78" s="116" t="s">
         <v>534</v>
@@ -19804,7 +19726,7 @@
       <c r="B79" s="104" t="s">
         <v>1174</v>
       </c>
-      <c r="C79" s="151">
+      <c r="C79" s="157">
         <v>45231.731157407405</v>
       </c>
       <c r="D79" s="42" t="s">
@@ -19835,7 +19757,7 @@
       <c r="B80" s="104" t="s">
         <v>1174</v>
       </c>
-      <c r="C80" s="151">
+      <c r="C80" s="157">
         <v>45231.731423611112</v>
       </c>
       <c r="D80" s="42" t="s">
@@ -19866,7 +19788,7 @@
       <c r="B81" s="104" t="s">
         <v>1174</v>
       </c>
-      <c r="C81" s="151">
+      <c r="C81" s="157">
         <v>45231.731504629628</v>
       </c>
       <c r="D81" s="42" t="s">
@@ -19897,7 +19819,7 @@
       <c r="B82" s="104" t="s">
         <v>1174</v>
       </c>
-      <c r="C82" s="151">
+      <c r="C82" s="157">
         <v>45231.731585648151</v>
       </c>
       <c r="D82" s="42" t="s">
@@ -19928,7 +19850,7 @@
       <c r="B83" s="104" t="s">
         <v>1174</v>
       </c>
-      <c r="C83" s="151">
+      <c r="C83" s="157">
         <v>45231.731666666667</v>
       </c>
       <c r="D83" s="42" t="s">
@@ -19959,7 +19881,7 @@
       <c r="B84" s="104" t="s">
         <v>1174</v>
       </c>
-      <c r="C84" s="151">
+      <c r="C84" s="157">
         <v>45231.731759259259</v>
       </c>
       <c r="D84" s="42" t="s">
@@ -19990,7 +19912,7 @@
       <c r="B85" s="104" t="s">
         <v>1174</v>
       </c>
-      <c r="C85" s="151">
+      <c r="C85" s="157">
         <v>45231.731944444444</v>
       </c>
       <c r="D85" s="42" t="s">
@@ -20021,7 +19943,7 @@
       <c r="B86" s="104" t="s">
         <v>1174</v>
       </c>
-      <c r="C86" s="151">
+      <c r="C86" s="157">
         <v>45231.732025462959</v>
       </c>
       <c r="D86" s="42" t="s">
@@ -20052,7 +19974,7 @@
       <c r="B87" s="104" t="s">
         <v>1174</v>
       </c>
-      <c r="C87" s="151">
+      <c r="C87" s="157">
         <v>45231.732118055559</v>
       </c>
       <c r="D87" s="42" t="s">
@@ -20083,7 +20005,7 @@
       <c r="B88" s="104" t="s">
         <v>1174</v>
       </c>
-      <c r="C88" s="151">
+      <c r="C88" s="157">
         <v>45231.732199074075</v>
       </c>
       <c r="D88" s="42" t="s">
@@ -20107,14 +20029,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" ht="30">
       <c r="A89" s="103">
         <v>88</v>
       </c>
       <c r="B89" s="42" t="s">
         <v>1174</v>
       </c>
-      <c r="C89" s="151">
+      <c r="C89" s="157">
         <v>45231.73232638889</v>
       </c>
       <c r="D89" s="42" t="s">
@@ -20140,24 +20062,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" ht="30">
       <c r="A90" s="103">
         <v>89</v>
       </c>
       <c r="B90" s="104" t="s">
         <v>1174</v>
       </c>
-      <c r="C90" s="151">
+      <c r="C90" s="157">
         <v>45231.73678240741</v>
       </c>
       <c r="D90" s="42" t="s">
         <v>1091</v>
       </c>
       <c r="E90" s="105" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F90" s="37" t="s">
         <v>1218</v>
-      </c>
-      <c r="F90" s="37" t="s">
-        <v>1219</v>
       </c>
       <c r="G90" s="42" t="s">
         <v>36</v>
@@ -20173,14 +20095,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="158.4">
+    <row r="91" spans="1:11" ht="195">
       <c r="A91" s="103">
         <v>90</v>
       </c>
       <c r="B91" s="104" t="s">
         <v>1174</v>
       </c>
-      <c r="C91" s="152">
+      <c r="C91" s="158">
         <v>45231.732557870368</v>
       </c>
       <c r="D91" s="42" t="s">
@@ -20204,14 +20126,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="158.4">
+    <row r="92" spans="1:11" ht="195">
       <c r="A92" s="103">
         <v>91</v>
       </c>
       <c r="B92" s="104" t="s">
         <v>1174</v>
       </c>
-      <c r="C92" s="152">
+      <c r="C92" s="158">
         <v>45231.745150462964</v>
       </c>
       <c r="D92" s="42" t="s">
@@ -20242,7 +20164,7 @@
       <c r="B93" s="104" t="s">
         <v>1174</v>
       </c>
-      <c r="C93" s="151">
+      <c r="C93" s="157">
         <v>45232.390868055554</v>
       </c>
       <c r="D93" s="108" t="s">
@@ -20275,7 +20197,7 @@
       <c r="B94" s="104" t="s">
         <v>1174</v>
       </c>
-      <c r="C94" s="151">
+      <c r="C94" s="157">
         <v>45231.750636574077</v>
       </c>
       <c r="D94" s="108" t="s">
@@ -20301,14 +20223,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="28.8">
+    <row r="95" spans="1:11" ht="45">
       <c r="A95" s="103">
         <v>94</v>
       </c>
       <c r="B95" s="104" t="s">
         <v>1174</v>
       </c>
-      <c r="C95" s="152">
+      <c r="C95" s="158">
         <v>45232.590208333335</v>
       </c>
       <c r="D95" s="42" t="s">
@@ -20332,14 +20254,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="28.8">
+    <row r="96" spans="1:11" ht="45">
       <c r="A96" s="103">
         <v>95</v>
       </c>
       <c r="B96" s="104" t="s">
         <v>1174</v>
       </c>
-      <c r="C96" s="152">
+      <c r="C96" s="158">
         <v>45231.733981481484</v>
       </c>
       <c r="D96" s="42" t="s">
@@ -20363,14 +20285,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="28.8">
+    <row r="97" spans="1:11" ht="45">
       <c r="A97" s="103">
         <v>96</v>
       </c>
       <c r="B97" s="104" t="s">
         <v>1174</v>
       </c>
-      <c r="C97" s="152">
+      <c r="C97" s="158">
         <v>45231.734085648146</v>
       </c>
       <c r="D97" s="42" t="s">
@@ -20394,21 +20316,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="28.8">
+    <row r="98" spans="1:11" ht="30">
       <c r="A98" s="103">
         <v>97</v>
       </c>
       <c r="B98" s="104" t="s">
         <v>1174</v>
       </c>
-      <c r="C98" s="152">
+      <c r="C98" s="158">
         <v>45231.742407407408</v>
       </c>
       <c r="D98" s="42" t="s">
         <v>1062</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F98" s="106" t="s">
         <v>1123</v>
@@ -20432,7 +20354,7 @@
       <c r="B99" s="109" t="s">
         <v>1174</v>
       </c>
-      <c r="C99" s="153">
+      <c r="C99" s="159">
         <v>45232.575613425928</v>
       </c>
       <c r="D99" s="108" t="s">
@@ -20463,7 +20385,7 @@
       <c r="B100" s="109" t="s">
         <v>1174</v>
       </c>
-      <c r="C100" s="153">
+      <c r="C100" s="159">
         <v>45232.575810185182</v>
       </c>
       <c r="D100" s="108" t="s">
@@ -20495,7 +20417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20503,14 +20425,14 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.81640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" style="13" customWidth="1"/>
-    <col min="5" max="7" width="33.81640625" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="33.81640625" style="13"/>
+    <col min="1" max="1" width="11.83203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="13" customWidth="1"/>
+    <col min="5" max="7" width="33.83203125" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="33.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1">
@@ -23759,7 +23681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AC43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -23767,13 +23689,13 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2:G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.81640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="33.81640625" style="13" customWidth="1"/>
-    <col min="3" max="5" width="33.81640625" style="64" customWidth="1"/>
-    <col min="6" max="10" width="33.81640625" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="33.81640625" style="13"/>
+    <col min="1" max="1" width="12.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" style="13" customWidth="1"/>
+    <col min="3" max="5" width="33.83203125" style="64" customWidth="1"/>
+    <col min="6" max="10" width="33.83203125" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="33.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
@@ -24782,7 +24704,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="58.05" customHeight="1">
+    <row r="33" spans="1:29" ht="58" customHeight="1">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -24812,7 +24734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="58.05" customHeight="1">
+    <row r="34" spans="1:29" ht="58" customHeight="1">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -24842,7 +24764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="58.05" customHeight="1">
+    <row r="35" spans="1:29" ht="58" customHeight="1">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -24891,14 +24813,14 @@
       <c r="AB35" s="55"/>
       <c r="AC35" s="55"/>
     </row>
-    <row r="36" spans="1:29" ht="58.05" customHeight="1"/>
-    <row r="37" spans="1:29" ht="58.05" customHeight="1"/>
-    <row r="38" spans="1:29" ht="58.05" customHeight="1"/>
-    <row r="39" spans="1:29" ht="58.05" customHeight="1"/>
-    <row r="40" spans="1:29" ht="58.05" customHeight="1"/>
-    <row r="41" spans="1:29" ht="58.05" customHeight="1"/>
-    <row r="42" spans="1:29" ht="58.05" customHeight="1"/>
-    <row r="43" spans="1:29" ht="58.05" customHeight="1"/>
+    <row r="36" spans="1:29" ht="58" customHeight="1"/>
+    <row r="37" spans="1:29" ht="58" customHeight="1"/>
+    <row r="38" spans="1:29" ht="58" customHeight="1"/>
+    <row r="39" spans="1:29" ht="58" customHeight="1"/>
+    <row r="40" spans="1:29" ht="58" customHeight="1"/>
+    <row r="41" spans="1:29" ht="58" customHeight="1"/>
+    <row r="42" spans="1:29" ht="58" customHeight="1"/>
+    <row r="43" spans="1:29" ht="58" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24907,7 +24829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24915,17 +24837,17 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:J66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="39"/>
-    <col min="2" max="2" width="10.81640625" style="10" customWidth="1"/>
-    <col min="3" max="4" width="24.36328125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="48.6328125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="19.1796875" style="10" customWidth="1"/>
-    <col min="9" max="64" width="10.81640625" style="10" customWidth="1"/>
-    <col min="65" max="16384" width="10.81640625" style="10"/>
+    <col min="2" max="2" width="10.83203125" style="10" customWidth="1"/>
+    <col min="3" max="4" width="24.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="48.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="10" customWidth="1"/>
+    <col min="9" max="64" width="10.83203125" style="10" customWidth="1"/>
+    <col min="65" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1">
